--- a/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5669" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5669" uniqueCount="643">
   <si>
     <t>User role</t>
   </si>
@@ -565,7 +565,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>UOTE6F-NXIRYU-AT3YXD-AALHKD2I</t>
+    <t>U747D3-NM65DB-WR7QZZ-KC2NCIZE</t>
   </si>
   <si>
     <t>Admin Surveillance Supervisor</t>
@@ -574,13 +574,13 @@
     <t>Region</t>
   </si>
   <si>
-    <t>RIU44G-BKX3NI-4NJ24Y-NWEXCHC4</t>
+    <t>VDFMCV-YTRS6Q-XEINFL-QJOVCC6U</t>
   </si>
   <si>
     <t>BAG User</t>
   </si>
   <si>
-    <t>XUPNT3-X4F3F2-5Q6FGM-4RI3CCTM</t>
+    <t>XQIVZG-D6TK3D-JD6QYU-BUY7KIYA</t>
   </si>
   <si>
     <t>Case Officer</t>
@@ -589,13 +589,13 @@
     <t>District</t>
   </si>
   <si>
-    <t>U2VYVZ-YJTG4E-MBZWOT-OSXJCBFQ</t>
+    <t>WV3LXO-56LNGV-3IZBUP-GIOR2GFE</t>
   </si>
   <si>
     <t>Clinician</t>
   </si>
   <si>
-    <t>QZEF3F-O4NGU6-RJOAJS-GRGQSFYU</t>
+    <t>UZYLRH-EFDUOX-KUJ3EG-DUWK2DY4</t>
   </si>
   <si>
     <t>Community Informant</t>
@@ -604,37 +604,37 @@
     <t>Community</t>
   </si>
   <si>
-    <t>SJXKO7-W2ZORG-JE2XLV-DBXFKHIU</t>
+    <t>XYAEFU-HYAXDI-725ONV-7TEFSBFU</t>
   </si>
   <si>
     <t>Community Officer</t>
   </si>
   <si>
-    <t>R2OXBZ-MDRU2A-X67T7G-O5UFSCPY</t>
+    <t>T7NTCD-DEKMW5-S6AD5M-4NBIKJO4</t>
   </si>
   <si>
     <t>Contact Officer</t>
   </si>
   <si>
-    <t>XJ2OI2-6RB7X5-CBF2GJ-U2XYKJLI</t>
+    <t>RCMKDX-EQLAE2-NHD3BC-BR3M2OZU</t>
   </si>
   <si>
     <t>Contact Supervisor</t>
   </si>
   <si>
-    <t>RRCR7X-DCN6JJ-PENNZE-7RBD2C5Y</t>
+    <t>WYQ2RB-YA2ELL-K7KJHK-5EZHCBYY</t>
   </si>
   <si>
     <t>District Observer</t>
   </si>
   <si>
-    <t>XDBHQQ-YEKH2R-VH53DM-D77BKMBM</t>
+    <t>SBC4W3-FLYTHP-6VTPSH-XMUNCDYU</t>
   </si>
   <si>
     <t>Event Officer</t>
   </si>
   <si>
-    <t>XDCC2F-V4D753-THUGWU-6IRLSKRM</t>
+    <t>XWO2OV-PHYVTN-ONJONK-CTAL2N4A</t>
   </si>
   <si>
     <t>External Lab Officer</t>
@@ -643,7 +643,7 @@
     <t>External laboratory</t>
   </si>
   <si>
-    <t>XIBCDW-AT7WXW-EXVIMR-3ZA7SJR4</t>
+    <t>WI4WZ3-ESGPVY-K5LU3T-DVXWKNUE</t>
   </si>
   <si>
     <t>External Visits User</t>
@@ -652,7 +652,7 @@
     <t>Nation</t>
   </si>
   <si>
-    <t>SKQBSJ-CUM3K7-VZTEQQ-VQZSKPDM</t>
+    <t>UYWCH4-FJAGER-2ACPVM-IJPMSLIA</t>
   </si>
   <si>
     <t>Hospital Informant</t>
@@ -661,13 +661,13 @@
     <t>Facility</t>
   </si>
   <si>
-    <t>WEDCCG-7OQ32G-WU4IJU-WSOKCFQI</t>
+    <t>TVM3BX-TNWMTL-IOKHA3-HIDMSNWM</t>
   </si>
   <si>
     <t>Import User</t>
   </si>
   <si>
-    <t>UXJCUI-HGVT7T-FO4OIZ-FVX7SD6M</t>
+    <t>Q7XTYT-NXGRV7-MZCM72-PJI6SJNI</t>
   </si>
   <si>
     <t>Lab Officer</t>
@@ -676,25 +676,25 @@
     <t>Laboratory</t>
   </si>
   <si>
-    <t>S4RBWI-WKAKWQ-XPG3F6-GUKOCDJA</t>
+    <t>XM2CKA-JH4XLH-ITNFMA-PMEUCKE4</t>
   </si>
   <si>
     <t>National Clinician</t>
   </si>
   <si>
-    <t>QEPIWK-KBCCR4-KLFXJQ-OPWX2C6Y</t>
+    <t>VTYTZS-YIZJGZ-XDCZUX-6LASKP5E</t>
   </si>
   <si>
     <t>National Observer</t>
   </si>
   <si>
-    <t>ROVJCN-3UX77Q-DI7M3P-HWCACL5M</t>
+    <t>VRCKMH-VZ4PCU-RLIGJK-VTT6SKBM</t>
   </si>
   <si>
     <t>National User</t>
   </si>
   <si>
-    <t>VH43BG-G46A3E-GUC6PV-EJW72M7Y</t>
+    <t>THVPON-N2KIAV-HVW3HB-4YQC2CT4</t>
   </si>
   <si>
     <t>POE Informant</t>
@@ -703,43 +703,43 @@
     <t>Point of entry</t>
   </si>
   <si>
-    <t>SG5HYJ-IIWTVQ-4OSVGI-Q4XM2NNY</t>
+    <t>XF4CRI-ZFPMYE-ZYF6GK-JESZCD6U</t>
   </si>
   <si>
     <t>POE National User</t>
   </si>
   <si>
-    <t>UIFCNV-JCCAEG-ITEQZN-5ZPKSDLE</t>
+    <t>RQKG7J-AT6NDJ-3BMVD5-FTK22LDI</t>
   </si>
   <si>
     <t>POE Supervisor</t>
   </si>
   <si>
-    <t>XVYMZY-SUW4CK-MF5GXP-2VRP2BPU</t>
+    <t>T44AYC-UIT3W5-42JHEK-TJOHKE5M</t>
   </si>
   <si>
     <t>Region Observer</t>
   </si>
   <si>
-    <t>VOTCRN-JPX7DS-P2GFLC-35OICMIY</t>
+    <t>V34LKQ-Q65T6Y-AALGOD-XIYNSDQI</t>
   </si>
   <si>
     <t>Sormas to Sormas Client</t>
   </si>
   <si>
-    <t>TLJZWE-6EBLB7-5FR7QQ-WGTAKGHI</t>
+    <t>UHCKZK-O4OOBH-VRJQ35-JP44KK7M</t>
   </si>
   <si>
     <t>Surveillance Officer</t>
   </si>
   <si>
-    <t>R3NV77-BXQE7L-UDB2X4-T6S32D4Y</t>
+    <t>XSQHXN-P4WH74-VUDC4F-LPIISCYY</t>
   </si>
   <si>
     <t>Surveillance Supervisor</t>
   </si>
   <si>
-    <t>XSKOWE-5RGNQY-BKR35X-XH5C2KRA</t>
+    <t>SQWC5Y-UHX7B6-RC2Z5W-M3U2KD6E</t>
   </si>
   <si>
     <t>User Right</t>
@@ -763,144 +763,159 @@
     <t>Able to view existing cases</t>
   </si>
   <si>
+    <t>Create new cases</t>
+  </si>
+  <si>
+    <t>Able to create new cases</t>
+  </si>
+  <si>
+    <t>PERSON_VIEW, CASE_VIEW</t>
+  </si>
+  <si>
+    <t>Edit existing cases</t>
+  </si>
+  <si>
+    <t>Able to edit existing cases</t>
+  </si>
+  <si>
+    <t>PERSON_VIEW, PERSON_EDIT, CASE_VIEW</t>
+  </si>
+  <si>
+    <t>Archive cases</t>
+  </si>
+  <si>
+    <t>Able to archive cases</t>
+  </si>
+  <si>
+    <t>Delete cases from the system</t>
+  </si>
+  <si>
+    <t>Able to delete cases from the system</t>
+  </si>
+  <si>
+    <t>DOCUMENT_VIEW, ADDITIONAL_TEST_VIEW, PERSON_DELETE, TASK_VIEW, SAMPLE_DELETE, TREATMENT_DELETE, THERAPY_VIEW, ADDITIONAL_TEST_DELETE, PRESCRIPTION_DELETE, CLINICAL_COURSE_VIEW, VISIT_DELETE, CLINICAL_VISIT_DELETE, IMMUNIZATION_DELETE, PATHOGEN_TEST_DELETE, DOCUMENT_DELETE, PERSON_VIEW, SAMPLE_VIEW, TASK_DELETE, IMMUNIZATION_VIEW, CASE_VIEW</t>
+  </si>
+  <si>
+    <t>Import cases into SORMAS</t>
+  </si>
+  <si>
+    <t>Able to import cases into SORMAS</t>
+  </si>
+  <si>
+    <t>Export cases from SORMAS</t>
+  </si>
+  <si>
+    <t>Able to export cases from SORMAS</t>
+  </si>
+  <si>
+    <t>Edit case investigation status</t>
+  </si>
+  <si>
+    <t>Able to edit case investigation status</t>
+  </si>
+  <si>
+    <t>CASE_EDIT, PERSON_VIEW, PERSON_EDIT, CASE_VIEW</t>
+  </si>
+  <si>
+    <t>Edit case classification and outcome</t>
+  </si>
+  <si>
+    <t>Able to edit case classification and outcome</t>
+  </si>
+  <si>
+    <t>Edit case disease</t>
+  </si>
+  <si>
+    <t>Able to edit case disease</t>
+  </si>
+  <si>
+    <t>Edit case epid number</t>
+  </si>
+  <si>
+    <t>Able to edit case epid number</t>
+  </si>
+  <si>
+    <t>Transfer cases to another region/district/facility</t>
+  </si>
+  <si>
+    <t>Able to transfer cases to another region/district/facility</t>
+  </si>
+  <si>
+    <t>Refer case from point of entry</t>
+  </si>
+  <si>
+    <t>Able to refer case from point of entry</t>
+  </si>
+  <si>
+    <t>Merge cases</t>
+  </si>
+  <si>
+    <t>Able to merge cases</t>
+  </si>
+  <si>
+    <t>Share cases with the whole country</t>
+  </si>
+  <si>
+    <t>Able to share cases with the whole country</t>
+  </si>
+  <si>
+    <t>Can be responsible for a case</t>
+  </si>
+  <si>
+    <t>Immunization</t>
+  </si>
+  <si>
+    <t>View existing immunizations and vaccinations</t>
+  </si>
+  <si>
+    <t>Able to view existing immunizations and vaccinations</t>
+  </si>
+  <si>
+    <t>Create new immunizations and vaccinations</t>
+  </si>
+  <si>
+    <t>Able to create new immunizations and vaccinations</t>
+  </si>
+  <si>
+    <t>PERSON_VIEW, IMMUNIZATION_VIEW</t>
+  </si>
+  <si>
+    <t>Edit existing immunizations and vaccinations</t>
+  </si>
+  <si>
+    <t>Able to edit existing immunizations and vaccinations</t>
+  </si>
+  <si>
+    <t>PERSON_VIEW, IMMUNIZATION_VIEW, PERSON_EDIT</t>
+  </si>
+  <si>
+    <t>Archive immunizations</t>
+  </si>
+  <si>
+    <t>Able to archive immunizations</t>
+  </si>
+  <si>
+    <t>Delete immunizations and vaccinations from the system</t>
+  </si>
+  <si>
+    <t>Able to delete immunizations and vaccinations from the system</t>
+  </si>
+  <si>
+    <t>PERSON_DELETE, PERSON_VIEW, IMMUNIZATION_VIEW, VISIT_DELETE</t>
+  </si>
+  <si>
+    <t>Persons</t>
+  </si>
+  <si>
+    <t>View existing persons</t>
+  </si>
+  <si>
+    <t>Able to view existing persons</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Create new cases</t>
-  </si>
-  <si>
-    <t>Able to create new cases</t>
-  </si>
-  <si>
-    <t>Edit existing cases</t>
-  </si>
-  <si>
-    <t>Able to edit existing cases</t>
-  </si>
-  <si>
-    <t>Archive cases</t>
-  </si>
-  <si>
-    <t>Able to archive cases</t>
-  </si>
-  <si>
-    <t>Delete cases from the system</t>
-  </si>
-  <si>
-    <t>Able to delete cases from the system</t>
-  </si>
-  <si>
-    <t>TASK_DELETE, VISIT_DELETE, CLINICAL_COURSE_VIEW, IMMUNIZATION_VIEW, ADDITIONAL_TEST_DELETE, CLINICAL_VISIT_DELETE, TASK_VIEW, TREATMENT_DELETE, PERSON_VIEW, THERAPY_VIEW, PERSON_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, PATHOGEN_TEST_DELETE, DOCUMENT_DELETE, PRESCRIPTION_DELETE, DOCUMENT_VIEW, CASE_VIEW, SAMPLE_DELETE, IMMUNIZATION_DELETE</t>
-  </si>
-  <si>
-    <t>Import cases into SORMAS</t>
-  </si>
-  <si>
-    <t>Able to import cases into SORMAS</t>
-  </si>
-  <si>
-    <t>Export cases from SORMAS</t>
-  </si>
-  <si>
-    <t>Able to export cases from SORMAS</t>
-  </si>
-  <si>
-    <t>Edit case investigation status</t>
-  </si>
-  <si>
-    <t>Able to edit case investigation status</t>
-  </si>
-  <si>
-    <t>CASE_EDIT, CASE_VIEW</t>
-  </si>
-  <si>
-    <t>Edit case classification and outcome</t>
-  </si>
-  <si>
-    <t>Able to edit case classification and outcome</t>
-  </si>
-  <si>
-    <t>Edit case disease</t>
-  </si>
-  <si>
-    <t>Able to edit case disease</t>
-  </si>
-  <si>
-    <t>Edit case epid number</t>
-  </si>
-  <si>
-    <t>Able to edit case epid number</t>
-  </si>
-  <si>
-    <t>Transfer cases to another region/district/facility</t>
-  </si>
-  <si>
-    <t>Able to transfer cases to another region/district/facility</t>
-  </si>
-  <si>
-    <t>Refer case from point of entry</t>
-  </si>
-  <si>
-    <t>Able to refer case from point of entry</t>
-  </si>
-  <si>
-    <t>Merge cases</t>
-  </si>
-  <si>
-    <t>Able to merge cases</t>
-  </si>
-  <si>
-    <t>Share cases with the whole country</t>
-  </si>
-  <si>
-    <t>Able to share cases with the whole country</t>
-  </si>
-  <si>
-    <t>Can be responsible for a case</t>
-  </si>
-  <si>
-    <t>Immunization</t>
-  </si>
-  <si>
-    <t>View existing immunizations and vaccinations</t>
-  </si>
-  <si>
-    <t>Able to view existing immunizations and vaccinations</t>
-  </si>
-  <si>
-    <t>Create new immunizations and vaccinations</t>
-  </si>
-  <si>
-    <t>Able to create new immunizations and vaccinations</t>
-  </si>
-  <si>
-    <t>Edit existing immunizations and vaccinations</t>
-  </si>
-  <si>
-    <t>Able to edit existing immunizations and vaccinations</t>
-  </si>
-  <si>
-    <t>Archive immunizations</t>
-  </si>
-  <si>
-    <t>Able to archive immunizations</t>
-  </si>
-  <si>
-    <t>Delete immunizations and vaccinations from the system</t>
-  </si>
-  <si>
-    <t>Able to delete immunizations and vaccinations from the system</t>
-  </si>
-  <si>
-    <t>Persons</t>
-  </si>
-  <si>
-    <t>View existing persons</t>
-  </si>
-  <si>
-    <t>Able to view existing persons</t>
-  </si>
-  <si>
     <t>Edit existing persons</t>
   </si>
   <si>
@@ -913,7 +928,7 @@
     <t>Able to delete persons from the system</t>
   </si>
   <si>
-    <t>VISIT_DELETE, PERSON_VIEW</t>
+    <t>PERSON_VIEW, VISIT_DELETE</t>
   </si>
   <si>
     <t>Export persons</t>
@@ -958,7 +973,7 @@
     <t>Able to delete samples from the system</t>
   </si>
   <si>
-    <t>SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE, PATHOGEN_TEST_DELETE</t>
+    <t>PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_VIEW, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE</t>
   </si>
   <si>
     <t>Export samples from SORMAS</t>
@@ -973,7 +988,7 @@
     <t>Able to transfer samples to another lab</t>
   </si>
   <si>
-    <t>SAMPLE_VIEW, SAMPLE_EDIT</t>
+    <t>SAMPLE_EDIT, SAMPLE_VIEW</t>
   </si>
   <si>
     <t>Edit samples reported by other users</t>
@@ -1048,7 +1063,7 @@
     <t>Able to create new contacts</t>
   </si>
   <si>
-    <t>CASE_VIEW, CONTACT_VIEW</t>
+    <t>PERSON_VIEW, CONTACT_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Edit existing contacts</t>
@@ -1057,6 +1072,9 @@
     <t>Able to edit existing contacts</t>
   </si>
   <si>
+    <t>PERSON_VIEW, CONTACT_VIEW, PERSON_EDIT, CASE_VIEW</t>
+  </si>
+  <si>
     <t>Archive contacts</t>
   </si>
   <si>
@@ -1069,7 +1087,7 @@
     <t>Able to delete contacts from the system</t>
   </si>
   <si>
-    <t>TASK_DELETE, VISIT_DELETE, ADDITIONAL_TEST_DELETE, TASK_VIEW, PERSON_VIEW, CONTACT_VIEW, PERSON_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, PATHOGEN_TEST_DELETE, DOCUMENT_DELETE, DOCUMENT_VIEW, CASE_VIEW, SAMPLE_DELETE</t>
+    <t>DOCUMENT_VIEW, ADDITIONAL_TEST_VIEW, PERSON_DELETE, TASK_VIEW, SAMPLE_DELETE, CONTACT_VIEW, ADDITIONAL_TEST_DELETE, VISIT_DELETE, PATHOGEN_TEST_DELETE, DOCUMENT_DELETE, PERSON_VIEW, SAMPLE_VIEW, TASK_DELETE, CASE_VIEW</t>
   </si>
   <si>
     <t>Import contacts</t>
@@ -1090,7 +1108,7 @@
     <t>Able to create resulting cases from contacts</t>
   </si>
   <si>
-    <t>CONTACT_EDIT, CASE_VIEW, CONTACT_VIEW, CASE_CREATE</t>
+    <t>CASE_CREATE, PERSON_VIEW, CONTACT_VIEW, PERSON_EDIT, CONTACT_EDIT, CASE_VIEW</t>
   </si>
   <si>
     <t>Reassign the source case of contacts</t>
@@ -1099,7 +1117,7 @@
     <t>Able to reassign the source case of contacts</t>
   </si>
   <si>
-    <t>CONTACT_EDIT, CASE_VIEW, CONTACT_VIEW</t>
+    <t>PERSON_VIEW, CONTACT_VIEW, PERSON_EDIT, CONTACT_EDIT, CASE_VIEW</t>
   </si>
   <si>
     <t>Merge contacts</t>
@@ -1195,7 +1213,7 @@
     <t>Able to delete actions from the system</t>
   </si>
   <si>
-    <t>EVENT_VIEW, DOCUMENT_DELETE, DOCUMENT_VIEW</t>
+    <t>DOCUMENT_VIEW, DOCUMENT_DELETE, EVENT_VIEW</t>
   </si>
   <si>
     <t>Edit existing actions</t>
@@ -1234,7 +1252,7 @@
     <t>Able to delete events from the system</t>
   </si>
   <si>
-    <t>TASK_DELETE, VISIT_DELETE, ADDITIONAL_TEST_DELETE, EVENTPARTICIPANT_VIEW, TASK_VIEW, PERSON_VIEW, PERSON_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, PATHOGEN_TEST_DELETE, EVENT_VIEW, DOCUMENT_DELETE, DOCUMENT_VIEW, ACTION_DELETE, EVENTPARTICIPANT_DELETE, SAMPLE_DELETE</t>
+    <t>DOCUMENT_VIEW, ADDITIONAL_TEST_VIEW, TASK_VIEW, PERSON_DELETE, SAMPLE_DELETE, ADDITIONAL_TEST_DELETE, VISIT_DELETE, EVENTPARTICIPANT_VIEW, PATHOGEN_TEST_DELETE, DOCUMENT_DELETE, PERSON_VIEW, SAMPLE_VIEW, TASK_DELETE, ACTION_DELETE, EVENT_VIEW, EVENTPARTICIPANT_DELETE</t>
   </si>
   <si>
     <t>Import events</t>
@@ -1255,7 +1273,7 @@
     <t>Able to perform bulk operations in the event directory</t>
   </si>
   <si>
-    <t>EVENT_VIEW, EVENT_EDIT</t>
+    <t>EVENT_EDIT, EVENT_VIEW</t>
   </si>
   <si>
     <t>Can be responsible for an event</t>
@@ -1267,13 +1285,16 @@
     <t>Able to view existing event participants</t>
   </si>
   <si>
+    <t>PERSON_VIEW, EVENT_VIEW</t>
+  </si>
+  <si>
     <t>Create new event participants</t>
   </si>
   <si>
     <t>Able to create new event participants</t>
   </si>
   <si>
-    <t>EVENT_VIEW, EVENTPARTICIPANT_VIEW</t>
+    <t>EVENTPARTICIPANT_VIEW, PERSON_VIEW, EVENT_VIEW</t>
   </si>
   <si>
     <t>Edit existing event participants</t>
@@ -1282,6 +1303,9 @@
     <t>Able to edit existing event participants</t>
   </si>
   <si>
+    <t>EVENTPARTICIPANT_VIEW, PERSON_VIEW, PERSON_EDIT, EVENT_VIEW</t>
+  </si>
+  <si>
     <t>Event participant archive</t>
   </si>
   <si>
@@ -1294,7 +1318,7 @@
     <t>Able to delete event participants from the system</t>
   </si>
   <si>
-    <t>PERSON_DELETE, VISIT_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE, PATHOGEN_TEST_DELETE, EVENT_VIEW, EVENTPARTICIPANT_VIEW, PERSON_VIEW, SAMPLE_DELETE</t>
+    <t>EVENTPARTICIPANT_VIEW, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_VIEW, PERSON_DELETE, SAMPLE_DELETE, PERSON_VIEW, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE, EVENT_VIEW, VISIT_DELETE</t>
   </si>
   <si>
     <t>Import event participants</t>
@@ -1309,7 +1333,7 @@
     <t>Able to perform bulk operations in the event participants directory</t>
   </si>
   <si>
-    <t>EVENT_VIEW, EVENTPARTICIPANT_VIEW, EVENTPARTICIPANT_EDIT</t>
+    <t>EVENTPARTICIPANT_VIEW, EVENTPARTICIPANT_EDIT, PERSON_VIEW, PERSON_EDIT, EVENT_VIEW</t>
   </si>
   <si>
     <t>Create new event groups</t>
@@ -1453,6 +1477,9 @@
     <t>Able to view contact transmission chains on the dashboard</t>
   </si>
   <si>
+    <t>PERSON_VIEW, CONTACT_VIEW, DASHBOARD_CONTACT_VIEW, CASE_VIEW</t>
+  </si>
+  <si>
     <t>Access campaigns dashboard</t>
   </si>
   <si>
@@ -1480,7 +1507,7 @@
     <t>Able to create new prescriptions</t>
   </si>
   <si>
-    <t>CASE_VIEW, THERAPY_VIEW</t>
+    <t>PERSON_VIEW, THERAPY_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Edit existing prescriptions</t>
@@ -1525,7 +1552,7 @@
     <t>Able to edit the clinical course of cases</t>
   </si>
   <si>
-    <t>CLINICAL_COURSE_VIEW, CASE_VIEW, THERAPY_VIEW</t>
+    <t>PERSON_VIEW, THERAPY_VIEW, CLINICAL_COURSE_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Create new clinical visits</t>
@@ -1561,7 +1588,7 @@
     <t>Able to edit existing port health info</t>
   </si>
   <si>
-    <t>CASE_VIEW, PORT_HEALTH_INFO_VIEW</t>
+    <t>PERSON_VIEW, PORT_HEALTH_INFO_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Aggregated Reporting</t>
@@ -1651,7 +1678,7 @@
     <t>Able to delete campaigns from the system</t>
   </si>
   <si>
-    <t>CAMPAIGN_FORM_DATA_VIEW, CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_DELETE</t>
+    <t>CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_VIEW, CAMPAIGN_FORM_DATA_DELETE</t>
   </si>
   <si>
     <t>View existing campaign form data</t>
@@ -1699,13 +1726,16 @@
     <t>Able to view existing travel entries</t>
   </si>
   <si>
+    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW</t>
+  </si>
+  <si>
     <t>Create new travel entries</t>
   </si>
   <si>
     <t>Able to create new travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
+    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW, TRAVEL_ENTRY_VIEW</t>
   </si>
   <si>
     <t>Edit existing travel entries</t>
@@ -1714,6 +1744,9 @@
     <t>Able to edit existing travel entries</t>
   </si>
   <si>
+    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW, TRAVEL_ENTRY_VIEW, PERSON_EDIT</t>
+  </si>
+  <si>
     <t>Archive travel entries</t>
   </si>
   <si>
@@ -1726,7 +1759,7 @@
     <t>Able to delete travel entries from the system</t>
   </si>
   <si>
-    <t>TASK_DELETE, DOCUMENT_DELETE, DOCUMENT_VIEW, TRAVEL_ENTRY_VIEW, TASK_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
+    <t>DOCUMENT_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_DELETE, TASK_VIEW, DOCUMENT_DELETE, PERSON_VIEW, TASK_DELETE, TRAVEL_ENTRY_VIEW, VISIT_DELETE</t>
   </si>
   <si>
     <t>Documents</t>
@@ -1852,7 +1885,7 @@
     <t>Able to work with messages</t>
   </si>
   <si>
-    <t>EVENTPARTICIPANT_CREATE, CONTACT_CREATE, IMMUNIZATION_VIEW, PATHOGEN_TEST_EDIT, CASE_EDIT, IMMUNIZATION_CREATE, EVENTPARTICIPANT_VIEW, SAMPLE_EDIT, SAMPLE_CREATE, EVENTPARTICIPANT_EDIT, EXTERNAL_MESSAGE_VIEW, EVENT_CREATE, IMMUNIZATION_EDIT, CONTACT_VIEW, CASE_CREATE, PATHOGEN_TEST_CREATE, SAMPLE_VIEW, PATHOGEN_TEST_DELETE, CONTACT_EDIT, EVENT_VIEW, CASE_VIEW, EVENT_EDIT, IMMUNIZATION_DELETE</t>
+    <t>PERSON_DELETE, CASE_CREATE, EVENTPARTICIPANT_CREATE, EVENT_EDIT, CONTACT_EDIT, PATHOGEN_TEST_CREATE, EVENTPARTICIPANT_VIEW, PERSON_VIEW, IMMUNIZATION_CREATE, IMMUNIZATION_VIEW, SAMPLE_CREATE, IMMUNIZATION_EDIT, CASE_VIEW, SAMPLE_EDIT, EXTERNAL_MESSAGE_VIEW, CASE_EDIT, CONTACT_VIEW, PATHOGEN_TEST_EDIT, PERSON_EDIT, VISIT_DELETE, IMMUNIZATION_DELETE, CONTACT_CREATE, PATHOGEN_TEST_DELETE, EVENTPARTICIPANT_EDIT, EVENT_CREATE, SAMPLE_VIEW, EVENT_VIEW</t>
   </si>
   <si>
     <t>Delete messages from the system</t>
@@ -10292,8 +10325,8 @@
       <c r="X16" t="s">
         <v>182</v>
       </c>
-      <c r="Y16" t="s">
-        <v>182</v>
+      <c r="Y16" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="Z16" t="s">
         <v>182</v>
@@ -15125,8 +15158,8 @@
       <c r="X25" t="s">
         <v>182</v>
       </c>
-      <c r="Y25" t="s">
-        <v>182</v>
+      <c r="Y25" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="Z25" t="s">
         <v>182</v>
@@ -16205,8 +16238,8 @@
       <c r="Z27" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AA27" t="s">
-        <v>182</v>
+      <c r="AA27" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="AB27" t="s">
         <v>182</v>
@@ -16298,8 +16331,8 @@
       <c r="BE27" t="s">
         <v>182</v>
       </c>
-      <c r="BF27" t="s">
-        <v>182</v>
+      <c r="BF27" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="BG27" s="2" t="s">
         <v>181</v>
@@ -16719,7 +16752,7 @@
         <v>248</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -16730,13 +16763,13 @@
         <v>246</v>
       </c>
       <c r="C3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" t="s">
         <v>250</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>251</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -16753,7 +16786,7 @@
         <v>253</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5">
@@ -16764,13 +16797,13 @@
         <v>246</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6">
@@ -16781,13 +16814,13 @@
         <v>246</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7">
@@ -16798,13 +16831,13 @@
         <v>246</v>
       </c>
       <c r="C7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8">
@@ -16815,13 +16848,13 @@
         <v>246</v>
       </c>
       <c r="C8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9">
@@ -16832,13 +16865,13 @@
         <v>246</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10">
@@ -16849,13 +16882,13 @@
         <v>246</v>
       </c>
       <c r="C10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" t="s">
         <v>266</v>
-      </c>
-      <c r="D10" t="s">
-        <v>267</v>
-      </c>
-      <c r="E10" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="11">
@@ -16866,13 +16899,13 @@
         <v>246</v>
       </c>
       <c r="C11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12">
@@ -16883,13 +16916,13 @@
         <v>246</v>
       </c>
       <c r="C12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13">
@@ -16900,13 +16933,13 @@
         <v>246</v>
       </c>
       <c r="C13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14">
@@ -16917,13 +16950,13 @@
         <v>246</v>
       </c>
       <c r="C14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15">
@@ -16934,13 +16967,13 @@
         <v>246</v>
       </c>
       <c r="C15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16">
@@ -16951,13 +16984,13 @@
         <v>246</v>
       </c>
       <c r="C16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D16" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E16" t="s">
-        <v>3</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17">
@@ -16968,13 +17001,13 @@
         <v>246</v>
       </c>
       <c r="C17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18">
@@ -16982,16 +17015,16 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E18" t="s">
-        <v>249</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -16999,16 +17032,16 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20">
@@ -17016,16 +17049,16 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C20" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D20" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21">
@@ -17033,16 +17066,16 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C21" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D21" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22">
@@ -17050,16 +17083,16 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C22" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D22" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23">
@@ -17067,16 +17100,16 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C23" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D23" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E23" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24">
@@ -17084,13 +17117,13 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C24" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D24" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E24" t="s">
         <v>24</v>
@@ -17101,16 +17134,16 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C25" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D25" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E25" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26">
@@ -17118,13 +17151,13 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C26" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D26" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E26" t="s">
         <v>24</v>
@@ -17135,16 +17168,16 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C27" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D27" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E27" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28">
@@ -17152,16 +17185,16 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C28" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D28" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E28" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29">
@@ -17169,13 +17202,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C29" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D29" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E29" t="s">
         <v>29</v>
@@ -17186,13 +17219,13 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C30" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D30" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="E30" t="s">
         <v>29</v>
@@ -17203,16 +17236,16 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C31" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D31" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E31" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32">
@@ -17220,13 +17253,13 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C32" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D32" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="E32" t="s">
         <v>29</v>
@@ -17237,16 +17270,16 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C33" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D33" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E33" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34">
@@ -17254,16 +17287,16 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C34" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D34" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E34" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35">
@@ -17271,16 +17304,16 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C35" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D35" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E35" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36">
@@ -17288,13 +17321,13 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C36" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D36" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E36" t="s">
         <v>29</v>
@@ -17305,16 +17338,16 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C37" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D37" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E37" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38">
@@ -17322,13 +17355,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C38" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D38" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="E38" t="s">
         <v>29</v>
@@ -17339,13 +17372,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C39" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D39" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="E39" t="s">
         <v>29</v>
@@ -17356,16 +17389,16 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C40" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D40" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="E40" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41">
@@ -17373,16 +17406,16 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C41" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D41" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E41" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42">
@@ -17390,16 +17423,16 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C42" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D42" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="E42" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43">
@@ -17407,16 +17440,16 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C43" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D43" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E43" t="s">
-        <v>3</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44">
@@ -17424,16 +17457,16 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C44" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D44" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="E44" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45">
@@ -17441,16 +17474,16 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C45" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D45" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="E45" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46">
@@ -17458,16 +17491,16 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C46" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D46" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E46" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47">
@@ -17475,16 +17508,16 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C47" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D47" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="E47" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="48">
@@ -17492,16 +17525,16 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C48" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D48" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E48" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49">
@@ -17509,16 +17542,16 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C49" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D49" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E49" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50">
@@ -17526,16 +17559,16 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C50" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D50" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E50" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51">
@@ -17543,16 +17576,16 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C51" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D51" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="E51" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="52">
@@ -17560,16 +17593,16 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C52" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D52" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E52" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53">
@@ -17577,16 +17610,16 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C53" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D53" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E53" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="54">
@@ -17594,16 +17627,16 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C54" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D54" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="E54" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55">
@@ -17611,16 +17644,16 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C55" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D55" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="E55" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56">
@@ -17628,16 +17661,16 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C56" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="D56" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="E56" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57">
@@ -17645,16 +17678,16 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C57" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D57" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="E57" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58">
@@ -17662,16 +17695,16 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C58" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D58" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="E58" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59">
@@ -17679,13 +17712,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C59" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D59" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="E59" t="s">
         <v>59</v>
@@ -17696,13 +17729,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C60" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D60" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="E60" t="s">
         <v>59</v>
@@ -17713,13 +17746,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C61" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D61" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="E61" t="s">
         <v>59</v>
@@ -17730,13 +17763,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C62" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D62" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E62" t="s">
         <v>59</v>
@@ -17747,16 +17780,16 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C63" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D63" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="E63" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="64">
@@ -17764,13 +17797,13 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C64" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D64" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E64" t="s">
         <v>68</v>
@@ -17781,16 +17814,16 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C65" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D65" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="E65" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="66">
@@ -17798,13 +17831,13 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C66" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D66" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="E66" t="s">
         <v>68</v>
@@ -17815,16 +17848,16 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C67" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D67" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E67" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="68">
@@ -17832,13 +17865,13 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C68" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D68" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="E68" t="s">
         <v>68</v>
@@ -17849,13 +17882,13 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C69" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D69" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="E69" t="s">
         <v>68</v>
@@ -17866,13 +17899,13 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C70" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D70" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="E70" t="s">
         <v>68</v>
@@ -17883,16 +17916,16 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C71" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D71" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E71" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="72">
@@ -17900,13 +17933,13 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C72" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D72" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="E72" t="s">
         <v>68</v>
@@ -17917,13 +17950,13 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C73" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D73" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="E73" t="s">
         <v>68</v>
@@ -17934,16 +17967,16 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C74" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D74" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="E74" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="75">
@@ -17951,16 +17984,16 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C75" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D75" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="E75" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="76">
@@ -17968,16 +18001,16 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C76" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D76" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="E76" t="s">
-        <v>68</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77">
@@ -17985,16 +18018,16 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C77" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="D77" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="E77" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="78">
@@ -18002,16 +18035,16 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C78" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="D78" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="E78" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
     </row>
     <row r="79">
@@ -18019,16 +18052,16 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C79" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="D79" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="E79" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="80">
@@ -18036,16 +18069,16 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C80" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="D80" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="E80" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="81">
@@ -18053,16 +18086,16 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C81" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="D81" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="E81" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="82">
@@ -18070,16 +18103,16 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C82" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="D82" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="E82" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="83">
@@ -18087,13 +18120,13 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C83" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="D83" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="E83" t="s">
         <v>68</v>
@@ -18104,13 +18137,13 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C84" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="D84" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="E84" t="s">
         <v>68</v>
@@ -18121,13 +18154,13 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C85" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="D85" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="E85" t="s">
         <v>68</v>
@@ -18138,13 +18171,13 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C86" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="D86" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="E86" t="s">
         <v>68</v>
@@ -18155,16 +18188,16 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C87" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D87" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="E87" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="88">
@@ -18172,16 +18205,16 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C88" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="D88" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E88" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="89">
@@ -18189,13 +18222,13 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C89" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="D89" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="E89" t="s">
         <v>89</v>
@@ -18206,13 +18239,13 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C90" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="D90" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="E90" t="s">
         <v>89</v>
@@ -18223,16 +18256,16 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C91" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="D91" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="E91" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="92">
@@ -18240,13 +18273,13 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C92" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="D92" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="E92" t="s">
         <v>92</v>
@@ -18257,13 +18290,13 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C93" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="D93" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="E93" t="s">
         <v>92</v>
@@ -18274,16 +18307,16 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C94" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="D94" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="E94" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="95">
@@ -18291,13 +18324,13 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C95" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="D95" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="E95" t="s">
         <v>95</v>
@@ -18308,16 +18341,16 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C96" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="D96" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="E96" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="97">
@@ -18325,13 +18358,13 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C97" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="D97" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="E97" t="s">
         <v>97</v>
@@ -18342,13 +18375,13 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C98" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="D98" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="E98" t="s">
         <v>97</v>
@@ -18359,13 +18392,13 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C99" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="D99" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="E99" t="s">
         <v>97</v>
@@ -18376,13 +18409,13 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C100" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="D100" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="E100" t="s">
         <v>97</v>
@@ -18393,13 +18426,13 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C101" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="D101" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="E101" t="s">
         <v>97</v>
@@ -18410,13 +18443,13 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C102" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="D102" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="E102" t="s">
         <v>97</v>
@@ -18427,16 +18460,16 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="C103" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="D103" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="E103" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="104">
@@ -18444,16 +18477,16 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="C104" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D104" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="E104" t="s">
-        <v>249</v>
+        <v>349</v>
       </c>
     </row>
     <row r="105">
@@ -18461,16 +18494,16 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="C105" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="D105" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="E105" t="s">
-        <v>105</v>
+        <v>487</v>
       </c>
     </row>
     <row r="106">
@@ -18478,16 +18511,16 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="C106" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="D106" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="E106" t="s">
-        <v>249</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107">
@@ -18495,16 +18528,16 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C107" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D107" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E107" t="s">
-        <v>3</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108">
@@ -18512,16 +18545,16 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C108" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="D108" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="E108" t="s">
-        <v>3</v>
+        <v>251</v>
       </c>
     </row>
     <row r="109">
@@ -18529,16 +18562,16 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C109" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="D109" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="E109" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
     </row>
     <row r="110">
@@ -18546,16 +18579,16 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C110" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="D110" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="E110" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
     </row>
     <row r="111">
@@ -18563,16 +18596,16 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C111" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="D111" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="E111" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
     </row>
     <row r="112">
@@ -18580,16 +18613,16 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C112" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="D112" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="E112" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
     </row>
     <row r="113">
@@ -18597,16 +18630,16 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C113" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="D113" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="E113" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
     </row>
     <row r="114">
@@ -18614,16 +18647,16 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C114" t="s">
+        <v>506</v>
+      </c>
+      <c r="D114" t="s">
+        <v>507</v>
+      </c>
+      <c r="E114" t="s">
         <v>497</v>
-      </c>
-      <c r="D114" t="s">
-        <v>498</v>
-      </c>
-      <c r="E114" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="115">
@@ -18631,16 +18664,16 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C115" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="D115" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="E115" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
     </row>
     <row r="116">
@@ -18648,16 +18681,16 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C116" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="D116" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="E116" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
     </row>
     <row r="117">
@@ -18665,16 +18698,16 @@
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C117" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="D117" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="E117" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
     </row>
     <row r="118">
@@ -18682,16 +18715,16 @@
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C118" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="D118" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="E118" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
     </row>
     <row r="119">
@@ -18699,16 +18732,16 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C119" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="D119" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E119" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
     </row>
     <row r="120">
@@ -18716,16 +18749,16 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="C120" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="D120" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="E120" t="s">
-        <v>3</v>
+        <v>251</v>
       </c>
     </row>
     <row r="121">
@@ -18733,16 +18766,16 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="C121" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="D121" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="E121" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
     </row>
     <row r="122">
@@ -18750,16 +18783,16 @@
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="C122" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="D122" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="E122" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="123">
@@ -18767,13 +18800,13 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="C123" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="D123" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="E123" t="s">
         <v>123</v>
@@ -18784,16 +18817,16 @@
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="C124" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="D124" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="E124" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="125">
@@ -18801,13 +18834,13 @@
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="C125" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="D125" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="E125" t="s">
         <v>125</v>
@@ -18818,13 +18851,13 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="C126" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="D126" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="E126" t="s">
         <v>125</v>
@@ -18835,16 +18868,16 @@
         <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="C127" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="D127" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="128">
@@ -18852,16 +18885,16 @@
         <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="C128" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="D128" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="129">
@@ -18869,16 +18902,16 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="C129" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="D129" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="130">
@@ -18886,16 +18919,16 @@
         <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="C130" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="D130" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="131">
@@ -18903,16 +18936,16 @@
         <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C131" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="D131" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="132">
@@ -18920,13 +18953,13 @@
         <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C132" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="D132" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="E132" t="s">
         <v>132</v>
@@ -18937,13 +18970,13 @@
         <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C133" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="D133" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="E133" t="s">
         <v>132</v>
@@ -18954,16 +18987,16 @@
         <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C134" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="D134" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="E134" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
     </row>
     <row r="135">
@@ -18971,16 +19004,16 @@
         <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C135" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="D135" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="E135" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="136">
@@ -18988,13 +19021,13 @@
         <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C136" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="D136" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="E136" t="s">
         <v>136</v>
@@ -19005,13 +19038,13 @@
         <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C137" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="D137" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="E137" t="s">
         <v>136</v>
@@ -19022,13 +19055,13 @@
         <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C138" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="D138" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="E138" t="s">
         <v>136</v>
@@ -19039,13 +19072,13 @@
         <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C139" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="D139" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="E139" t="s">
         <v>136</v>
@@ -19056,16 +19089,16 @@
         <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="C140" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="D140" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="E140" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="141">
@@ -19073,16 +19106,16 @@
         <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="C141" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="D141" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="E141" t="s">
-        <v>141</v>
+        <v>570</v>
       </c>
     </row>
     <row r="142">
@@ -19090,16 +19123,16 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="C142" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="D142" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="E142" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
     </row>
     <row r="143">
@@ -19107,16 +19140,16 @@
         <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="C143" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="D143" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="E143" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
     </row>
     <row r="144">
@@ -19124,16 +19157,16 @@
         <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="C144" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="D144" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="E144" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
     </row>
     <row r="145">
@@ -19141,16 +19174,16 @@
         <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="C145" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="D145" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="E145" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
     </row>
     <row r="146">
@@ -19158,16 +19191,16 @@
         <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="C146" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="D146" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E146" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="147">
@@ -19175,13 +19208,13 @@
         <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="C147" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="D147" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="E147" t="s">
         <v>147</v>
@@ -19192,13 +19225,13 @@
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="C148" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="D148" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="E148" t="s">
         <v>147</v>
@@ -19209,16 +19242,16 @@
         <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="C149" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="D149" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="E149" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="150">
@@ -19226,16 +19259,16 @@
         <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="C150" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="D150" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="E150" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="151">
@@ -19243,16 +19276,16 @@
         <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="C151" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="D151" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E151" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="152">
@@ -19260,16 +19293,16 @@
         <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="C152" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="D152" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="E152" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="153">
@@ -19277,16 +19310,16 @@
         <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="C153" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="D153" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="E153" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="154">
@@ -19294,13 +19327,13 @@
         <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="C154" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="D154" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="E154" t="s">
         <v>95</v>
@@ -19311,16 +19344,16 @@
         <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="C155" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="D155" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E155" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="156">
@@ -19328,16 +19361,16 @@
         <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="C156" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="D156" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="E156" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="157">
@@ -19345,16 +19378,16 @@
         <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="C157" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="D157" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="E157" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="158">
@@ -19362,16 +19395,16 @@
         <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="C158" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="D158" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="E158" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="159">
@@ -19379,16 +19412,16 @@
         <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="C159" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="D159" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="E159" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="160">
@@ -19396,16 +19429,16 @@
         <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="C160" t="s">
         <v>236</v>
       </c>
       <c r="D160" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="E160" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="161">
@@ -19413,16 +19446,16 @@
         <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="C161" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="D161" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="E161" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="162">
@@ -19430,16 +19463,16 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="C162" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="D162" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="E162" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="163">
@@ -19447,16 +19480,16 @@
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="C163" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="D163" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="E163" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="164">
@@ -19464,16 +19497,16 @@
         <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="C164" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="D164" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="E164" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
     </row>
     <row r="165">
@@ -19481,13 +19514,13 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="C165" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="D165" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="E165" t="s">
         <v>164</v>
@@ -19498,13 +19531,13 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="C166" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="D166" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="E166" t="s">
         <v>164</v>
@@ -19515,16 +19548,16 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="C167" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="D167" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="E167" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="168">
@@ -19532,13 +19565,13 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="C168" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="D168" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="E168" t="s">
         <v>168</v>
@@ -19549,16 +19582,16 @@
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="C169" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="D169" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="E169" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="170">
@@ -19566,16 +19599,16 @@
         <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="C170" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="D170" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="E170" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="171">
@@ -19583,16 +19616,16 @@
         <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="C171" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="D171" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="E171" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="172">
@@ -19600,16 +19633,16 @@
         <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="C172" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="D172" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="E172" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -19627,12 +19660,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5669" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5669" uniqueCount="643">
   <si>
     <t>User role</t>
   </si>
@@ -565,7 +565,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>UOTE6F-NXIRYU-AT3YXD-AALHKD2I</t>
+    <t>XHUSIQ-SY5FYT-4T3ROW-MAAW2NLM</t>
   </si>
   <si>
     <t>Admin Surveillance Supervisor</t>
@@ -574,13 +574,13 @@
     <t>Region</t>
   </si>
   <si>
-    <t>RIU44G-BKX3NI-4NJ24Y-NWEXCHC4</t>
+    <t>SD7W5S-TNZRWB-W7KY7W-W66VCEX4</t>
   </si>
   <si>
     <t>BAG User</t>
   </si>
   <si>
-    <t>XUPNT3-X4F3F2-5Q6FGM-4RI3CCTM</t>
+    <t>UVIAYX-DLG3Q5-RKERWH-FWTD2FRY</t>
   </si>
   <si>
     <t>Case Officer</t>
@@ -589,13 +589,13 @@
     <t>District</t>
   </si>
   <si>
-    <t>U2VYVZ-YJTG4E-MBZWOT-OSXJCBFQ</t>
+    <t>RAAHYY-RYXQUY-V67NBO-U4ONSEHM</t>
   </si>
   <si>
     <t>Clinician</t>
   </si>
   <si>
-    <t>QZEF3F-O4NGU6-RJOAJS-GRGQSFYU</t>
+    <t>TKHGD4-LQHKUR-SCRSEC-5GKDKLDU</t>
   </si>
   <si>
     <t>Community Informant</t>
@@ -604,37 +604,37 @@
     <t>Community</t>
   </si>
   <si>
-    <t>SJXKO7-W2ZORG-JE2XLV-DBXFKHIU</t>
+    <t>TY3SWK-XKWLI5-RUBDMK-TJ3HCAHM</t>
   </si>
   <si>
     <t>Community Officer</t>
   </si>
   <si>
-    <t>R2OXBZ-MDRU2A-X67T7G-O5UFSCPY</t>
+    <t>UEVDTU-2V6TS2-ME3YUM-W32FKB3M</t>
   </si>
   <si>
     <t>Contact Officer</t>
   </si>
   <si>
-    <t>XJ2OI2-6RB7X5-CBF2GJ-U2XYKJLI</t>
+    <t>TA4PGE-GVZFJJ-7GAYFX-LA2TCJFA</t>
   </si>
   <si>
     <t>Contact Supervisor</t>
   </si>
   <si>
-    <t>RRCR7X-DCN6JJ-PENNZE-7RBD2C5Y</t>
+    <t>WONVK3-WKWN2S-77JYAG-AERC2FC4</t>
   </si>
   <si>
     <t>District Observer</t>
   </si>
   <si>
-    <t>XDBHQQ-YEKH2R-VH53DM-D77BKMBM</t>
+    <t>QR6M6D-J5W2G3-AM4JSB-EPH6CI6E</t>
   </si>
   <si>
     <t>Event Officer</t>
   </si>
   <si>
-    <t>XDCC2F-V4D753-THUGWU-6IRLSKRM</t>
+    <t>WGOGBP-6VMDOQ-QK6QKL-FUSASMGY</t>
   </si>
   <si>
     <t>External Lab Officer</t>
@@ -643,7 +643,7 @@
     <t>External laboratory</t>
   </si>
   <si>
-    <t>XIBCDW-AT7WXW-EXVIMR-3ZA7SJR4</t>
+    <t>XZWUI7-GSDOJD-YRT6ZQ-X4ZISAZE</t>
   </si>
   <si>
     <t>External Visits User</t>
@@ -652,7 +652,7 @@
     <t>Nation</t>
   </si>
   <si>
-    <t>SKQBSJ-CUM3K7-VZTEQQ-VQZSKPDM</t>
+    <t>RZYDBS-HYNHRI-C74CXN-RGO72MQY</t>
   </si>
   <si>
     <t>Hospital Informant</t>
@@ -661,13 +661,13 @@
     <t>Facility</t>
   </si>
   <si>
-    <t>WEDCCG-7OQ32G-WU4IJU-WSOKCFQI</t>
+    <t>Q6QYH7-NBNTHX-UYES66-CJA7KIKI</t>
   </si>
   <si>
     <t>Import User</t>
   </si>
   <si>
-    <t>UXJCUI-HGVT7T-FO4OIZ-FVX7SD6M</t>
+    <t>QK6CEE-X6PXKJ-DHOSNM-PBFM2KSM</t>
   </si>
   <si>
     <t>Lab Officer</t>
@@ -676,25 +676,25 @@
     <t>Laboratory</t>
   </si>
   <si>
-    <t>S4RBWI-WKAKWQ-XPG3F6-GUKOCDJA</t>
+    <t>TIRHDY-R6PL3T-EESOHS-BBOVKNFA</t>
   </si>
   <si>
     <t>National Clinician</t>
   </si>
   <si>
-    <t>QEPIWK-KBCCR4-KLFXJQ-OPWX2C6Y</t>
+    <t>TZPLEH-IGHBUV-TM76EM-4JPISO3U</t>
   </si>
   <si>
     <t>National Observer</t>
   </si>
   <si>
-    <t>ROVJCN-3UX77Q-DI7M3P-HWCACL5M</t>
+    <t>RJ33SS-4NOAEA-BDG4VX-BUJBSDWY</t>
   </si>
   <si>
     <t>National User</t>
   </si>
   <si>
-    <t>VH43BG-G46A3E-GUC6PV-EJW72M7Y</t>
+    <t>XLQVNF-LCB5FL-TY5U25-Q4AKSD7U</t>
   </si>
   <si>
     <t>POE Informant</t>
@@ -703,43 +703,43 @@
     <t>Point of entry</t>
   </si>
   <si>
-    <t>SG5HYJ-IIWTVQ-4OSVGI-Q4XM2NNY</t>
+    <t>T4TY66-5FGZDQ-YKBHAX-ZZTMKJ4E</t>
   </si>
   <si>
     <t>POE National User</t>
   </si>
   <si>
-    <t>UIFCNV-JCCAEG-ITEQZN-5ZPKSDLE</t>
+    <t>X46VVQ-DPGJ3C-4CC6Z5-TUPOSEFU</t>
   </si>
   <si>
     <t>POE Supervisor</t>
   </si>
   <si>
-    <t>XVYMZY-SUW4CK-MF5GXP-2VRP2BPU</t>
+    <t>TXSY3U-CWSRAZ-B2E47M-BJASKKFM</t>
   </si>
   <si>
     <t>Region Observer</t>
   </si>
   <si>
-    <t>VOTCRN-JPX7DS-P2GFLC-35OICMIY</t>
+    <t>QLBFYW-UVG5AG-RKOWX6-ZRB32PZI</t>
   </si>
   <si>
     <t>Sormas to Sormas Client</t>
   </si>
   <si>
-    <t>TLJZWE-6EBLB7-5FR7QQ-WGTAKGHI</t>
+    <t>SEJZMX-XZ7HET-XE7236-RA3P2OTE</t>
   </si>
   <si>
     <t>Surveillance Officer</t>
   </si>
   <si>
-    <t>R3NV77-BXQE7L-UDB2X4-T6S32D4Y</t>
+    <t>XWAD4Y-XPDIRF-EVITGL-5VWPKNKY</t>
   </si>
   <si>
     <t>Surveillance Supervisor</t>
   </si>
   <si>
-    <t>XSKOWE-5RGNQY-BKR35X-XH5C2KRA</t>
+    <t>VLRWMT-DCOS5E-QGMNKM-Y3W2CKJE</t>
   </si>
   <si>
     <t>User Right</t>
@@ -763,144 +763,159 @@
     <t>Able to view existing cases</t>
   </si>
   <si>
+    <t>Create new cases</t>
+  </si>
+  <si>
+    <t>Able to create new cases</t>
+  </si>
+  <si>
+    <t>CASE_VIEW, PERSON_VIEW</t>
+  </si>
+  <si>
+    <t>Edit existing cases</t>
+  </si>
+  <si>
+    <t>Able to edit existing cases</t>
+  </si>
+  <si>
+    <t>CASE_VIEW, PERSON_EDIT, PERSON_VIEW</t>
+  </si>
+  <si>
+    <t>Archive cases</t>
+  </si>
+  <si>
+    <t>Able to archive cases</t>
+  </si>
+  <si>
+    <t>Delete cases from the system</t>
+  </si>
+  <si>
+    <t>Able to delete cases from the system</t>
+  </si>
+  <si>
+    <t>TREATMENT_DELETE, PATHOGEN_TEST_DELETE, IMMUNIZATION_VIEW, SAMPLE_DELETE, PERSON_DELETE, TASK_VIEW, PRESCRIPTION_DELETE, DOCUMENT_VIEW, THERAPY_VIEW, PERSON_VIEW, IMMUNIZATION_DELETE, ADDITIONAL_TEST_VIEW, CLINICAL_COURSE_VIEW, CASE_VIEW, ADDITIONAL_TEST_DELETE, VISIT_DELETE, SAMPLE_VIEW, TASK_DELETE, CLINICAL_VISIT_DELETE, DOCUMENT_DELETE</t>
+  </si>
+  <si>
+    <t>Import cases into SORMAS</t>
+  </si>
+  <si>
+    <t>Able to import cases into SORMAS</t>
+  </si>
+  <si>
+    <t>Export cases from SORMAS</t>
+  </si>
+  <si>
+    <t>Able to export cases from SORMAS</t>
+  </si>
+  <si>
+    <t>Edit case investigation status</t>
+  </si>
+  <si>
+    <t>Able to edit case investigation status</t>
+  </si>
+  <si>
+    <t>CASE_VIEW, PERSON_EDIT, PERSON_VIEW, CASE_EDIT</t>
+  </si>
+  <si>
+    <t>Edit case classification and outcome</t>
+  </si>
+  <si>
+    <t>Able to edit case classification and outcome</t>
+  </si>
+  <si>
+    <t>Edit case disease</t>
+  </si>
+  <si>
+    <t>Able to edit case disease</t>
+  </si>
+  <si>
+    <t>Edit case epid number</t>
+  </si>
+  <si>
+    <t>Able to edit case epid number</t>
+  </si>
+  <si>
+    <t>Transfer cases to another region/district/facility</t>
+  </si>
+  <si>
+    <t>Able to transfer cases to another region/district/facility</t>
+  </si>
+  <si>
+    <t>Refer case from point of entry</t>
+  </si>
+  <si>
+    <t>Able to refer case from point of entry</t>
+  </si>
+  <si>
+    <t>Merge cases</t>
+  </si>
+  <si>
+    <t>Able to merge cases</t>
+  </si>
+  <si>
+    <t>Share cases with the whole country</t>
+  </si>
+  <si>
+    <t>Able to share cases with the whole country</t>
+  </si>
+  <si>
+    <t>Can be responsible for a case</t>
+  </si>
+  <si>
+    <t>Immunization</t>
+  </si>
+  <si>
+    <t>View existing immunizations and vaccinations</t>
+  </si>
+  <si>
+    <t>Able to view existing immunizations and vaccinations</t>
+  </si>
+  <si>
+    <t>Create new immunizations and vaccinations</t>
+  </si>
+  <si>
+    <t>Able to create new immunizations and vaccinations</t>
+  </si>
+  <si>
+    <t>IMMUNIZATION_VIEW, PERSON_VIEW</t>
+  </si>
+  <si>
+    <t>Edit existing immunizations and vaccinations</t>
+  </si>
+  <si>
+    <t>Able to edit existing immunizations and vaccinations</t>
+  </si>
+  <si>
+    <t>IMMUNIZATION_VIEW, PERSON_EDIT, PERSON_VIEW</t>
+  </si>
+  <si>
+    <t>Archive immunizations</t>
+  </si>
+  <si>
+    <t>Able to archive immunizations</t>
+  </si>
+  <si>
+    <t>Delete immunizations and vaccinations from the system</t>
+  </si>
+  <si>
+    <t>Able to delete immunizations and vaccinations from the system</t>
+  </si>
+  <si>
+    <t>IMMUNIZATION_VIEW, PERSON_DELETE, VISIT_DELETE, PERSON_VIEW</t>
+  </si>
+  <si>
+    <t>Persons</t>
+  </si>
+  <si>
+    <t>View existing persons</t>
+  </si>
+  <si>
+    <t>Able to view existing persons</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Create new cases</t>
-  </si>
-  <si>
-    <t>Able to create new cases</t>
-  </si>
-  <si>
-    <t>Edit existing cases</t>
-  </si>
-  <si>
-    <t>Able to edit existing cases</t>
-  </si>
-  <si>
-    <t>Archive cases</t>
-  </si>
-  <si>
-    <t>Able to archive cases</t>
-  </si>
-  <si>
-    <t>Delete cases from the system</t>
-  </si>
-  <si>
-    <t>Able to delete cases from the system</t>
-  </si>
-  <si>
-    <t>TASK_DELETE, VISIT_DELETE, CLINICAL_COURSE_VIEW, IMMUNIZATION_VIEW, ADDITIONAL_TEST_DELETE, CLINICAL_VISIT_DELETE, TASK_VIEW, TREATMENT_DELETE, PERSON_VIEW, THERAPY_VIEW, PERSON_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, PATHOGEN_TEST_DELETE, DOCUMENT_DELETE, PRESCRIPTION_DELETE, DOCUMENT_VIEW, CASE_VIEW, SAMPLE_DELETE, IMMUNIZATION_DELETE</t>
-  </si>
-  <si>
-    <t>Import cases into SORMAS</t>
-  </si>
-  <si>
-    <t>Able to import cases into SORMAS</t>
-  </si>
-  <si>
-    <t>Export cases from SORMAS</t>
-  </si>
-  <si>
-    <t>Able to export cases from SORMAS</t>
-  </si>
-  <si>
-    <t>Edit case investigation status</t>
-  </si>
-  <si>
-    <t>Able to edit case investigation status</t>
-  </si>
-  <si>
-    <t>CASE_EDIT, CASE_VIEW</t>
-  </si>
-  <si>
-    <t>Edit case classification and outcome</t>
-  </si>
-  <si>
-    <t>Able to edit case classification and outcome</t>
-  </si>
-  <si>
-    <t>Edit case disease</t>
-  </si>
-  <si>
-    <t>Able to edit case disease</t>
-  </si>
-  <si>
-    <t>Edit case epid number</t>
-  </si>
-  <si>
-    <t>Able to edit case epid number</t>
-  </si>
-  <si>
-    <t>Transfer cases to another region/district/facility</t>
-  </si>
-  <si>
-    <t>Able to transfer cases to another region/district/facility</t>
-  </si>
-  <si>
-    <t>Refer case from point of entry</t>
-  </si>
-  <si>
-    <t>Able to refer case from point of entry</t>
-  </si>
-  <si>
-    <t>Merge cases</t>
-  </si>
-  <si>
-    <t>Able to merge cases</t>
-  </si>
-  <si>
-    <t>Share cases with the whole country</t>
-  </si>
-  <si>
-    <t>Able to share cases with the whole country</t>
-  </si>
-  <si>
-    <t>Can be responsible for a case</t>
-  </si>
-  <si>
-    <t>Immunization</t>
-  </si>
-  <si>
-    <t>View existing immunizations and vaccinations</t>
-  </si>
-  <si>
-    <t>Able to view existing immunizations and vaccinations</t>
-  </si>
-  <si>
-    <t>Create new immunizations and vaccinations</t>
-  </si>
-  <si>
-    <t>Able to create new immunizations and vaccinations</t>
-  </si>
-  <si>
-    <t>Edit existing immunizations and vaccinations</t>
-  </si>
-  <si>
-    <t>Able to edit existing immunizations and vaccinations</t>
-  </si>
-  <si>
-    <t>Archive immunizations</t>
-  </si>
-  <si>
-    <t>Able to archive immunizations</t>
-  </si>
-  <si>
-    <t>Delete immunizations and vaccinations from the system</t>
-  </si>
-  <si>
-    <t>Able to delete immunizations and vaccinations from the system</t>
-  </si>
-  <si>
-    <t>Persons</t>
-  </si>
-  <si>
-    <t>View existing persons</t>
-  </si>
-  <si>
-    <t>Able to view existing persons</t>
-  </si>
-  <si>
     <t>Edit existing persons</t>
   </si>
   <si>
@@ -928,7 +943,7 @@
     <t>Able to delete person contact details</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT</t>
+    <t>PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Sample Testing</t>
@@ -958,7 +973,7 @@
     <t>Able to delete samples from the system</t>
   </si>
   <si>
-    <t>SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE, PATHOGEN_TEST_DELETE</t>
+    <t>PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE, SAMPLE_VIEW</t>
   </si>
   <si>
     <t>Export samples from SORMAS</t>
@@ -1048,7 +1063,7 @@
     <t>Able to create new contacts</t>
   </si>
   <si>
-    <t>CASE_VIEW, CONTACT_VIEW</t>
+    <t>CASE_VIEW, CONTACT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing contacts</t>
@@ -1057,6 +1072,9 @@
     <t>Able to edit existing contacts</t>
   </si>
   <si>
+    <t>CASE_VIEW, CONTACT_VIEW, PERSON_EDIT, PERSON_VIEW</t>
+  </si>
+  <si>
     <t>Archive contacts</t>
   </si>
   <si>
@@ -1069,7 +1087,7 @@
     <t>Able to delete contacts from the system</t>
   </si>
   <si>
-    <t>TASK_DELETE, VISIT_DELETE, ADDITIONAL_TEST_DELETE, TASK_VIEW, PERSON_VIEW, CONTACT_VIEW, PERSON_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, PATHOGEN_TEST_DELETE, DOCUMENT_DELETE, DOCUMENT_VIEW, CASE_VIEW, SAMPLE_DELETE</t>
+    <t>PATHOGEN_TEST_DELETE, SAMPLE_DELETE, PERSON_DELETE, TASK_VIEW, DOCUMENT_VIEW, CONTACT_VIEW, PERSON_VIEW, ADDITIONAL_TEST_VIEW, CASE_VIEW, ADDITIONAL_TEST_DELETE, VISIT_DELETE, SAMPLE_VIEW, TASK_DELETE, DOCUMENT_DELETE</t>
   </si>
   <si>
     <t>Import contacts</t>
@@ -1090,7 +1108,7 @@
     <t>Able to create resulting cases from contacts</t>
   </si>
   <si>
-    <t>CONTACT_EDIT, CASE_VIEW, CONTACT_VIEW, CASE_CREATE</t>
+    <t>CASE_VIEW, CONTACT_EDIT, CASE_CREATE, CONTACT_VIEW, PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Reassign the source case of contacts</t>
@@ -1099,7 +1117,7 @@
     <t>Able to reassign the source case of contacts</t>
   </si>
   <si>
-    <t>CONTACT_EDIT, CASE_VIEW, CONTACT_VIEW</t>
+    <t>CASE_VIEW, CONTACT_EDIT, CONTACT_VIEW, PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Merge contacts</t>
@@ -1177,7 +1195,7 @@
     <t>Able to assign tasks to users</t>
   </si>
   <si>
-    <t>TASK_VIEW, TASK_EDIT</t>
+    <t>TASK_EDIT, TASK_VIEW</t>
   </si>
   <si>
     <t>Events</t>
@@ -1195,7 +1213,7 @@
     <t>Able to delete actions from the system</t>
   </si>
   <si>
-    <t>EVENT_VIEW, DOCUMENT_DELETE, DOCUMENT_VIEW</t>
+    <t>EVENT_VIEW, DOCUMENT_VIEW, DOCUMENT_DELETE</t>
   </si>
   <si>
     <t>Edit existing actions</t>
@@ -1234,7 +1252,7 @@
     <t>Able to delete events from the system</t>
   </si>
   <si>
-    <t>TASK_DELETE, VISIT_DELETE, ADDITIONAL_TEST_DELETE, EVENTPARTICIPANT_VIEW, TASK_VIEW, PERSON_VIEW, PERSON_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, PATHOGEN_TEST_DELETE, EVENT_VIEW, DOCUMENT_DELETE, DOCUMENT_VIEW, ACTION_DELETE, EVENTPARTICIPANT_DELETE, SAMPLE_DELETE</t>
+    <t>PATHOGEN_TEST_DELETE, SAMPLE_DELETE, PERSON_DELETE, TASK_VIEW, DOCUMENT_VIEW, PERSON_VIEW, ACTION_DELETE, ADDITIONAL_TEST_VIEW, EVENTPARTICIPANT_DELETE, EVENT_VIEW, ADDITIONAL_TEST_DELETE, SAMPLE_VIEW, VISIT_DELETE, TASK_DELETE, EVENTPARTICIPANT_VIEW, DOCUMENT_DELETE</t>
   </si>
   <si>
     <t>Import events</t>
@@ -1255,7 +1273,7 @@
     <t>Able to perform bulk operations in the event directory</t>
   </si>
   <si>
-    <t>EVENT_VIEW, EVENT_EDIT</t>
+    <t>EVENT_EDIT, EVENT_VIEW</t>
   </si>
   <si>
     <t>Can be responsible for an event</t>
@@ -1267,13 +1285,16 @@
     <t>Able to view existing event participants</t>
   </si>
   <si>
+    <t>EVENT_VIEW, PERSON_VIEW</t>
+  </si>
+  <si>
     <t>Create new event participants</t>
   </si>
   <si>
     <t>Able to create new event participants</t>
   </si>
   <si>
-    <t>EVENT_VIEW, EVENTPARTICIPANT_VIEW</t>
+    <t>EVENT_VIEW, EVENTPARTICIPANT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing event participants</t>
@@ -1282,6 +1303,9 @@
     <t>Able to edit existing event participants</t>
   </si>
   <si>
+    <t>EVENT_VIEW, PERSON_EDIT, EVENTPARTICIPANT_VIEW, PERSON_VIEW</t>
+  </si>
+  <si>
     <t>Event participant archive</t>
   </si>
   <si>
@@ -1294,7 +1318,7 @@
     <t>Able to delete event participants from the system</t>
   </si>
   <si>
-    <t>PERSON_DELETE, VISIT_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE, PATHOGEN_TEST_DELETE, EVENT_VIEW, EVENTPARTICIPANT_VIEW, PERSON_VIEW, SAMPLE_DELETE</t>
+    <t>PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_VIEW, SAMPLE_DELETE, PERSON_DELETE, EVENT_VIEW, ADDITIONAL_TEST_DELETE, SAMPLE_VIEW, VISIT_DELETE, EVENTPARTICIPANT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Import event participants</t>
@@ -1309,7 +1333,7 @@
     <t>Able to perform bulk operations in the event participants directory</t>
   </si>
   <si>
-    <t>EVENT_VIEW, EVENTPARTICIPANT_VIEW, EVENTPARTICIPANT_EDIT</t>
+    <t>EVENT_VIEW, EVENTPARTICIPANT_EDIT, PERSON_EDIT, EVENTPARTICIPANT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Create new event groups</t>
@@ -1453,6 +1477,9 @@
     <t>Able to view contact transmission chains on the dashboard</t>
   </si>
   <si>
+    <t>DASHBOARD_CONTACT_VIEW, CASE_VIEW, CONTACT_VIEW, PERSON_VIEW</t>
+  </si>
+  <si>
     <t>Access campaigns dashboard</t>
   </si>
   <si>
@@ -1480,7 +1507,7 @@
     <t>Able to create new prescriptions</t>
   </si>
   <si>
-    <t>CASE_VIEW, THERAPY_VIEW</t>
+    <t>CASE_VIEW, THERAPY_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing prescriptions</t>
@@ -1525,7 +1552,7 @@
     <t>Able to edit the clinical course of cases</t>
   </si>
   <si>
-    <t>CLINICAL_COURSE_VIEW, CASE_VIEW, THERAPY_VIEW</t>
+    <t>CLINICAL_COURSE_VIEW, CASE_VIEW, THERAPY_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Create new clinical visits</t>
@@ -1561,7 +1588,7 @@
     <t>Able to edit existing port health info</t>
   </si>
   <si>
-    <t>CASE_VIEW, PORT_HEALTH_INFO_VIEW</t>
+    <t>CASE_VIEW, PORT_HEALTH_INFO_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Aggregated Reporting</t>
@@ -1651,7 +1678,7 @@
     <t>Able to delete campaigns from the system</t>
   </si>
   <si>
-    <t>CAMPAIGN_FORM_DATA_VIEW, CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_DELETE</t>
+    <t>CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_VIEW, CAMPAIGN_FORM_DATA_DELETE</t>
   </si>
   <si>
     <t>View existing campaign form data</t>
@@ -1699,13 +1726,16 @@
     <t>Able to view existing travel entries</t>
   </si>
   <si>
+    <t>PERSON_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
+  </si>
+  <si>
     <t>Create new travel entries</t>
   </si>
   <si>
     <t>Able to create new travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
+    <t>TRAVEL_ENTRY_VIEW, PERSON_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
   </si>
   <si>
     <t>Edit existing travel entries</t>
@@ -1714,6 +1744,9 @@
     <t>Able to edit existing travel entries</t>
   </si>
   <si>
+    <t>TRAVEL_ENTRY_VIEW, PERSON_EDIT, PERSON_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
+  </si>
+  <si>
     <t>Archive travel entries</t>
   </si>
   <si>
@@ -1726,7 +1759,7 @@
     <t>Able to delete travel entries from the system</t>
   </si>
   <si>
-    <t>TASK_DELETE, DOCUMENT_DELETE, DOCUMENT_VIEW, TRAVEL_ENTRY_VIEW, TASK_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
+    <t>PERSON_DELETE, TASK_VIEW, DOCUMENT_VIEW, TRAVEL_ENTRY_VIEW, VISIT_DELETE, TASK_DELETE, DOCUMENT_DELETE, PERSON_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
   </si>
   <si>
     <t>Documents</t>
@@ -1852,7 +1885,7 @@
     <t>Able to work with messages</t>
   </si>
   <si>
-    <t>EVENTPARTICIPANT_CREATE, CONTACT_CREATE, IMMUNIZATION_VIEW, PATHOGEN_TEST_EDIT, CASE_EDIT, IMMUNIZATION_CREATE, EVENTPARTICIPANT_VIEW, SAMPLE_EDIT, SAMPLE_CREATE, EVENTPARTICIPANT_EDIT, EXTERNAL_MESSAGE_VIEW, EVENT_CREATE, IMMUNIZATION_EDIT, CONTACT_VIEW, CASE_CREATE, PATHOGEN_TEST_CREATE, SAMPLE_VIEW, PATHOGEN_TEST_DELETE, CONTACT_EDIT, EVENT_VIEW, CASE_VIEW, EVENT_EDIT, IMMUNIZATION_DELETE</t>
+    <t>IMMUNIZATION_VIEW, EVENT_EDIT, SAMPLE_EDIT, EVENT_CREATE, SAMPLE_CREATE, CASE_VIEW, EVENT_VIEW, EVENTPARTICIPANT_EDIT, CASE_CREATE, IMMUNIZATION_CREATE, CONTACT_CREATE, PATHOGEN_TEST_EDIT, SAMPLE_VIEW, VISIT_DELETE, PATHOGEN_TEST_CREATE, EVENTPARTICIPANT_VIEW, CASE_EDIT, PATHOGEN_TEST_DELETE, IMMUNIZATION_EDIT, PERSON_DELETE, CONTACT_VIEW, PERSON_EDIT, PERSON_VIEW, EVENTPARTICIPANT_CREATE, IMMUNIZATION_DELETE, CONTACT_EDIT, EXTERNAL_MESSAGE_VIEW</t>
   </si>
   <si>
     <t>Delete messages from the system</t>
@@ -1909,7 +1942,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.76.0-SNAPSHOT</t>
+    <t>1.0.0</t>
   </si>
 </sst>
 </file>
@@ -10292,8 +10325,8 @@
       <c r="X16" t="s">
         <v>182</v>
       </c>
-      <c r="Y16" t="s">
-        <v>182</v>
+      <c r="Y16" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="Z16" t="s">
         <v>182</v>
@@ -15125,8 +15158,8 @@
       <c r="X25" t="s">
         <v>182</v>
       </c>
-      <c r="Y25" t="s">
-        <v>182</v>
+      <c r="Y25" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="Z25" t="s">
         <v>182</v>
@@ -16205,8 +16238,8 @@
       <c r="Z27" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AA27" t="s">
-        <v>182</v>
+      <c r="AA27" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="AB27" t="s">
         <v>182</v>
@@ -16298,8 +16331,8 @@
       <c r="BE27" t="s">
         <v>182</v>
       </c>
-      <c r="BF27" t="s">
-        <v>182</v>
+      <c r="BF27" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="BG27" s="2" t="s">
         <v>181</v>
@@ -16719,7 +16752,7 @@
         <v>248</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -16730,13 +16763,13 @@
         <v>246</v>
       </c>
       <c r="C3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" t="s">
         <v>250</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>251</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -16753,7 +16786,7 @@
         <v>253</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5">
@@ -16764,13 +16797,13 @@
         <v>246</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6">
@@ -16781,13 +16814,13 @@
         <v>246</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7">
@@ -16798,13 +16831,13 @@
         <v>246</v>
       </c>
       <c r="C7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8">
@@ -16815,13 +16848,13 @@
         <v>246</v>
       </c>
       <c r="C8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9">
@@ -16832,13 +16865,13 @@
         <v>246</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10">
@@ -16849,13 +16882,13 @@
         <v>246</v>
       </c>
       <c r="C10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" t="s">
         <v>266</v>
-      </c>
-      <c r="D10" t="s">
-        <v>267</v>
-      </c>
-      <c r="E10" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="11">
@@ -16866,13 +16899,13 @@
         <v>246</v>
       </c>
       <c r="C11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12">
@@ -16883,13 +16916,13 @@
         <v>246</v>
       </c>
       <c r="C12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13">
@@ -16900,13 +16933,13 @@
         <v>246</v>
       </c>
       <c r="C13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14">
@@ -16917,13 +16950,13 @@
         <v>246</v>
       </c>
       <c r="C14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15">
@@ -16934,13 +16967,13 @@
         <v>246</v>
       </c>
       <c r="C15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16">
@@ -16951,13 +16984,13 @@
         <v>246</v>
       </c>
       <c r="C16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D16" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E16" t="s">
-        <v>3</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17">
@@ -16968,13 +17001,13 @@
         <v>246</v>
       </c>
       <c r="C17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18">
@@ -16982,16 +17015,16 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E18" t="s">
-        <v>249</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -16999,16 +17032,16 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20">
@@ -17016,16 +17049,16 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C20" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D20" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21">
@@ -17033,16 +17066,16 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C21" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D21" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22">
@@ -17050,16 +17083,16 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C22" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D22" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23">
@@ -17067,16 +17100,16 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C23" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D23" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E23" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24">
@@ -17084,13 +17117,13 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C24" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D24" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E24" t="s">
         <v>24</v>
@@ -17101,16 +17134,16 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C25" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D25" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E25" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26">
@@ -17118,13 +17151,13 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C26" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D26" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E26" t="s">
         <v>24</v>
@@ -17135,16 +17168,16 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C27" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D27" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E27" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28">
@@ -17152,16 +17185,16 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C28" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D28" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E28" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29">
@@ -17169,13 +17202,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C29" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D29" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E29" t="s">
         <v>29</v>
@@ -17186,13 +17219,13 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C30" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D30" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="E30" t="s">
         <v>29</v>
@@ -17203,16 +17236,16 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C31" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D31" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E31" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32">
@@ -17220,13 +17253,13 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C32" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D32" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="E32" t="s">
         <v>29</v>
@@ -17237,16 +17270,16 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C33" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D33" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E33" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34">
@@ -17254,16 +17287,16 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C34" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D34" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E34" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35">
@@ -17271,16 +17304,16 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C35" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D35" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E35" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36">
@@ -17288,13 +17321,13 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C36" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D36" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E36" t="s">
         <v>29</v>
@@ -17305,16 +17338,16 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C37" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D37" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E37" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38">
@@ -17322,13 +17355,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C38" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D38" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="E38" t="s">
         <v>29</v>
@@ -17339,13 +17372,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C39" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D39" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="E39" t="s">
         <v>29</v>
@@ -17356,16 +17389,16 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C40" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D40" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="E40" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41">
@@ -17373,16 +17406,16 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C41" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D41" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E41" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42">
@@ -17390,16 +17423,16 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C42" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D42" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="E42" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43">
@@ -17407,16 +17440,16 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C43" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D43" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E43" t="s">
-        <v>3</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44">
@@ -17424,16 +17457,16 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C44" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D44" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="E44" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45">
@@ -17441,16 +17474,16 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C45" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D45" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="E45" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46">
@@ -17458,16 +17491,16 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C46" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D46" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E46" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47">
@@ -17475,16 +17508,16 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C47" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D47" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="E47" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="48">
@@ -17492,16 +17525,16 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C48" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D48" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E48" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49">
@@ -17509,16 +17542,16 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C49" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D49" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E49" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50">
@@ -17526,16 +17559,16 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C50" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D50" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E50" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51">
@@ -17543,16 +17576,16 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C51" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D51" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="E51" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="52">
@@ -17560,16 +17593,16 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C52" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D52" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E52" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53">
@@ -17577,16 +17610,16 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C53" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D53" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E53" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="54">
@@ -17594,16 +17627,16 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C54" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D54" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="E54" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55">
@@ -17611,16 +17644,16 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C55" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D55" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="E55" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56">
@@ -17628,16 +17661,16 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C56" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="D56" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="E56" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57">
@@ -17645,16 +17678,16 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C57" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D57" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="E57" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58">
@@ -17662,16 +17695,16 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C58" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D58" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="E58" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59">
@@ -17679,13 +17712,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C59" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D59" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="E59" t="s">
         <v>59</v>
@@ -17696,13 +17729,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C60" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D60" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="E60" t="s">
         <v>59</v>
@@ -17713,13 +17746,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C61" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D61" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="E61" t="s">
         <v>59</v>
@@ -17730,13 +17763,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C62" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D62" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E62" t="s">
         <v>59</v>
@@ -17747,16 +17780,16 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C63" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D63" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="E63" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="64">
@@ -17764,13 +17797,13 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C64" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D64" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E64" t="s">
         <v>68</v>
@@ -17781,16 +17814,16 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C65" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D65" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="E65" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="66">
@@ -17798,13 +17831,13 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C66" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D66" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="E66" t="s">
         <v>68</v>
@@ -17815,16 +17848,16 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C67" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D67" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E67" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="68">
@@ -17832,13 +17865,13 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C68" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D68" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="E68" t="s">
         <v>68</v>
@@ -17849,13 +17882,13 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C69" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D69" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="E69" t="s">
         <v>68</v>
@@ -17866,13 +17899,13 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C70" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D70" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="E70" t="s">
         <v>68</v>
@@ -17883,16 +17916,16 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C71" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D71" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E71" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="72">
@@ -17900,13 +17933,13 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C72" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D72" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="E72" t="s">
         <v>68</v>
@@ -17917,13 +17950,13 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C73" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D73" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="E73" t="s">
         <v>68</v>
@@ -17934,16 +17967,16 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C74" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D74" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="E74" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="75">
@@ -17951,16 +17984,16 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C75" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D75" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="E75" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="76">
@@ -17968,16 +18001,16 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C76" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D76" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="E76" t="s">
-        <v>68</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77">
@@ -17985,16 +18018,16 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C77" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="D77" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="E77" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="78">
@@ -18002,16 +18035,16 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C78" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="D78" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="E78" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
     </row>
     <row r="79">
@@ -18019,16 +18052,16 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C79" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="D79" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="E79" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="80">
@@ -18036,16 +18069,16 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C80" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="D80" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="E80" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="81">
@@ -18053,16 +18086,16 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C81" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="D81" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="E81" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="82">
@@ -18070,16 +18103,16 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C82" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="D82" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="E82" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="83">
@@ -18087,13 +18120,13 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C83" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="D83" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="E83" t="s">
         <v>68</v>
@@ -18104,13 +18137,13 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C84" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="D84" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="E84" t="s">
         <v>68</v>
@@ -18121,13 +18154,13 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C85" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="D85" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="E85" t="s">
         <v>68</v>
@@ -18138,13 +18171,13 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C86" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="D86" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="E86" t="s">
         <v>68</v>
@@ -18155,16 +18188,16 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C87" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D87" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="E87" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="88">
@@ -18172,16 +18205,16 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C88" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="D88" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E88" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="89">
@@ -18189,13 +18222,13 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C89" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="D89" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="E89" t="s">
         <v>89</v>
@@ -18206,13 +18239,13 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C90" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="D90" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="E90" t="s">
         <v>89</v>
@@ -18223,16 +18256,16 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C91" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="D91" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="E91" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="92">
@@ -18240,13 +18273,13 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C92" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="D92" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="E92" t="s">
         <v>92</v>
@@ -18257,13 +18290,13 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C93" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="D93" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="E93" t="s">
         <v>92</v>
@@ -18274,16 +18307,16 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C94" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="D94" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="E94" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="95">
@@ -18291,13 +18324,13 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C95" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="D95" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="E95" t="s">
         <v>95</v>
@@ -18308,16 +18341,16 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C96" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="D96" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="E96" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="97">
@@ -18325,13 +18358,13 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C97" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="D97" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="E97" t="s">
         <v>97</v>
@@ -18342,13 +18375,13 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C98" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="D98" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="E98" t="s">
         <v>97</v>
@@ -18359,13 +18392,13 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C99" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="D99" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="E99" t="s">
         <v>97</v>
@@ -18376,13 +18409,13 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C100" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="D100" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="E100" t="s">
         <v>97</v>
@@ -18393,13 +18426,13 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C101" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="D101" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="E101" t="s">
         <v>97</v>
@@ -18410,13 +18443,13 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C102" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="D102" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="E102" t="s">
         <v>97</v>
@@ -18427,16 +18460,16 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="C103" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="D103" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="E103" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="104">
@@ -18444,16 +18477,16 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="C104" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D104" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="E104" t="s">
-        <v>249</v>
+        <v>349</v>
       </c>
     </row>
     <row r="105">
@@ -18461,16 +18494,16 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="C105" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="D105" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="E105" t="s">
-        <v>105</v>
+        <v>487</v>
       </c>
     </row>
     <row r="106">
@@ -18478,16 +18511,16 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="C106" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="D106" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="E106" t="s">
-        <v>249</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107">
@@ -18495,16 +18528,16 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C107" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D107" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E107" t="s">
-        <v>3</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108">
@@ -18512,16 +18545,16 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C108" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="D108" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="E108" t="s">
-        <v>3</v>
+        <v>251</v>
       </c>
     </row>
     <row r="109">
@@ -18529,16 +18562,16 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C109" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="D109" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="E109" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
     </row>
     <row r="110">
@@ -18546,16 +18579,16 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C110" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="D110" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="E110" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
     </row>
     <row r="111">
@@ -18563,16 +18596,16 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C111" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="D111" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="E111" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
     </row>
     <row r="112">
@@ -18580,16 +18613,16 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C112" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="D112" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="E112" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
     </row>
     <row r="113">
@@ -18597,16 +18630,16 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C113" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="D113" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="E113" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
     </row>
     <row r="114">
@@ -18614,16 +18647,16 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C114" t="s">
+        <v>506</v>
+      </c>
+      <c r="D114" t="s">
+        <v>507</v>
+      </c>
+      <c r="E114" t="s">
         <v>497</v>
-      </c>
-      <c r="D114" t="s">
-        <v>498</v>
-      </c>
-      <c r="E114" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="115">
@@ -18631,16 +18664,16 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C115" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="D115" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="E115" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
     </row>
     <row r="116">
@@ -18648,16 +18681,16 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C116" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="D116" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="E116" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
     </row>
     <row r="117">
@@ -18665,16 +18698,16 @@
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C117" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="D117" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="E117" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
     </row>
     <row r="118">
@@ -18682,16 +18715,16 @@
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C118" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="D118" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="E118" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
     </row>
     <row r="119">
@@ -18699,16 +18732,16 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C119" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="D119" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E119" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
     </row>
     <row r="120">
@@ -18716,16 +18749,16 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="C120" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="D120" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="E120" t="s">
-        <v>3</v>
+        <v>251</v>
       </c>
     </row>
     <row r="121">
@@ -18733,16 +18766,16 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="C121" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="D121" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="E121" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
     </row>
     <row r="122">
@@ -18750,16 +18783,16 @@
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="C122" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="D122" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="E122" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="123">
@@ -18767,13 +18800,13 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="C123" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="D123" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="E123" t="s">
         <v>123</v>
@@ -18784,16 +18817,16 @@
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="C124" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="D124" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="E124" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="125">
@@ -18801,13 +18834,13 @@
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="C125" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="D125" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="E125" t="s">
         <v>125</v>
@@ -18818,13 +18851,13 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="C126" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="D126" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="E126" t="s">
         <v>125</v>
@@ -18835,16 +18868,16 @@
         <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="C127" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="D127" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="128">
@@ -18852,16 +18885,16 @@
         <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="C128" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="D128" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="129">
@@ -18869,16 +18902,16 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="C129" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="D129" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="130">
@@ -18886,16 +18919,16 @@
         <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="C130" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="D130" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="131">
@@ -18903,16 +18936,16 @@
         <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C131" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="D131" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="132">
@@ -18920,13 +18953,13 @@
         <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C132" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="D132" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="E132" t="s">
         <v>132</v>
@@ -18937,13 +18970,13 @@
         <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C133" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="D133" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="E133" t="s">
         <v>132</v>
@@ -18954,16 +18987,16 @@
         <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C134" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="D134" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="E134" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
     </row>
     <row r="135">
@@ -18971,16 +19004,16 @@
         <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C135" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="D135" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="E135" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="136">
@@ -18988,13 +19021,13 @@
         <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C136" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="D136" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="E136" t="s">
         <v>136</v>
@@ -19005,13 +19038,13 @@
         <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C137" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="D137" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="E137" t="s">
         <v>136</v>
@@ -19022,13 +19055,13 @@
         <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C138" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="D138" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="E138" t="s">
         <v>136</v>
@@ -19039,13 +19072,13 @@
         <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C139" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="D139" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="E139" t="s">
         <v>136</v>
@@ -19056,16 +19089,16 @@
         <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="C140" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="D140" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="E140" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="141">
@@ -19073,16 +19106,16 @@
         <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="C141" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="D141" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="E141" t="s">
-        <v>141</v>
+        <v>570</v>
       </c>
     </row>
     <row r="142">
@@ -19090,16 +19123,16 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="C142" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="D142" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="E142" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
     </row>
     <row r="143">
@@ -19107,16 +19140,16 @@
         <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="C143" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="D143" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="E143" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
     </row>
     <row r="144">
@@ -19124,16 +19157,16 @@
         <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="C144" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="D144" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="E144" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
     </row>
     <row r="145">
@@ -19141,16 +19174,16 @@
         <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="C145" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="D145" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="E145" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
     </row>
     <row r="146">
@@ -19158,16 +19191,16 @@
         <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="C146" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="D146" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E146" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="147">
@@ -19175,13 +19208,13 @@
         <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="C147" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="D147" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="E147" t="s">
         <v>147</v>
@@ -19192,13 +19225,13 @@
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="C148" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="D148" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="E148" t="s">
         <v>147</v>
@@ -19209,16 +19242,16 @@
         <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="C149" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="D149" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="E149" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="150">
@@ -19226,16 +19259,16 @@
         <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="C150" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="D150" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="E150" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="151">
@@ -19243,16 +19276,16 @@
         <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="C151" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="D151" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E151" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="152">
@@ -19260,16 +19293,16 @@
         <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="C152" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="D152" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="E152" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="153">
@@ -19277,16 +19310,16 @@
         <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="C153" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="D153" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="E153" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="154">
@@ -19294,13 +19327,13 @@
         <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="C154" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="D154" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="E154" t="s">
         <v>95</v>
@@ -19311,16 +19344,16 @@
         <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="C155" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="D155" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E155" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="156">
@@ -19328,16 +19361,16 @@
         <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="C156" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="D156" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="E156" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="157">
@@ -19345,16 +19378,16 @@
         <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="C157" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="D157" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="E157" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="158">
@@ -19362,16 +19395,16 @@
         <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="C158" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="D158" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="E158" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="159">
@@ -19379,16 +19412,16 @@
         <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="C159" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="D159" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="E159" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="160">
@@ -19396,16 +19429,16 @@
         <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="C160" t="s">
         <v>236</v>
       </c>
       <c r="D160" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="E160" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="161">
@@ -19413,16 +19446,16 @@
         <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="C161" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="D161" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="E161" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="162">
@@ -19430,16 +19463,16 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="C162" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="D162" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="E162" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="163">
@@ -19447,16 +19480,16 @@
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="C163" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="D163" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="E163" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="164">
@@ -19464,16 +19497,16 @@
         <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="C164" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="D164" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="E164" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
     </row>
     <row r="165">
@@ -19481,13 +19514,13 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="C165" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="D165" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="E165" t="s">
         <v>164</v>
@@ -19498,13 +19531,13 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="C166" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="D166" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="E166" t="s">
         <v>164</v>
@@ -19515,16 +19548,16 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="C167" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="D167" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="E167" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="168">
@@ -19532,13 +19565,13 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="C168" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="D168" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="E168" t="s">
         <v>168</v>
@@ -19549,16 +19582,16 @@
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="C169" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="D169" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="E169" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="170">
@@ -19566,16 +19599,16 @@
         <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="C170" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="D170" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="E170" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="171">
@@ -19583,16 +19616,16 @@
         <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="C171" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="D171" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="E171" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="172">
@@ -19600,16 +19633,16 @@
         <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="C172" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="D172" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="E172" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -19627,12 +19660,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
@@ -565,7 +565,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>U747D3-NM65DB-WR7QZZ-KC2NCIZE</t>
+    <t>SVBQ4Q-M6LXCK-EILBRB-RV7RKHEQ</t>
   </si>
   <si>
     <t>Admin Surveillance Supervisor</t>
@@ -574,13 +574,13 @@
     <t>Region</t>
   </si>
   <si>
-    <t>VDFMCV-YTRS6Q-XEINFL-QJOVCC6U</t>
+    <t>T2YFVQ-UALTV7-C6FPVV-5XUUSBAQ</t>
   </si>
   <si>
     <t>BAG User</t>
   </si>
   <si>
-    <t>XQIVZG-D6TK3D-JD6QYU-BUY7KIYA</t>
+    <t>WXUVOC-2FEOLI-MBR6FK-R2PO2KM4</t>
   </si>
   <si>
     <t>Case Officer</t>
@@ -589,13 +589,13 @@
     <t>District</t>
   </si>
   <si>
-    <t>WV3LXO-56LNGV-3IZBUP-GIOR2GFE</t>
+    <t>TD5YWN-CTNFSD-OXU5UQ-P7T72BOM</t>
   </si>
   <si>
     <t>Clinician</t>
   </si>
   <si>
-    <t>UZYLRH-EFDUOX-KUJ3EG-DUWK2DY4</t>
+    <t>UYDITU-7Q6BHJ-7UB4GK-WXEUSCIE</t>
   </si>
   <si>
     <t>Community Informant</t>
@@ -604,37 +604,37 @@
     <t>Community</t>
   </si>
   <si>
-    <t>XYAEFU-HYAXDI-725ONV-7TEFSBFU</t>
+    <t>TSNCUO-G52ZP2-A7N5T2-M4J2KBAE</t>
   </si>
   <si>
     <t>Community Officer</t>
   </si>
   <si>
-    <t>T7NTCD-DEKMW5-S6AD5M-4NBIKJO4</t>
+    <t>QALKMH-U23NN7-WTJA7L-73E2CHKM</t>
   </si>
   <si>
     <t>Contact Officer</t>
   </si>
   <si>
-    <t>RCMKDX-EQLAE2-NHD3BC-BR3M2OZU</t>
+    <t>XNR6EZ-KJDB7Y-LI57LH-4VF42I2Y</t>
   </si>
   <si>
     <t>Contact Supervisor</t>
   </si>
   <si>
-    <t>WYQ2RB-YA2ELL-K7KJHK-5EZHCBYY</t>
+    <t>SZ3DX5-4AGEJE-ZGPSYH-SVNFCFM4</t>
   </si>
   <si>
     <t>District Observer</t>
   </si>
   <si>
-    <t>SBC4W3-FLYTHP-6VTPSH-XMUNCDYU</t>
+    <t>V27GIG-USYWMJ-G2JPTP-4SHJCBY4</t>
   </si>
   <si>
     <t>Event Officer</t>
   </si>
   <si>
-    <t>XWO2OV-PHYVTN-ONJONK-CTAL2N4A</t>
+    <t>WWCW3B-A6E6X4-3JZ4YF-P5AKKKVI</t>
   </si>
   <si>
     <t>External Lab Officer</t>
@@ -643,7 +643,7 @@
     <t>External laboratory</t>
   </si>
   <si>
-    <t>WI4WZ3-ESGPVY-K5LU3T-DVXWKNUE</t>
+    <t>TKDQAO-JJGR7Q-XJAV7V-V2RKCORE</t>
   </si>
   <si>
     <t>External Visits User</t>
@@ -652,7 +652,7 @@
     <t>Nation</t>
   </si>
   <si>
-    <t>UYWCH4-FJAGER-2ACPVM-IJPMSLIA</t>
+    <t>QMRO57-QLHTNI-RI6J3T-6L4Q2PAM</t>
   </si>
   <si>
     <t>Hospital Informant</t>
@@ -661,13 +661,13 @@
     <t>Facility</t>
   </si>
   <si>
-    <t>TVM3BX-TNWMTL-IOKHA3-HIDMSNWM</t>
+    <t>VN7AL2-XTVNCR-DNHKZD-SG2NKCAQ</t>
   </si>
   <si>
     <t>Import User</t>
   </si>
   <si>
-    <t>Q7XTYT-NXGRV7-MZCM72-PJI6SJNI</t>
+    <t>T4N6N4-U63KOE-MID5YP-LNO6CNV4</t>
   </si>
   <si>
     <t>Lab Officer</t>
@@ -676,25 +676,25 @@
     <t>Laboratory</t>
   </si>
   <si>
-    <t>XM2CKA-JH4XLH-ITNFMA-PMEUCKE4</t>
+    <t>SAPEKQ-BKXSWW-WGC4DO-N4YTSOXA</t>
   </si>
   <si>
     <t>National Clinician</t>
   </si>
   <si>
-    <t>VTYTZS-YIZJGZ-XDCZUX-6LASKP5E</t>
+    <t>TA6WR3-PDRG4C-YQGWXI-I4CISIAI</t>
   </si>
   <si>
     <t>National Observer</t>
   </si>
   <si>
-    <t>VRCKMH-VZ4PCU-RLIGJK-VTT6SKBM</t>
+    <t>XL3EZD-QZMGLW-H5RC3V-DN3BCGDE</t>
   </si>
   <si>
     <t>National User</t>
   </si>
   <si>
-    <t>THVPON-N2KIAV-HVW3HB-4YQC2CT4</t>
+    <t>WA7ZUG-HOILVH-TBPP7C-XSRQSCRQ</t>
   </si>
   <si>
     <t>POE Informant</t>
@@ -703,43 +703,43 @@
     <t>Point of entry</t>
   </si>
   <si>
-    <t>XF4CRI-ZFPMYE-ZYF6GK-JESZCD6U</t>
+    <t>TRBFTM-MGJ2EP-OOSZG4-B3J7KJDE</t>
   </si>
   <si>
     <t>POE National User</t>
   </si>
   <si>
-    <t>RQKG7J-AT6NDJ-3BMVD5-FTK22LDI</t>
+    <t>UYIJ57-TIVXP3-GZUGCT-TIOM2PDU</t>
   </si>
   <si>
     <t>POE Supervisor</t>
   </si>
   <si>
-    <t>T44AYC-UIT3W5-42JHEK-TJOHKE5M</t>
+    <t>RVZ4CV-MTFUKQ-C6A5HV-IJHZCIGM</t>
   </si>
   <si>
     <t>Region Observer</t>
   </si>
   <si>
-    <t>V34LKQ-Q65T6Y-AALGOD-XIYNSDQI</t>
+    <t>VWIIWC-6YFPZI-HLP4PW-C7MMCEFY</t>
   </si>
   <si>
     <t>Sormas to Sormas Client</t>
   </si>
   <si>
-    <t>UHCKZK-O4OOBH-VRJQ35-JP44KK7M</t>
+    <t>RTO2PS-2MTJJH-RMBU4T-FUYUKBHA</t>
   </si>
   <si>
     <t>Surveillance Officer</t>
   </si>
   <si>
-    <t>XSQHXN-P4WH74-VUDC4F-LPIISCYY</t>
+    <t>RENBVH-NKED45-67G6VS-FB5QCDB4</t>
   </si>
   <si>
     <t>Surveillance Supervisor</t>
   </si>
   <si>
-    <t>SQWC5Y-UHX7B6-RC2Z5W-M3U2KD6E</t>
+    <t>UVM2VS-WYGJMH-VW3KPF-XJUE2FWQ</t>
   </si>
   <si>
     <t>User Right</t>
@@ -778,7 +778,7 @@
     <t>Able to edit existing cases</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT, CASE_VIEW</t>
+    <t>PERSON_EDIT, PERSON_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Archive cases</t>
@@ -793,7 +793,7 @@
     <t>Able to delete cases from the system</t>
   </si>
   <si>
-    <t>DOCUMENT_VIEW, ADDITIONAL_TEST_VIEW, PERSON_DELETE, TASK_VIEW, SAMPLE_DELETE, TREATMENT_DELETE, THERAPY_VIEW, ADDITIONAL_TEST_DELETE, PRESCRIPTION_DELETE, CLINICAL_COURSE_VIEW, VISIT_DELETE, CLINICAL_VISIT_DELETE, IMMUNIZATION_DELETE, PATHOGEN_TEST_DELETE, DOCUMENT_DELETE, PERSON_VIEW, SAMPLE_VIEW, TASK_DELETE, IMMUNIZATION_VIEW, CASE_VIEW</t>
+    <t>DOCUMENT_VIEW, VISIT_DELETE, TASK_DELETE, IMMUNIZATION_DELETE, TREATMENT_DELETE, PATHOGEN_TEST_DELETE, CLINICAL_COURSE_VIEW, CLINICAL_VISIT_DELETE, PERSON_VIEW, SAMPLE_DELETE, ADDITIONAL_TEST_DELETE, PERSON_DELETE, TASK_VIEW, IMMUNIZATION_VIEW, PRESCRIPTION_DELETE, THERAPY_VIEW, DOCUMENT_DELETE, CASE_VIEW, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW</t>
   </si>
   <si>
     <t>Import cases into SORMAS</t>
@@ -814,7 +814,7 @@
     <t>Able to edit case investigation status</t>
   </si>
   <si>
-    <t>CASE_EDIT, PERSON_VIEW, PERSON_EDIT, CASE_VIEW</t>
+    <t>CASE_EDIT, PERSON_EDIT, PERSON_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Edit case classification and outcome</t>
@@ -877,7 +877,7 @@
     <t>Able to create new immunizations and vaccinations</t>
   </si>
   <si>
-    <t>PERSON_VIEW, IMMUNIZATION_VIEW</t>
+    <t>IMMUNIZATION_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing immunizations and vaccinations</t>
@@ -886,7 +886,7 @@
     <t>Able to edit existing immunizations and vaccinations</t>
   </si>
   <si>
-    <t>PERSON_VIEW, IMMUNIZATION_VIEW, PERSON_EDIT</t>
+    <t>PERSON_EDIT, IMMUNIZATION_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Archive immunizations</t>
@@ -901,7 +901,7 @@
     <t>Able to delete immunizations and vaccinations from the system</t>
   </si>
   <si>
-    <t>PERSON_DELETE, PERSON_VIEW, IMMUNIZATION_VIEW, VISIT_DELETE</t>
+    <t>PERSON_DELETE, IMMUNIZATION_VIEW, VISIT_DELETE, PERSON_VIEW</t>
   </si>
   <si>
     <t>Persons</t>
@@ -928,7 +928,7 @@
     <t>Able to delete persons from the system</t>
   </si>
   <si>
-    <t>PERSON_VIEW, VISIT_DELETE</t>
+    <t>VISIT_DELETE, PERSON_VIEW</t>
   </si>
   <si>
     <t>Export persons</t>
@@ -943,7 +943,7 @@
     <t>Able to delete person contact details</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT</t>
+    <t>PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Sample Testing</t>
@@ -973,7 +973,7 @@
     <t>Able to delete samples from the system</t>
   </si>
   <si>
-    <t>PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_VIEW, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE</t>
+    <t>ADDITIONAL_TEST_DELETE, PATHOGEN_TEST_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW</t>
   </si>
   <si>
     <t>Export samples from SORMAS</t>
@@ -1033,7 +1033,7 @@
     <t>Able to create new additional tests</t>
   </si>
   <si>
-    <t>ADDITIONAL_TEST_VIEW, SAMPLE_VIEW</t>
+    <t>SAMPLE_VIEW, ADDITIONAL_TEST_VIEW</t>
   </si>
   <si>
     <t>Edit existing additional tests</t>
@@ -1063,7 +1063,7 @@
     <t>Able to create new contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CONTACT_VIEW, CASE_VIEW</t>
+    <t>CONTACT_VIEW, PERSON_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Edit existing contacts</t>
@@ -1072,7 +1072,7 @@
     <t>Able to edit existing contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CONTACT_VIEW, PERSON_EDIT, CASE_VIEW</t>
+    <t>PERSON_EDIT, CONTACT_VIEW, PERSON_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Archive contacts</t>
@@ -1087,7 +1087,7 @@
     <t>Able to delete contacts from the system</t>
   </si>
   <si>
-    <t>DOCUMENT_VIEW, ADDITIONAL_TEST_VIEW, PERSON_DELETE, TASK_VIEW, SAMPLE_DELETE, CONTACT_VIEW, ADDITIONAL_TEST_DELETE, VISIT_DELETE, PATHOGEN_TEST_DELETE, DOCUMENT_DELETE, PERSON_VIEW, SAMPLE_VIEW, TASK_DELETE, CASE_VIEW</t>
+    <t>DOCUMENT_VIEW, VISIT_DELETE, TASK_DELETE, PATHOGEN_TEST_DELETE, PERSON_VIEW, SAMPLE_DELETE, ADDITIONAL_TEST_DELETE, PERSON_DELETE, TASK_VIEW, CONTACT_VIEW, DOCUMENT_DELETE, SAMPLE_VIEW, CASE_VIEW, ADDITIONAL_TEST_VIEW</t>
   </si>
   <si>
     <t>Import contacts</t>
@@ -1108,7 +1108,7 @@
     <t>Able to create resulting cases from contacts</t>
   </si>
   <si>
-    <t>CASE_CREATE, PERSON_VIEW, CONTACT_VIEW, PERSON_EDIT, CONTACT_EDIT, CASE_VIEW</t>
+    <t>PERSON_EDIT, CONTACT_EDIT, CONTACT_VIEW, PERSON_VIEW, CASE_CREATE, CASE_VIEW</t>
   </si>
   <si>
     <t>Reassign the source case of contacts</t>
@@ -1117,7 +1117,7 @@
     <t>Able to reassign the source case of contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CONTACT_VIEW, PERSON_EDIT, CONTACT_EDIT, CASE_VIEW</t>
+    <t>PERSON_EDIT, CONTACT_EDIT, CONTACT_VIEW, PERSON_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Merge contacts</t>
@@ -1195,7 +1195,7 @@
     <t>Able to assign tasks to users</t>
   </si>
   <si>
-    <t>TASK_VIEW, TASK_EDIT</t>
+    <t>TASK_EDIT, TASK_VIEW</t>
   </si>
   <si>
     <t>Events</t>
@@ -1213,7 +1213,7 @@
     <t>Able to delete actions from the system</t>
   </si>
   <si>
-    <t>DOCUMENT_VIEW, DOCUMENT_DELETE, EVENT_VIEW</t>
+    <t>EVENT_VIEW, DOCUMENT_VIEW, DOCUMENT_DELETE</t>
   </si>
   <si>
     <t>Edit existing actions</t>
@@ -1252,7 +1252,7 @@
     <t>Able to delete events from the system</t>
   </si>
   <si>
-    <t>DOCUMENT_VIEW, ADDITIONAL_TEST_VIEW, TASK_VIEW, PERSON_DELETE, SAMPLE_DELETE, ADDITIONAL_TEST_DELETE, VISIT_DELETE, EVENTPARTICIPANT_VIEW, PATHOGEN_TEST_DELETE, DOCUMENT_DELETE, PERSON_VIEW, SAMPLE_VIEW, TASK_DELETE, ACTION_DELETE, EVENT_VIEW, EVENTPARTICIPANT_DELETE</t>
+    <t>DOCUMENT_VIEW, ACTION_DELETE, VISIT_DELETE, TASK_DELETE, PATHOGEN_TEST_DELETE, PERSON_VIEW, SAMPLE_DELETE, ADDITIONAL_TEST_DELETE, EVENT_VIEW, EVENTPARTICIPANT_DELETE, PERSON_DELETE, TASK_VIEW, DOCUMENT_DELETE, EVENTPARTICIPANT_VIEW, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW</t>
   </si>
   <si>
     <t>Import events</t>
@@ -1273,7 +1273,7 @@
     <t>Able to perform bulk operations in the event directory</t>
   </si>
   <si>
-    <t>EVENT_EDIT, EVENT_VIEW</t>
+    <t>EVENT_VIEW, EVENT_EDIT</t>
   </si>
   <si>
     <t>Can be responsible for an event</t>
@@ -1285,7 +1285,7 @@
     <t>Able to view existing event participants</t>
   </si>
   <si>
-    <t>PERSON_VIEW, EVENT_VIEW</t>
+    <t>EVENT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Create new event participants</t>
@@ -1294,7 +1294,7 @@
     <t>Able to create new event participants</t>
   </si>
   <si>
-    <t>EVENTPARTICIPANT_VIEW, PERSON_VIEW, EVENT_VIEW</t>
+    <t>EVENT_VIEW, PERSON_VIEW, EVENTPARTICIPANT_VIEW</t>
   </si>
   <si>
     <t>Edit existing event participants</t>
@@ -1303,7 +1303,7 @@
     <t>Able to edit existing event participants</t>
   </si>
   <si>
-    <t>EVENTPARTICIPANT_VIEW, PERSON_VIEW, PERSON_EDIT, EVENT_VIEW</t>
+    <t>EVENT_VIEW, PERSON_EDIT, PERSON_VIEW, EVENTPARTICIPANT_VIEW</t>
   </si>
   <si>
     <t>Event participant archive</t>
@@ -1318,7 +1318,7 @@
     <t>Able to delete event participants from the system</t>
   </si>
   <si>
-    <t>EVENTPARTICIPANT_VIEW, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_VIEW, PERSON_DELETE, SAMPLE_DELETE, PERSON_VIEW, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE, EVENT_VIEW, VISIT_DELETE</t>
+    <t>SAMPLE_DELETE, ADDITIONAL_TEST_DELETE, EVENT_VIEW, PERSON_DELETE, VISIT_DELETE, PATHOGEN_TEST_DELETE, PERSON_VIEW, EVENTPARTICIPANT_VIEW, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW</t>
   </si>
   <si>
     <t>Import event participants</t>
@@ -1333,7 +1333,7 @@
     <t>Able to perform bulk operations in the event participants directory</t>
   </si>
   <si>
-    <t>EVENTPARTICIPANT_VIEW, EVENTPARTICIPANT_EDIT, PERSON_VIEW, PERSON_EDIT, EVENT_VIEW</t>
+    <t>EVENT_VIEW, PERSON_EDIT, EVENTPARTICIPANT_EDIT, PERSON_VIEW, EVENTPARTICIPANT_VIEW</t>
   </si>
   <si>
     <t>Create new event groups</t>
@@ -1477,7 +1477,7 @@
     <t>Able to view contact transmission chains on the dashboard</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CONTACT_VIEW, DASHBOARD_CONTACT_VIEW, CASE_VIEW</t>
+    <t>DASHBOARD_CONTACT_VIEW, CONTACT_VIEW, PERSON_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Access campaigns dashboard</t>
@@ -1507,7 +1507,7 @@
     <t>Able to create new prescriptions</t>
   </si>
   <si>
-    <t>PERSON_VIEW, THERAPY_VIEW, CASE_VIEW</t>
+    <t>THERAPY_VIEW, PERSON_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Edit existing prescriptions</t>
@@ -1552,7 +1552,7 @@
     <t>Able to edit the clinical course of cases</t>
   </si>
   <si>
-    <t>PERSON_VIEW, THERAPY_VIEW, CLINICAL_COURSE_VIEW, CASE_VIEW</t>
+    <t>THERAPY_VIEW, CLINICAL_COURSE_VIEW, PERSON_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Create new clinical visits</t>
@@ -1588,7 +1588,7 @@
     <t>Able to edit existing port health info</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PORT_HEALTH_INFO_VIEW, CASE_VIEW</t>
+    <t>PORT_HEALTH_INFO_VIEW, PERSON_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Aggregated Reporting</t>
@@ -1678,7 +1678,7 @@
     <t>Able to delete campaigns from the system</t>
   </si>
   <si>
-    <t>CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_VIEW, CAMPAIGN_FORM_DATA_DELETE</t>
+    <t>CAMPAIGN_FORM_DATA_DELETE, CAMPAIGN_FORM_DATA_VIEW, CAMPAIGN_VIEW</t>
   </si>
   <si>
     <t>View existing campaign form data</t>
@@ -1735,7 +1735,7 @@
     <t>Able to create new travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW, TRAVEL_ENTRY_VIEW</t>
+    <t>TRAVEL_ENTRY_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing travel entries</t>
@@ -1744,7 +1744,7 @@
     <t>Able to edit existing travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW, TRAVEL_ENTRY_VIEW, PERSON_EDIT</t>
+    <t>PERSON_EDIT, TRAVEL_ENTRY_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW</t>
   </si>
   <si>
     <t>Archive travel entries</t>
@@ -1759,7 +1759,7 @@
     <t>Able to delete travel entries from the system</t>
   </si>
   <si>
-    <t>DOCUMENT_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_DELETE, TASK_VIEW, DOCUMENT_DELETE, PERSON_VIEW, TASK_DELETE, TRAVEL_ENTRY_VIEW, VISIT_DELETE</t>
+    <t>DOCUMENT_VIEW, PERSON_DELETE, TASK_VIEW, VISIT_DELETE, TRAVEL_ENTRY_VIEW, TASK_DELETE, DOCUMENT_DELETE, TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW</t>
   </si>
   <si>
     <t>Documents</t>
@@ -1885,7 +1885,7 @@
     <t>Able to work with messages</t>
   </si>
   <si>
-    <t>PERSON_DELETE, CASE_CREATE, EVENTPARTICIPANT_CREATE, EVENT_EDIT, CONTACT_EDIT, PATHOGEN_TEST_CREATE, EVENTPARTICIPANT_VIEW, PERSON_VIEW, IMMUNIZATION_CREATE, IMMUNIZATION_VIEW, SAMPLE_CREATE, IMMUNIZATION_EDIT, CASE_VIEW, SAMPLE_EDIT, EXTERNAL_MESSAGE_VIEW, CASE_EDIT, CONTACT_VIEW, PATHOGEN_TEST_EDIT, PERSON_EDIT, VISIT_DELETE, IMMUNIZATION_DELETE, CONTACT_CREATE, PATHOGEN_TEST_DELETE, EVENTPARTICIPANT_EDIT, EVENT_CREATE, SAMPLE_VIEW, EVENT_VIEW</t>
+    <t>IMMUNIZATION_DELETE, SAMPLE_EDIT, EVENT_VIEW, PERSON_EDIT, PERSON_DELETE, IMMUNIZATION_VIEW, CONTACT_VIEW, CASE_CREATE, EVENTPARTICIPANT_VIEW, SAMPLE_CREATE, CASE_EDIT, IMMUNIZATION_EDIT, IMMUNIZATION_CREATE, VISIT_DELETE, PATHOGEN_TEST_DELETE, EVENTPARTICIPANT_EDIT, PERSON_VIEW, PATHOGEN_TEST_CREATE, CONTACT_CREATE, CONTACT_EDIT, EVENTPARTICIPANT_CREATE, EVENT_EDIT, EVENT_CREATE, CASE_VIEW, SAMPLE_VIEW, EXTERNAL_MESSAGE_VIEW, PATHOGEN_TEST_EDIT</t>
   </si>
   <si>
     <t>Delete messages from the system</t>
@@ -1942,7 +1942,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.76.0-SNAPSHOT</t>
+    <t>1.0.0</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
@@ -568,7 +568,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>VT4XTW-LZ6PWX-YQB3IN-PNU62EQU</t>
+    <t>QJCP7Z-AD2A2D-YJWYXL-7BLW2D3I</t>
   </si>
   <si>
     <t>Admin Surveillance Supervisor</t>
@@ -577,13 +577,13 @@
     <t>Region</t>
   </si>
   <si>
-    <t>UGQTP6-C45MRT-TQAHAH-6QYDSPWA</t>
+    <t>RSNKSP-LUEDRG-BZEH5O-KEZO2EFI</t>
   </si>
   <si>
     <t>BAG User</t>
   </si>
   <si>
-    <t>XWXPJB-QLGTWV-DET6JL-O4SQSPFQ</t>
+    <t>TBIGFY-OFUONA-UTN5OR-EQ6FCBJM</t>
   </si>
   <si>
     <t>Case Officer</t>
@@ -592,13 +592,13 @@
     <t>District</t>
   </si>
   <si>
-    <t>VXRAF2-GOEJS3-LQNNBT-BOBRKIYI</t>
+    <t>TNHILE-XKAZ5L-NSIDFH-TZ3UKIYY</t>
   </si>
   <si>
     <t>Clinician</t>
   </si>
   <si>
-    <t>SDVHV4-BDW34F-GYUP5O-233HCBVM</t>
+    <t>UTQNR6-VRTKWZ-U42SEQ-DDJZCKBI</t>
   </si>
   <si>
     <t>Community Informant</t>
@@ -607,37 +607,37 @@
     <t>Community</t>
   </si>
   <si>
-    <t>TCKL5X-XFAWDE-U2QONF-Y7XZCHRI</t>
+    <t>V52HST-R5GAPK-KUS2FB-IY2OKHFI</t>
   </si>
   <si>
     <t>Community Officer</t>
   </si>
   <si>
-    <t>X2VOQH-TXEGG5-LVQ74V-NJ4CCJFY</t>
+    <t>WDNLR4-QODXES-TA3EDM-42CM2P2Y</t>
   </si>
   <si>
     <t>Contact Officer</t>
   </si>
   <si>
-    <t>RSRBWL-C4QQQP-SZ4AIV-SC5H2DLQ</t>
+    <t>S7ANPX-YN3Q2R-MEPIQG-IWGQCOFU</t>
   </si>
   <si>
     <t>Contact Supervisor</t>
   </si>
   <si>
-    <t>QLXWLO-JUGW7G-WG3PQZ-RXFV2AJI</t>
+    <t>XTYY5L-YU3OJF-YYVEGP-AHEYKDNU</t>
   </si>
   <si>
     <t>District Observer</t>
   </si>
   <si>
-    <t>TSFVEM-5LVBIT-IH4MZD-WYU2SLJY</t>
+    <t>X7S5GU-HF3FBA-6CJ7XA-LKBD2E2A</t>
   </si>
   <si>
     <t>Event Officer</t>
   </si>
   <si>
-    <t>S2UGHM-TS2AW2-LGUEKE-SHTLKEMA</t>
+    <t>VTKRYY-XKJCZV-6UWMIJ-45ZVSA74</t>
   </si>
   <si>
     <t>External Lab Officer</t>
@@ -646,7 +646,7 @@
     <t>External laboratory</t>
   </si>
   <si>
-    <t>UKYL2M-TYOU2Z-XRWHQD-B36R2NJQ</t>
+    <t>WBZTYE-N4RVK4-XZMUFZ-NFXOSETQ</t>
   </si>
   <si>
     <t>External Visits User</t>
@@ -655,7 +655,7 @@
     <t>Nation</t>
   </si>
   <si>
-    <t>TSUNLK-DSZINO-HH7I72-6C7OCPGU</t>
+    <t>SINIIY-7EKXCP-A6R3BX-WEV52A2U</t>
   </si>
   <si>
     <t>Hospital Informant</t>
@@ -664,13 +664,13 @@
     <t>Facility</t>
   </si>
   <si>
-    <t>RGTJ53-72OAUX-GUSLVV-MVLA2NGA</t>
+    <t>QNWFWI-4CHEFD-WTOGKD-7LP3CG7M</t>
   </si>
   <si>
     <t>Import User</t>
   </si>
   <si>
-    <t>WVX4OH-ZG2KIR-KCNOIF-OBPMCEPU</t>
+    <t>RVLNRH-MU5HSI-AJZMXS-BXRB2GQI</t>
   </si>
   <si>
     <t>Lab Officer</t>
@@ -679,25 +679,25 @@
     <t>Laboratory</t>
   </si>
   <si>
-    <t>QKGYP7-OXFTNR-7XPIS6-TK4BKDXA</t>
+    <t>TA37XI-I5ITUM-ORVBNZ-76DUCHDQ</t>
   </si>
   <si>
     <t>National Clinician</t>
   </si>
   <si>
-    <t>RSFRVS-UZ3RNC-S3IGX4-TWLACHQA</t>
+    <t>QDO6BR-DUDGQ6-7CH5B6-IQ3WSIMA</t>
   </si>
   <si>
     <t>National Observer</t>
   </si>
   <si>
-    <t>QRSVG6-35ZOQZ-TUPV2X-QFPNSOEQ</t>
+    <t>XUKH5K-HL6NQH-QXCG2N-M42GKCHI</t>
   </si>
   <si>
     <t>National User</t>
   </si>
   <si>
-    <t>TFC2FN-7AHGUP-DUFNNK-JRSO2EYA</t>
+    <t>XBEFLD-IZKOTV-XB6DHT-3ZM4KINI</t>
   </si>
   <si>
     <t>POE Informant</t>
@@ -706,43 +706,43 @@
     <t>Point of entry</t>
   </si>
   <si>
-    <t>XRLFFM-7M344D-6RN6CO-KTLIKEEA</t>
+    <t>QPC4DB-ZPE6RR-CARHKB-KBKJ2MV4</t>
   </si>
   <si>
     <t>POE National User</t>
   </si>
   <si>
-    <t>RUIVAF-RJIEJI-IBUDBL-EBW4KNAI</t>
+    <t>TBSJAA-LICJEI-UK5INB-2LFECNXE</t>
   </si>
   <si>
     <t>POE Supervisor</t>
   </si>
   <si>
-    <t>W6OKBI-KAMOKQ-S7F2ML-HOSDCOQ4</t>
+    <t>UH74FA-L4N3SM-4ZISGJ-RTXN2FJ4</t>
   </si>
   <si>
     <t>Region Observer</t>
   </si>
   <si>
-    <t>X7UFJA-7JTSFL-C4AUD5-NXFC2FNI</t>
+    <t>T3SETM-J6GC4Q-VPKEBV-TEMSSFJ4</t>
   </si>
   <si>
     <t>Sormas to Sormas Client</t>
   </si>
   <si>
-    <t>ROQFF4-5EUQNC-3EQPDF-GPHLSPHY</t>
+    <t>WRPTSW-SMWVNR-4EOG3X-JY7W2JU4</t>
   </si>
   <si>
     <t>Surveillance Officer</t>
   </si>
   <si>
-    <t>VEFHK5-GSHAH2-XCE7UP-RC5I2NOE</t>
+    <t>U3INAZ-FOAO5T-TDFBVH-MFVAKFLU</t>
   </si>
   <si>
     <t>Surveillance Supervisor</t>
   </si>
   <si>
-    <t>U3KEOR-OCPH5D-6E72OK-UCU62DJU</t>
+    <t>QYFL24-R2JSCQ-PHLA4I-MQL2CLSE</t>
   </si>
   <si>
     <t>User Right</t>
@@ -781,7 +781,7 @@
     <t>Able to edit existing cases</t>
   </si>
   <si>
-    <t>PERSON_EDIT, PERSON_VIEW, CASE_VIEW</t>
+    <t>PERSON_VIEW, PERSON_EDIT, CASE_VIEW</t>
   </si>
   <si>
     <t>Archive cases</t>
@@ -796,7 +796,7 @@
     <t>Able to delete cases from the system</t>
   </si>
   <si>
-    <t>SAMPLE_DELETE, PATHOGEN_TEST_DELETE, DOCUMENT_VIEW, THERAPY_VIEW, CLINICAL_VISIT_DELETE, ADDITIONAL_TEST_DELETE, TREATMENT_DELETE, VISIT_DELETE, TASK_VIEW, SAMPLE_VIEW, PRESCRIPTION_DELETE, ADDITIONAL_TEST_VIEW, TASK_DELETE, PERSON_DELETE, DOCUMENT_DELETE, PERSON_VIEW, CASE_VIEW, CLINICAL_COURSE_VIEW, IMMUNIZATION_DELETE, IMMUNIZATION_VIEW</t>
+    <t>ADDITIONAL_TEST_VIEW, DOCUMENT_VIEW, THERAPY_VIEW, TASK_VIEW, SAMPLE_DELETE, PERSON_DELETE, ADDITIONAL_TEST_DELETE, CASE_VIEW, TREATMENT_DELETE, PRESCRIPTION_DELETE, TASK_DELETE, CLINICAL_VISIT_DELETE, IMMUNIZATION_VIEW, PERSON_VIEW, PATHOGEN_TEST_DELETE, CLINICAL_COURSE_VIEW, DOCUMENT_DELETE, VISIT_DELETE, SAMPLE_VIEW, IMMUNIZATION_DELETE</t>
   </si>
   <si>
     <t>Import cases into SORMAS</t>
@@ -817,7 +817,7 @@
     <t>Able to edit case investigation status</t>
   </si>
   <si>
-    <t>PERSON_EDIT, PERSON_VIEW, CASE_VIEW, CASE_EDIT</t>
+    <t>CASE_EDIT, PERSON_VIEW, PERSON_EDIT, CASE_VIEW</t>
   </si>
   <si>
     <t>Edit case classification and outcome</t>
@@ -880,7 +880,7 @@
     <t>Able to create new immunizations and vaccinations</t>
   </si>
   <si>
-    <t>PERSON_VIEW, IMMUNIZATION_VIEW</t>
+    <t>IMMUNIZATION_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing immunizations and vaccinations</t>
@@ -889,7 +889,7 @@
     <t>Able to edit existing immunizations and vaccinations</t>
   </si>
   <si>
-    <t>PERSON_EDIT, PERSON_VIEW, IMMUNIZATION_VIEW</t>
+    <t>IMMUNIZATION_VIEW, PERSON_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Archive immunizations</t>
@@ -904,7 +904,7 @@
     <t>Able to delete immunizations and vaccinations from the system</t>
   </si>
   <si>
-    <t>PERSON_DELETE, PERSON_VIEW, IMMUNIZATION_VIEW, VISIT_DELETE</t>
+    <t>IMMUNIZATION_VIEW, PERSON_VIEW, VISIT_DELETE, PERSON_DELETE</t>
   </si>
   <si>
     <t>Persons</t>
@@ -946,7 +946,7 @@
     <t>Able to delete person contact details</t>
   </si>
   <si>
-    <t>PERSON_EDIT, PERSON_VIEW</t>
+    <t>PERSON_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Sample Testing</t>
@@ -976,7 +976,7 @@
     <t>Able to delete samples from the system</t>
   </si>
   <si>
-    <t>PATHOGEN_TEST_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE</t>
+    <t>ADDITIONAL_TEST_VIEW, PATHOGEN_TEST_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE</t>
   </si>
   <si>
     <t>Export samples from SORMAS</t>
@@ -991,7 +991,7 @@
     <t>Able to transfer samples to another lab</t>
   </si>
   <si>
-    <t>SAMPLE_VIEW, SAMPLE_EDIT</t>
+    <t>SAMPLE_EDIT, SAMPLE_VIEW</t>
   </si>
   <si>
     <t>Edit samples reported by other users</t>
@@ -1036,7 +1036,7 @@
     <t>Able to create new additional tests</t>
   </si>
   <si>
-    <t>SAMPLE_VIEW, ADDITIONAL_TEST_VIEW</t>
+    <t>ADDITIONAL_TEST_VIEW, SAMPLE_VIEW</t>
   </si>
   <si>
     <t>Edit existing additional tests</t>
@@ -1066,7 +1066,7 @@
     <t>Able to create new contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW, CONTACT_VIEW</t>
+    <t>PERSON_VIEW, CONTACT_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Edit existing contacts</t>
@@ -1075,7 +1075,7 @@
     <t>Able to edit existing contacts</t>
   </si>
   <si>
-    <t>PERSON_EDIT, PERSON_VIEW, CASE_VIEW, CONTACT_VIEW</t>
+    <t>PERSON_VIEW, PERSON_EDIT, CONTACT_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Archive contacts</t>
@@ -1090,7 +1090,7 @@
     <t>Able to delete contacts from the system</t>
   </si>
   <si>
-    <t>SAMPLE_DELETE, PATHOGEN_TEST_DELETE, DOCUMENT_VIEW, ADDITIONAL_TEST_DELETE, VISIT_DELETE, TASK_VIEW, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, TASK_DELETE, PERSON_DELETE, DOCUMENT_DELETE, PERSON_VIEW, CASE_VIEW, CONTACT_VIEW</t>
+    <t>ADDITIONAL_TEST_VIEW, DOCUMENT_VIEW, TASK_VIEW, SAMPLE_DELETE, PERSON_DELETE, ADDITIONAL_TEST_DELETE, CASE_VIEW, TASK_DELETE, PERSON_VIEW, PATHOGEN_TEST_DELETE, DOCUMENT_DELETE, VISIT_DELETE, SAMPLE_VIEW, CONTACT_VIEW</t>
   </si>
   <si>
     <t>Import contacts</t>
@@ -1111,7 +1111,7 @@
     <t>Able to create resulting cases from contacts</t>
   </si>
   <si>
-    <t>PERSON_EDIT, CASE_CREATE, PERSON_VIEW, CASE_VIEW, CONTACT_EDIT, CONTACT_VIEW</t>
+    <t>CASE_CREATE, PERSON_VIEW, PERSON_EDIT, CONTACT_EDIT, CASE_VIEW, CONTACT_VIEW</t>
   </si>
   <si>
     <t>Reassign the source case of contacts</t>
@@ -1120,7 +1120,7 @@
     <t>Able to reassign the source case of contacts</t>
   </si>
   <si>
-    <t>PERSON_EDIT, PERSON_VIEW, CASE_VIEW, CONTACT_EDIT, CONTACT_VIEW</t>
+    <t>PERSON_VIEW, PERSON_EDIT, CONTACT_EDIT, CONTACT_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Merge contacts</t>
@@ -1216,7 +1216,7 @@
     <t>Able to delete actions from the system</t>
   </si>
   <si>
-    <t>DOCUMENT_VIEW, DOCUMENT_DELETE, EVENT_VIEW</t>
+    <t>DOCUMENT_VIEW, EVENT_VIEW, DOCUMENT_DELETE</t>
   </si>
   <si>
     <t>Edit existing actions</t>
@@ -1255,7 +1255,7 @@
     <t>Able to delete events from the system</t>
   </si>
   <si>
-    <t>ACTION_DELETE, DOCUMENT_VIEW, SAMPLE_DELETE, PATHOGEN_TEST_DELETE, EVENT_VIEW, ADDITIONAL_TEST_DELETE, EVENTPARTICIPANT_DELETE, TASK_VIEW, VISIT_DELETE, EVENTPARTICIPANT_VIEW, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, TASK_DELETE, PERSON_DELETE, DOCUMENT_DELETE, PERSON_VIEW</t>
+    <t>ADDITIONAL_TEST_VIEW, DOCUMENT_VIEW, EVENTPARTICIPANT_VIEW, EVENT_VIEW, TASK_VIEW, EVENTPARTICIPANT_DELETE, ACTION_DELETE, SAMPLE_DELETE, PERSON_DELETE, ADDITIONAL_TEST_DELETE, TASK_DELETE, PERSON_VIEW, PATHOGEN_TEST_DELETE, DOCUMENT_DELETE, SAMPLE_VIEW, VISIT_DELETE</t>
   </si>
   <si>
     <t>Import events</t>
@@ -1276,7 +1276,7 @@
     <t>Able to perform bulk operations in the event directory</t>
   </si>
   <si>
-    <t>EVENT_EDIT, EVENT_VIEW</t>
+    <t>EVENT_VIEW, EVENT_EDIT</t>
   </si>
   <si>
     <t>Can be responsible for an event</t>
@@ -1288,7 +1288,7 @@
     <t>Able to view existing event participants</t>
   </si>
   <si>
-    <t>EVENT_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, EVENT_VIEW</t>
   </si>
   <si>
     <t>Create new event participants</t>
@@ -1297,7 +1297,7 @@
     <t>Able to create new event participants</t>
   </si>
   <si>
-    <t>EVENTPARTICIPANT_VIEW, EVENT_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, EVENTPARTICIPANT_VIEW, EVENT_VIEW</t>
   </si>
   <si>
     <t>Edit existing event participants</t>
@@ -1306,7 +1306,7 @@
     <t>Able to edit existing event participants</t>
   </si>
   <si>
-    <t>EVENTPARTICIPANT_VIEW, PERSON_EDIT, EVENT_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, EVENTPARTICIPANT_VIEW, EVENT_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Event participant archive</t>
@@ -1321,7 +1321,7 @@
     <t>Able to delete event participants from the system</t>
   </si>
   <si>
-    <t>SAMPLE_DELETE, PATHOGEN_TEST_DELETE, EVENTPARTICIPANT_VIEW, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, PERSON_DELETE, EVENT_VIEW, PERSON_VIEW, ADDITIONAL_TEST_DELETE, VISIT_DELETE</t>
+    <t>PERSON_VIEW, ADDITIONAL_TEST_VIEW, PATHOGEN_TEST_DELETE, EVENTPARTICIPANT_VIEW, EVENT_VIEW, SAMPLE_VIEW, VISIT_DELETE, SAMPLE_DELETE, PERSON_DELETE, ADDITIONAL_TEST_DELETE</t>
   </si>
   <si>
     <t>Import event participants</t>
@@ -1336,7 +1336,7 @@
     <t>Able to perform bulk operations in the event participants directory</t>
   </si>
   <si>
-    <t>EVENTPARTICIPANT_VIEW, PERSON_EDIT, EVENT_VIEW, EVENTPARTICIPANT_EDIT, PERSON_VIEW</t>
+    <t>PERSON_VIEW, EVENTPARTICIPANT_VIEW, EVENT_VIEW, PERSON_EDIT, EVENTPARTICIPANT_EDIT</t>
   </si>
   <si>
     <t>Create new event groups</t>
@@ -1480,7 +1480,7 @@
     <t>Able to view contact transmission chains on the dashboard</t>
   </si>
   <si>
-    <t>DASHBOARD_CONTACT_VIEW, PERSON_VIEW, CASE_VIEW, CONTACT_VIEW</t>
+    <t>PERSON_VIEW, DASHBOARD_CONTACT_VIEW, CONTACT_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Access campaigns dashboard</t>
@@ -1510,7 +1510,7 @@
     <t>Able to create new prescriptions</t>
   </si>
   <si>
-    <t>THERAPY_VIEW, PERSON_VIEW, CASE_VIEW</t>
+    <t>PERSON_VIEW, THERAPY_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Edit existing prescriptions</t>
@@ -1555,7 +1555,7 @@
     <t>Able to edit the clinical course of cases</t>
   </si>
   <si>
-    <t>THERAPY_VIEW, PERSON_VIEW, CLINICAL_COURSE_VIEW, CASE_VIEW</t>
+    <t>PERSON_VIEW, CLINICAL_COURSE_VIEW, THERAPY_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Create new clinical visits</t>
@@ -1591,7 +1591,7 @@
     <t>Able to edit existing port health info</t>
   </si>
   <si>
-    <t>PORT_HEALTH_INFO_VIEW, PERSON_VIEW, CASE_VIEW</t>
+    <t>PERSON_VIEW, PORT_HEALTH_INFO_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Aggregated Reporting</t>
@@ -1729,7 +1729,7 @@
     <t>Able to view existing travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW</t>
+    <t>PERSON_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
   </si>
   <si>
     <t>Create new travel entries</t>
@@ -1738,7 +1738,7 @@
     <t>Able to create new travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW, TRAVEL_ENTRY_VIEW</t>
+    <t>PERSON_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW</t>
   </si>
   <si>
     <t>Edit existing travel entries</t>
@@ -1747,7 +1747,7 @@
     <t>Able to edit existing travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_EDIT, PERSON_VIEW, TRAVEL_ENTRY_VIEW</t>
+    <t>PERSON_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Archive travel entries</t>
@@ -1762,7 +1762,7 @@
     <t>Able to delete travel entries from the system</t>
   </si>
   <si>
-    <t>DOCUMENT_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, TASK_DELETE, PERSON_DELETE, DOCUMENT_DELETE, PERSON_VIEW, TRAVEL_ENTRY_VIEW, TASK_VIEW, VISIT_DELETE</t>
+    <t>TASK_DELETE, PERSON_VIEW, DOCUMENT_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, DOCUMENT_DELETE, TASK_VIEW, TRAVEL_ENTRY_VIEW, VISIT_DELETE, PERSON_DELETE</t>
   </si>
   <si>
     <t>Documents</t>
@@ -1888,7 +1888,7 @@
     <t>Able to work with messages</t>
   </si>
   <si>
-    <t>PATHOGEN_TEST_DELETE, EXTERNAL_MESSAGE_VIEW, PATHOGEN_TEST_CREATE, EVENTPARTICIPANT_CREATE, SAMPLE_EDIT, VISIT_DELETE, EVENTPARTICIPANT_VIEW, SAMPLE_VIEW, PERSON_VIEW, CONTACT_EDIT, IMMUNIZATION_EDIT, IMMUNIZATION_VIEW, CONTACT_VIEW, IMMUNIZATION_CREATE, EVENT_CREATE, EVENT_VIEW, EVENTPARTICIPANT_EDIT, CASE_CREATE, CONTACT_CREATE, SAMPLE_CREATE, CASE_EDIT, PERSON_DELETE, PERSON_EDIT, EVENT_EDIT, PATHOGEN_TEST_EDIT, CASE_VIEW, IMMUNIZATION_DELETE</t>
+    <t>CASE_EDIT, EVENTPARTICIPANT_CREATE, EVENTPARTICIPANT_VIEW, EVENT_CREATE, EVENTPARTICIPANT_EDIT, PERSON_DELETE, EXTERNAL_MESSAGE_VIEW, PATHOGEN_TEST_CREATE, IMMUNIZATION_VIEW, IMMUNIZATION_EDIT, PERSON_VIEW, SAMPLE_EDIT, VISIT_DELETE, EVENT_EDIT, SAMPLE_CREATE, CONTACT_VIEW, CASE_CREATE, EVENT_VIEW, CONTACT_EDIT, PATHOGEN_TEST_EDIT, CASE_VIEW, PATHOGEN_TEST_DELETE, CONTACT_CREATE, PERSON_EDIT, SAMPLE_VIEW, IMMUNIZATION_CREATE, IMMUNIZATION_DELETE</t>
   </si>
   <si>
     <t>Delete messages from the system</t>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
@@ -755,7 +755,7 @@
     <t>Able to create new cases</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing cases</t>
@@ -764,7 +764,7 @@
     <t>Able to edit existing cases</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW, PERSON_EDIT</t>
+    <t>CASE_VIEW, PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Archive cases</t>
@@ -779,7 +779,7 @@
     <t>Able to delete cases from the system</t>
   </si>
   <si>
-    <t>SAMPLE_DELETE, THERAPY_VIEW, CASE_VIEW, PRESCRIPTION_DELETE, CLINICAL_VISIT_DELETE, PATHOGEN_TEST_DELETE, TASK_DELETE, DOCUMENT_VIEW, SAMPLE_VIEW, DOCUMENT_DELETE, TREATMENT_DELETE, PERSON_DELETE, PERSON_VIEW, CLINICAL_COURSE_VIEW, TASK_VIEW, IMMUNIZATION_DELETE, ADDITIONAL_TEST_DELETE, VISIT_DELETE, ADDITIONAL_TEST_VIEW, IMMUNIZATION_VIEW</t>
+    <t>CLINICAL_COURSE_VIEW, TREATMENT_DELETE, TASK_VIEW, CASE_VIEW, CLINICAL_VISIT_DELETE, PATHOGEN_TEST_DELETE, DOCUMENT_VIEW, TASK_DELETE, PRESCRIPTION_DELETE, SAMPLE_DELETE, IMMUNIZATION_DELETE, DOCUMENT_DELETE, THERAPY_VIEW, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE, PERSON_VIEW, ADDITIONAL_TEST_VIEW, IMMUNIZATION_VIEW, PERSON_DELETE, VISIT_DELETE</t>
   </si>
   <si>
     <t>Import cases into SORMAS</t>
@@ -800,7 +800,7 @@
     <t>Able to edit case investigation status</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW, CASE_EDIT, PERSON_EDIT</t>
+    <t>CASE_VIEW, CASE_EDIT, PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit case classification and outcome</t>
@@ -872,7 +872,7 @@
     <t>Able to edit existing immunizations and vaccinations</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT, IMMUNIZATION_VIEW</t>
+    <t>PERSON_EDIT, PERSON_VIEW, IMMUNIZATION_VIEW</t>
   </si>
   <si>
     <t>Archive immunizations</t>
@@ -887,7 +887,7 @@
     <t>Able to delete immunizations and vaccinations from the system</t>
   </si>
   <si>
-    <t>PERSON_VIEW, VISIT_DELETE, IMMUNIZATION_VIEW, PERSON_DELETE</t>
+    <t>PERSON_VIEW, IMMUNIZATION_VIEW, PERSON_DELETE, VISIT_DELETE</t>
   </si>
   <si>
     <t>Persons</t>
@@ -926,7 +926,7 @@
     <t>Able to delete person contact details</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT</t>
+    <t>PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Merge persons</t>
@@ -962,7 +962,7 @@
     <t>Able to delete samples from the system</t>
   </si>
   <si>
-    <t>PATHOGEN_TEST_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE, ADDITIONAL_TEST_VIEW</t>
+    <t>SAMPLE_VIEW, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_DELETE, ADDITIONAL_TEST_VIEW</t>
   </si>
   <si>
     <t>Export samples from SORMAS</t>
@@ -1052,7 +1052,7 @@
     <t>Able to create new contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CONTACT_VIEW, CASE_VIEW</t>
+    <t>CONTACT_VIEW, CASE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing contacts</t>
@@ -1061,7 +1061,7 @@
     <t>Able to edit existing contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CONTACT_VIEW, CASE_VIEW, PERSON_EDIT</t>
+    <t>CONTACT_VIEW, CASE_VIEW, PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Archive contacts</t>
@@ -1076,7 +1076,7 @@
     <t>Able to delete contacts from the system</t>
   </si>
   <si>
-    <t>SAMPLE_DELETE, CONTACT_VIEW, PATHOGEN_TEST_DELETE, CASE_VIEW, TASK_DELETE, DOCUMENT_VIEW, SAMPLE_VIEW, DOCUMENT_DELETE, PERSON_DELETE, PERSON_VIEW, TASK_VIEW, ADDITIONAL_TEST_DELETE, VISIT_DELETE, ADDITIONAL_TEST_VIEW</t>
+    <t>TASK_VIEW, CASE_VIEW, PATHOGEN_TEST_DELETE, DOCUMENT_VIEW, TASK_DELETE, SAMPLE_DELETE, DOCUMENT_DELETE, SAMPLE_VIEW, CONTACT_VIEW, ADDITIONAL_TEST_DELETE, PERSON_VIEW, ADDITIONAL_TEST_VIEW, PERSON_DELETE, VISIT_DELETE</t>
   </si>
   <si>
     <t>Import contacts</t>
@@ -1097,7 +1097,7 @@
     <t>Able to create resulting cases from contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CONTACT_VIEW, CONTACT_EDIT, CASE_VIEW, PERSON_EDIT, CASE_CREATE</t>
+    <t>CASE_CREATE, CASE_VIEW, CONTACT_VIEW, CONTACT_EDIT, PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Reassign the source case of contacts</t>
@@ -1106,7 +1106,7 @@
     <t>Able to reassign the source case of contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CONTACT_VIEW, CONTACT_EDIT, CASE_VIEW, PERSON_EDIT</t>
+    <t>CONTACT_VIEW, CASE_VIEW, CONTACT_EDIT, PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Merge contacts</t>
@@ -1202,7 +1202,7 @@
     <t>Able to delete actions from the system</t>
   </si>
   <si>
-    <t>EVENT_VIEW, DOCUMENT_VIEW, DOCUMENT_DELETE</t>
+    <t>DOCUMENT_VIEW, EVENT_VIEW, DOCUMENT_DELETE</t>
   </si>
   <si>
     <t>Edit existing actions</t>
@@ -1241,7 +1241,7 @@
     <t>Able to delete events from the system</t>
   </si>
   <si>
-    <t>SAMPLE_DELETE, EVENT_VIEW, PATHOGEN_TEST_DELETE, TASK_DELETE, ACTION_DELETE, DOCUMENT_VIEW, SAMPLE_VIEW, DOCUMENT_DELETE, PERSON_DELETE, PERSON_VIEW, TASK_VIEW, EVENTPARTICIPANT_DELETE, ADDITIONAL_TEST_DELETE, VISIT_DELETE, ADDITIONAL_TEST_VIEW, EVENTPARTICIPANT_VIEW</t>
+    <t>TASK_VIEW, DOCUMENT_VIEW, PATHOGEN_TEST_DELETE, TASK_DELETE, EVENT_VIEW, EVENTPARTICIPANT_DELETE, SAMPLE_DELETE, DOCUMENT_DELETE, SAMPLE_VIEW, ACTION_DELETE, ADDITIONAL_TEST_DELETE, EVENTPARTICIPANT_VIEW, PERSON_VIEW, ADDITIONAL_TEST_VIEW, PERSON_DELETE, VISIT_DELETE</t>
   </si>
   <si>
     <t>Import events</t>
@@ -1262,7 +1262,7 @@
     <t>Able to perform bulk operations in the event directory</t>
   </si>
   <si>
-    <t>EVENT_VIEW, EVENT_EDIT</t>
+    <t>EVENT_EDIT, EVENT_VIEW</t>
   </si>
   <si>
     <t>Can be responsible for an event</t>
@@ -1274,7 +1274,7 @@
     <t>Able to view existing event participants</t>
   </si>
   <si>
-    <t>PERSON_VIEW, EVENT_VIEW</t>
+    <t>EVENT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Create new event participants</t>
@@ -1283,7 +1283,7 @@
     <t>Able to create new event participants</t>
   </si>
   <si>
-    <t>PERSON_VIEW, EVENT_VIEW, EVENTPARTICIPANT_VIEW</t>
+    <t>EVENT_VIEW, EVENTPARTICIPANT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing event participants</t>
@@ -1292,7 +1292,7 @@
     <t>Able to edit existing event participants</t>
   </si>
   <si>
-    <t>PERSON_VIEW, EVENT_VIEW, PERSON_EDIT, EVENTPARTICIPANT_VIEW</t>
+    <t>EVENT_VIEW, PERSON_EDIT, EVENTPARTICIPANT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Event participant archive</t>
@@ -1307,7 +1307,7 @@
     <t>Able to delete event participants from the system</t>
   </si>
   <si>
-    <t>SAMPLE_DELETE, PERSON_VIEW, EVENT_VIEW, PATHOGEN_TEST_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE, VISIT_DELETE, PERSON_DELETE, ADDITIONAL_TEST_VIEW, EVENTPARTICIPANT_VIEW</t>
+    <t>SAMPLE_VIEW, PATHOGEN_TEST_DELETE, EVENT_VIEW, ADDITIONAL_TEST_DELETE, EVENTPARTICIPANT_VIEW, SAMPLE_DELETE, PERSON_VIEW, ADDITIONAL_TEST_VIEW, PERSON_DELETE, VISIT_DELETE</t>
   </si>
   <si>
     <t>Import event participants</t>
@@ -1322,7 +1322,7 @@
     <t>Able to perform bulk operations in the event participants directory</t>
   </si>
   <si>
-    <t>PERSON_VIEW, EVENT_VIEW, EVENTPARTICIPANT_EDIT, PERSON_EDIT, EVENTPARTICIPANT_VIEW</t>
+    <t>EVENTPARTICIPANT_EDIT, EVENT_VIEW, PERSON_EDIT, EVENTPARTICIPANT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Create new event groups</t>
@@ -1466,7 +1466,7 @@
     <t>Able to view contact transmission chains on the dashboard</t>
   </si>
   <si>
-    <t>PERSON_VIEW, DASHBOARD_CONTACT_VIEW, CONTACT_VIEW, CASE_VIEW</t>
+    <t>DASHBOARD_CONTACT_VIEW, CONTACT_VIEW, CASE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Access campaigns dashboard</t>
@@ -1496,7 +1496,7 @@
     <t>Able to create new prescriptions</t>
   </si>
   <si>
-    <t>PERSON_VIEW, THERAPY_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, PERSON_VIEW, THERAPY_VIEW</t>
   </si>
   <si>
     <t>Edit existing prescriptions</t>
@@ -1541,7 +1541,7 @@
     <t>Able to edit the clinical course of cases</t>
   </si>
   <si>
-    <t>CLINICAL_COURSE_VIEW, PERSON_VIEW, THERAPY_VIEW, CASE_VIEW</t>
+    <t>CLINICAL_COURSE_VIEW, CASE_VIEW, PERSON_VIEW, THERAPY_VIEW</t>
   </si>
   <si>
     <t>Create new clinical visits</t>
@@ -1577,7 +1577,7 @@
     <t>Able to edit existing port health info</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PORT_HEALTH_INFO_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, PORT_HEALTH_INFO_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Aggregated Reporting</t>
@@ -1667,7 +1667,7 @@
     <t>Able to delete campaigns from the system</t>
   </si>
   <si>
-    <t>CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_DELETE, CAMPAIGN_FORM_DATA_VIEW</t>
+    <t>CAMPAIGN_FORM_DATA_DELETE, CAMPAIGN_FORM_DATA_VIEW, CAMPAIGN_VIEW</t>
   </si>
   <si>
     <t>View existing campaign form data</t>
@@ -1715,7 +1715,7 @@
     <t>Able to view existing travel entries</t>
   </si>
   <si>
-    <t>PERSON_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
+    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW</t>
   </si>
   <si>
     <t>Create new travel entries</t>
@@ -1724,7 +1724,7 @@
     <t>Able to create new travel entries</t>
   </si>
   <si>
-    <t>PERSON_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW</t>
+    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW, TRAVEL_ENTRY_VIEW</t>
   </si>
   <si>
     <t>Edit existing travel entries</t>
@@ -1733,7 +1733,7 @@
     <t>Able to edit existing travel entries</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT, TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW</t>
+    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_EDIT, PERSON_VIEW, TRAVEL_ENTRY_VIEW</t>
   </si>
   <si>
     <t>Archive travel entries</t>
@@ -1748,7 +1748,7 @@
     <t>Able to delete travel entries from the system</t>
   </si>
   <si>
-    <t>PERSON_VIEW, TASK_VIEW, TASK_DELETE, DOCUMENT_VIEW, DOCUMENT_DELETE, TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW, VISIT_DELETE, PERSON_DELETE</t>
+    <t>TASK_VIEW, DOCUMENT_VIEW, TASK_DELETE, TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW, TRAVEL_ENTRY_VIEW, PERSON_DELETE, DOCUMENT_DELETE, VISIT_DELETE</t>
   </si>
   <si>
     <t>Documents</t>
@@ -1874,7 +1874,7 @@
     <t>Able to work with messages</t>
   </si>
   <si>
-    <t>EVENTPARTICIPANT_EDIT, PATHOGEN_TEST_CREATE, CONTACT_EDIT, CASE_VIEW, CASE_EDIT, PATHOGEN_TEST_EDIT, EVENT_CREATE, EXTERNAL_MESSAGE_VIEW, IMMUNIZATION_DELETE, IMMUNIZATION_CREATE, VISIT_DELETE, IMMUNIZATION_VIEW, SAMPLE_EDIT, EVENTPARTICIPANT_VIEW, CONTACT_CREATE, EVENT_VIEW, IMMUNIZATION_EDIT, CONTACT_VIEW, PATHOGEN_TEST_DELETE, SAMPLE_VIEW, EVENTPARTICIPANT_CREATE, PERSON_EDIT, CASE_CREATE, PERSON_DELETE, PERSON_VIEW, EVENT_EDIT, SAMPLE_CREATE</t>
+    <t>CASE_CREATE, EVENT_CREATE, EVENTPARTICIPANT_EDIT, EVENT_VIEW, SAMPLE_VIEW, EVENTPARTICIPANT_CREATE, CONTACT_EDIT, PERSON_EDIT, PERSON_DELETE, CASE_VIEW, PATHOGEN_TEST_DELETE, EXTERNAL_MESSAGE_VIEW, IMMUNIZATION_EDIT, IMMUNIZATION_DELETE, CONTACT_CREATE, PATHOGEN_TEST_CREATE, CONTACT_VIEW, EVENT_EDIT, CASE_EDIT, SAMPLE_CREATE, IMMUNIZATION_CREATE, SAMPLE_EDIT, EVENTPARTICIPANT_VIEW, PERSON_VIEW, IMMUNIZATION_VIEW, PATHOGEN_TEST_EDIT, VISIT_DELETE</t>
   </si>
   <si>
     <t>Delete messages from the system</t>
@@ -2042,7 +2042,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.77.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
@@ -755,7 +755,7 @@
     <t>Able to create new cases</t>
   </si>
   <si>
-    <t>CASE_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Edit existing cases</t>
@@ -764,7 +764,7 @@
     <t>Able to edit existing cases</t>
   </si>
   <si>
-    <t>CASE_VIEW, PERSON_EDIT, PERSON_VIEW</t>
+    <t>PERSON_VIEW, PERSON_EDIT, CASE_VIEW</t>
   </si>
   <si>
     <t>Archive cases</t>
@@ -779,7 +779,7 @@
     <t>Able to delete cases from the system</t>
   </si>
   <si>
-    <t>CLINICAL_COURSE_VIEW, TREATMENT_DELETE, TASK_VIEW, CASE_VIEW, CLINICAL_VISIT_DELETE, PATHOGEN_TEST_DELETE, DOCUMENT_VIEW, TASK_DELETE, PRESCRIPTION_DELETE, SAMPLE_DELETE, IMMUNIZATION_DELETE, DOCUMENT_DELETE, THERAPY_VIEW, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE, PERSON_VIEW, ADDITIONAL_TEST_VIEW, IMMUNIZATION_VIEW, PERSON_DELETE, VISIT_DELETE</t>
+    <t>TASK_DELETE, PERSON_DELETE, ADDITIONAL_TEST_DELETE, SAMPLE_DELETE, IMMUNIZATION_VIEW, CLINICAL_VISIT_DELETE, IMMUNIZATION_DELETE, DOCUMENT_DELETE, PERSON_VIEW, THERAPY_VIEW, TREATMENT_DELETE, PRESCRIPTION_DELETE, SAMPLE_VIEW, PATHOGEN_TEST_DELETE, CASE_VIEW, ADDITIONAL_TEST_VIEW, VISIT_DELETE, CLINICAL_COURSE_VIEW, DOCUMENT_VIEW, TASK_VIEW</t>
   </si>
   <si>
     <t>Import cases into SORMAS</t>
@@ -800,7 +800,7 @@
     <t>Able to edit case investigation status</t>
   </si>
   <si>
-    <t>CASE_VIEW, CASE_EDIT, PERSON_EDIT, PERSON_VIEW</t>
+    <t>PERSON_VIEW, PERSON_EDIT, CASE_EDIT, CASE_VIEW</t>
   </si>
   <si>
     <t>Edit case classification and outcome</t>
@@ -863,7 +863,7 @@
     <t>Able to create new immunizations and vaccinations</t>
   </si>
   <si>
-    <t>PERSON_VIEW, IMMUNIZATION_VIEW</t>
+    <t>IMMUNIZATION_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing immunizations and vaccinations</t>
@@ -872,7 +872,7 @@
     <t>Able to edit existing immunizations and vaccinations</t>
   </si>
   <si>
-    <t>PERSON_EDIT, PERSON_VIEW, IMMUNIZATION_VIEW</t>
+    <t>IMMUNIZATION_VIEW, PERSON_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Archive immunizations</t>
@@ -887,7 +887,7 @@
     <t>Able to delete immunizations and vaccinations from the system</t>
   </si>
   <si>
-    <t>PERSON_VIEW, IMMUNIZATION_VIEW, PERSON_DELETE, VISIT_DELETE</t>
+    <t>PERSON_DELETE, IMMUNIZATION_VIEW, VISIT_DELETE, PERSON_VIEW</t>
   </si>
   <si>
     <t>Persons</t>
@@ -911,7 +911,7 @@
     <t>Able to delete persons from the system</t>
   </si>
   <si>
-    <t>PERSON_VIEW, VISIT_DELETE</t>
+    <t>VISIT_DELETE, PERSON_VIEW</t>
   </si>
   <si>
     <t>Export persons</t>
@@ -926,7 +926,7 @@
     <t>Able to delete person contact details</t>
   </si>
   <si>
-    <t>PERSON_EDIT, PERSON_VIEW</t>
+    <t>PERSON_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Merge persons</t>
@@ -962,7 +962,7 @@
     <t>Able to delete samples from the system</t>
   </si>
   <si>
-    <t>SAMPLE_VIEW, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_DELETE, ADDITIONAL_TEST_VIEW</t>
+    <t>ADDITIONAL_TEST_DELETE, SAMPLE_VIEW, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_VIEW</t>
   </si>
   <si>
     <t>Export samples from SORMAS</t>
@@ -977,7 +977,7 @@
     <t>Able to transfer samples to another lab</t>
   </si>
   <si>
-    <t>SAMPLE_VIEW, SAMPLE_EDIT</t>
+    <t>SAMPLE_EDIT, SAMPLE_VIEW</t>
   </si>
   <si>
     <t>Edit samples reported by other users</t>
@@ -1052,7 +1052,7 @@
     <t>Able to create new contacts</t>
   </si>
   <si>
-    <t>CONTACT_VIEW, CASE_VIEW, PERSON_VIEW</t>
+    <t>CONTACT_VIEW, PERSON_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Edit existing contacts</t>
@@ -1061,7 +1061,7 @@
     <t>Able to edit existing contacts</t>
   </si>
   <si>
-    <t>CONTACT_VIEW, CASE_VIEW, PERSON_EDIT, PERSON_VIEW</t>
+    <t>CONTACT_VIEW, PERSON_VIEW, PERSON_EDIT, CASE_VIEW</t>
   </si>
   <si>
     <t>Archive contacts</t>
@@ -1076,7 +1076,7 @@
     <t>Able to delete contacts from the system</t>
   </si>
   <si>
-    <t>TASK_VIEW, CASE_VIEW, PATHOGEN_TEST_DELETE, DOCUMENT_VIEW, TASK_DELETE, SAMPLE_DELETE, DOCUMENT_DELETE, SAMPLE_VIEW, CONTACT_VIEW, ADDITIONAL_TEST_DELETE, PERSON_VIEW, ADDITIONAL_TEST_VIEW, PERSON_DELETE, VISIT_DELETE</t>
+    <t>TASK_DELETE, PERSON_DELETE, ADDITIONAL_TEST_DELETE, SAMPLE_DELETE, DOCUMENT_DELETE, PERSON_VIEW, SAMPLE_VIEW, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_VIEW, CASE_VIEW, CONTACT_VIEW, VISIT_DELETE, DOCUMENT_VIEW, TASK_VIEW</t>
   </si>
   <si>
     <t>Import contacts</t>
@@ -1097,7 +1097,7 @@
     <t>Able to create resulting cases from contacts</t>
   </si>
   <si>
-    <t>CASE_CREATE, CASE_VIEW, CONTACT_VIEW, CONTACT_EDIT, PERSON_EDIT, PERSON_VIEW</t>
+    <t>CONTACT_VIEW, CONTACT_EDIT, PERSON_VIEW, CASE_CREATE, PERSON_EDIT, CASE_VIEW</t>
   </si>
   <si>
     <t>Reassign the source case of contacts</t>
@@ -1106,7 +1106,7 @@
     <t>Able to reassign the source case of contacts</t>
   </si>
   <si>
-    <t>CONTACT_VIEW, CASE_VIEW, CONTACT_EDIT, PERSON_EDIT, PERSON_VIEW</t>
+    <t>CONTACT_VIEW, CONTACT_EDIT, PERSON_VIEW, PERSON_EDIT, CASE_VIEW</t>
   </si>
   <si>
     <t>Merge contacts</t>
@@ -1184,7 +1184,7 @@
     <t>Able to assign tasks to users</t>
   </si>
   <si>
-    <t>TASK_VIEW, TASK_EDIT</t>
+    <t>TASK_EDIT, TASK_VIEW</t>
   </si>
   <si>
     <t>Events</t>
@@ -1202,7 +1202,7 @@
     <t>Able to delete actions from the system</t>
   </si>
   <si>
-    <t>DOCUMENT_VIEW, EVENT_VIEW, DOCUMENT_DELETE</t>
+    <t>DOCUMENT_DELETE, DOCUMENT_VIEW, EVENT_VIEW</t>
   </si>
   <si>
     <t>Edit existing actions</t>
@@ -1241,7 +1241,7 @@
     <t>Able to delete events from the system</t>
   </si>
   <si>
-    <t>TASK_VIEW, DOCUMENT_VIEW, PATHOGEN_TEST_DELETE, TASK_DELETE, EVENT_VIEW, EVENTPARTICIPANT_DELETE, SAMPLE_DELETE, DOCUMENT_DELETE, SAMPLE_VIEW, ACTION_DELETE, ADDITIONAL_TEST_DELETE, EVENTPARTICIPANT_VIEW, PERSON_VIEW, ADDITIONAL_TEST_VIEW, PERSON_DELETE, VISIT_DELETE</t>
+    <t>TASK_DELETE, PERSON_DELETE, ADDITIONAL_TEST_DELETE, SAMPLE_DELETE, DOCUMENT_DELETE, EVENTPARTICIPANT_DELETE, PERSON_VIEW, ACTION_DELETE, SAMPLE_VIEW, PATHOGEN_TEST_DELETE, EVENT_VIEW, ADDITIONAL_TEST_VIEW, VISIT_DELETE, DOCUMENT_VIEW, TASK_VIEW, EVENTPARTICIPANT_VIEW</t>
   </si>
   <si>
     <t>Import events</t>
@@ -1274,7 +1274,7 @@
     <t>Able to view existing event participants</t>
   </si>
   <si>
-    <t>EVENT_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, EVENT_VIEW</t>
   </si>
   <si>
     <t>Create new event participants</t>
@@ -1283,7 +1283,7 @@
     <t>Able to create new event participants</t>
   </si>
   <si>
-    <t>EVENT_VIEW, EVENTPARTICIPANT_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, EVENTPARTICIPANT_VIEW, EVENT_VIEW</t>
   </si>
   <si>
     <t>Edit existing event participants</t>
@@ -1292,7 +1292,7 @@
     <t>Able to edit existing event participants</t>
   </si>
   <si>
-    <t>EVENT_VIEW, PERSON_EDIT, EVENTPARTICIPANT_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, PERSON_EDIT, EVENTPARTICIPANT_VIEW, EVENT_VIEW</t>
   </si>
   <si>
     <t>Event participant archive</t>
@@ -1307,7 +1307,7 @@
     <t>Able to delete event participants from the system</t>
   </si>
   <si>
-    <t>SAMPLE_VIEW, PATHOGEN_TEST_DELETE, EVENT_VIEW, ADDITIONAL_TEST_DELETE, EVENTPARTICIPANT_VIEW, SAMPLE_DELETE, PERSON_VIEW, ADDITIONAL_TEST_VIEW, PERSON_DELETE, VISIT_DELETE</t>
+    <t>PERSON_DELETE, ADDITIONAL_TEST_DELETE, SAMPLE_DELETE, VISIT_DELETE, PERSON_VIEW, EVENTPARTICIPANT_VIEW, SAMPLE_VIEW, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_VIEW, EVENT_VIEW</t>
   </si>
   <si>
     <t>Import event participants</t>
@@ -1322,7 +1322,7 @@
     <t>Able to perform bulk operations in the event participants directory</t>
   </si>
   <si>
-    <t>EVENTPARTICIPANT_EDIT, EVENT_VIEW, PERSON_EDIT, EVENTPARTICIPANT_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, PERSON_EDIT, EVENTPARTICIPANT_EDIT, EVENTPARTICIPANT_VIEW, EVENT_VIEW</t>
   </si>
   <si>
     <t>Create new event groups</t>
@@ -1466,7 +1466,7 @@
     <t>Able to view contact transmission chains on the dashboard</t>
   </si>
   <si>
-    <t>DASHBOARD_CONTACT_VIEW, CONTACT_VIEW, CASE_VIEW, PERSON_VIEW</t>
+    <t>CONTACT_VIEW, PERSON_VIEW, DASHBOARD_CONTACT_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Access campaigns dashboard</t>
@@ -1496,7 +1496,7 @@
     <t>Able to create new prescriptions</t>
   </si>
   <si>
-    <t>CASE_VIEW, PERSON_VIEW, THERAPY_VIEW</t>
+    <t>THERAPY_VIEW, PERSON_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Edit existing prescriptions</t>
@@ -1541,7 +1541,7 @@
     <t>Able to edit the clinical course of cases</t>
   </si>
   <si>
-    <t>CLINICAL_COURSE_VIEW, CASE_VIEW, PERSON_VIEW, THERAPY_VIEW</t>
+    <t>CLINICAL_COURSE_VIEW, THERAPY_VIEW, PERSON_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Create new clinical visits</t>
@@ -1577,7 +1577,7 @@
     <t>Able to edit existing port health info</t>
   </si>
   <si>
-    <t>CASE_VIEW, PORT_HEALTH_INFO_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, PORT_HEALTH_INFO_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Aggregated Reporting</t>
@@ -1667,7 +1667,7 @@
     <t>Able to delete campaigns from the system</t>
   </si>
   <si>
-    <t>CAMPAIGN_FORM_DATA_DELETE, CAMPAIGN_FORM_DATA_VIEW, CAMPAIGN_VIEW</t>
+    <t>CAMPAIGN_FORM_DATA_DELETE, CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_VIEW</t>
   </si>
   <si>
     <t>View existing campaign form data</t>
@@ -1715,7 +1715,7 @@
     <t>Able to view existing travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW</t>
+    <t>PERSON_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
   </si>
   <si>
     <t>Create new travel entries</t>
@@ -1724,7 +1724,7 @@
     <t>Able to create new travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW, TRAVEL_ENTRY_VIEW</t>
+    <t>PERSON_VIEW, TRAVEL_ENTRY_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
   </si>
   <si>
     <t>Edit existing travel entries</t>
@@ -1733,7 +1733,7 @@
     <t>Able to edit existing travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_EDIT, PERSON_VIEW, TRAVEL_ENTRY_VIEW</t>
+    <t>PERSON_VIEW, TRAVEL_ENTRY_VIEW, PERSON_EDIT, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
   </si>
   <si>
     <t>Archive travel entries</t>
@@ -1748,7 +1748,7 @@
     <t>Able to delete travel entries from the system</t>
   </si>
   <si>
-    <t>TASK_VIEW, DOCUMENT_VIEW, TASK_DELETE, TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW, TRAVEL_ENTRY_VIEW, PERSON_DELETE, DOCUMENT_DELETE, VISIT_DELETE</t>
+    <t>TASK_DELETE, PERSON_DELETE, DOCUMENT_DELETE, VISIT_DELETE, PERSON_VIEW, TRAVEL_ENTRY_VIEW, DOCUMENT_VIEW, TASK_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
   </si>
   <si>
     <t>Documents</t>
@@ -1874,7 +1874,7 @@
     <t>Able to work with messages</t>
   </si>
   <si>
-    <t>CASE_CREATE, EVENT_CREATE, EVENTPARTICIPANT_EDIT, EVENT_VIEW, SAMPLE_VIEW, EVENTPARTICIPANT_CREATE, CONTACT_EDIT, PERSON_EDIT, PERSON_DELETE, CASE_VIEW, PATHOGEN_TEST_DELETE, EXTERNAL_MESSAGE_VIEW, IMMUNIZATION_EDIT, IMMUNIZATION_DELETE, CONTACT_CREATE, PATHOGEN_TEST_CREATE, CONTACT_VIEW, EVENT_EDIT, CASE_EDIT, SAMPLE_CREATE, IMMUNIZATION_CREATE, SAMPLE_EDIT, EVENTPARTICIPANT_VIEW, PERSON_VIEW, IMMUNIZATION_VIEW, PATHOGEN_TEST_EDIT, VISIT_DELETE</t>
+    <t>PERSON_DELETE, IMMUNIZATION_VIEW, IMMUNIZATION_DELETE, IMMUNIZATION_EDIT, PERSON_VIEW, CASE_CREATE, EVENTPARTICIPANT_EDIT, SAMPLE_CREATE, PATHOGEN_TEST_CREATE, VISIT_DELETE, EVENT_EDIT, IMMUNIZATION_CREATE, PERSON_EDIT, PATHOGEN_TEST_EDIT, CASE_EDIT, EXTERNAL_MESSAGE_VIEW, CONTACT_CREATE, PATHOGEN_TEST_DELETE, SAMPLE_VIEW, CASE_VIEW, EVENT_VIEW, SAMPLE_EDIT, CONTACT_VIEW, CONTACT_EDIT, EVENT_CREATE, EVENTPARTICIPANT_VIEW, EVENTPARTICIPANT_CREATE</t>
   </si>
   <si>
     <t>Delete messages from the system</t>
@@ -2042,7 +2042,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.77.0-SNAPSHOT</t>
+    <t>1.0.0</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
@@ -758,7 +758,7 @@
     <t>Able to create new cases</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing cases</t>
@@ -767,7 +767,7 @@
     <t>Able to edit existing cases</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT, CASE_VIEW</t>
+    <t>PERSON_EDIT, CASE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Archive cases</t>
@@ -782,7 +782,7 @@
     <t>Able to delete cases from the system</t>
   </si>
   <si>
-    <t>CLINICAL_VISIT_DELETE, IMMUNIZATION_VIEW, PERSON_VIEW, TASK_DELETE, PERSON_DELETE, TREATMENT_DELETE, TASK_VIEW, PATHOGEN_TEST_DELETE, IMMUNIZATION_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, SAMPLE_DELETE, THERAPY_VIEW, VISIT_DELETE, PRESCRIPTION_DELETE, ADDITIONAL_TEST_DELETE, CASE_VIEW, CLINICAL_COURSE_VIEW, DOCUMENT_DELETE, DOCUMENT_VIEW</t>
+    <t>DOCUMENT_DELETE, PRESCRIPTION_DELETE, IMMUNIZATION_DELETE, TASK_DELETE, SAMPLE_DELETE, THERAPY_VIEW, ADDITIONAL_TEST_VIEW, VISIT_DELETE, DOCUMENT_VIEW, TASK_VIEW, TREATMENT_DELETE, SAMPLE_VIEW, CASE_VIEW, PERSON_DELETE, CLINICAL_VISIT_DELETE, IMMUNIZATION_VIEW, PATHOGEN_TEST_DELETE, PERSON_VIEW, CLINICAL_COURSE_VIEW, ADDITIONAL_TEST_DELETE</t>
   </si>
   <si>
     <t>Import cases into SORMAS</t>
@@ -803,7 +803,7 @@
     <t>Able to edit case investigation status</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_EDIT, PERSON_EDIT, CASE_VIEW</t>
+    <t>PERSON_EDIT, CASE_VIEW, CASE_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit case classification and outcome</t>
@@ -875,7 +875,7 @@
     <t>Able to edit existing immunizations and vaccinations</t>
   </si>
   <si>
-    <t>IMMUNIZATION_VIEW, PERSON_VIEW, PERSON_EDIT</t>
+    <t>PERSON_EDIT, IMMUNIZATION_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Archive immunizations</t>
@@ -890,7 +890,7 @@
     <t>Able to delete immunizations and vaccinations from the system</t>
   </si>
   <si>
-    <t>IMMUNIZATION_VIEW, PERSON_VIEW, PERSON_DELETE, VISIT_DELETE</t>
+    <t>VISIT_DELETE, PERSON_DELETE, IMMUNIZATION_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Persons</t>
@@ -914,7 +914,7 @@
     <t>Able to delete persons from the system</t>
   </si>
   <si>
-    <t>PERSON_VIEW, VISIT_DELETE</t>
+    <t>VISIT_DELETE, PERSON_VIEW</t>
   </si>
   <si>
     <t>Export persons</t>
@@ -929,7 +929,7 @@
     <t>Able to delete person contact details</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT</t>
+    <t>PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Merge persons</t>
@@ -965,7 +965,7 @@
     <t>Able to delete samples from the system</t>
   </si>
   <si>
-    <t>ADDITIONAL_TEST_DELETE, PATHOGEN_TEST_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW</t>
+    <t>ADDITIONAL_TEST_VIEW, SAMPLE_VIEW, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_DELETE</t>
   </si>
   <si>
     <t>Export samples from SORMAS</t>
@@ -1025,7 +1025,7 @@
     <t>Able to create new additional tests</t>
   </si>
   <si>
-    <t>SAMPLE_VIEW, ADDITIONAL_TEST_VIEW</t>
+    <t>ADDITIONAL_TEST_VIEW, SAMPLE_VIEW</t>
   </si>
   <si>
     <t>Edit existing additional tests</t>
@@ -1055,7 +1055,7 @@
     <t>Able to create new contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CONTACT_VIEW, CASE_VIEW</t>
+    <t>CONTACT_VIEW, CASE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing contacts</t>
@@ -1064,7 +1064,7 @@
     <t>Able to edit existing contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT, CONTACT_VIEW, CASE_VIEW</t>
+    <t>PERSON_EDIT, CONTACT_VIEW, CASE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Archive contacts</t>
@@ -1079,7 +1079,7 @@
     <t>Able to delete contacts from the system</t>
   </si>
   <si>
-    <t>PERSON_VIEW, TASK_DELETE, PERSON_DELETE, CONTACT_VIEW, TASK_VIEW, PATHOGEN_TEST_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, SAMPLE_DELETE, VISIT_DELETE, ADDITIONAL_TEST_DELETE, CASE_VIEW, DOCUMENT_DELETE, DOCUMENT_VIEW</t>
+    <t>DOCUMENT_DELETE, TASK_DELETE, SAMPLE_DELETE, ADDITIONAL_TEST_VIEW, VISIT_DELETE, DOCUMENT_VIEW, TASK_VIEW, CONTACT_VIEW, SAMPLE_VIEW, CASE_VIEW, PERSON_DELETE, PATHOGEN_TEST_DELETE, PERSON_VIEW, ADDITIONAL_TEST_DELETE</t>
   </si>
   <si>
     <t>Import contacts</t>
@@ -1100,7 +1100,7 @@
     <t>Able to create resulting cases from contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT, CONTACT_VIEW, CASE_CREATE, CONTACT_EDIT, CASE_VIEW</t>
+    <t>PERSON_EDIT, CONTACT_VIEW, CASE_VIEW, CASE_CREATE, CONTACT_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Reassign the source case of contacts</t>
@@ -1109,7 +1109,7 @@
     <t>Able to reassign the source case of contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT, CONTACT_VIEW, CONTACT_EDIT, CASE_VIEW</t>
+    <t>PERSON_EDIT, CONTACT_VIEW, CASE_VIEW, CONTACT_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Merge contacts</t>
@@ -1211,7 +1211,7 @@
     <t>Able to delete actions from the system</t>
   </si>
   <si>
-    <t>EVENT_VIEW, DOCUMENT_DELETE, DOCUMENT_VIEW</t>
+    <t>DOCUMENT_DELETE, DOCUMENT_VIEW, EVENT_VIEW</t>
   </si>
   <si>
     <t>Edit existing actions</t>
@@ -1250,7 +1250,7 @@
     <t>Able to delete events from the system</t>
   </si>
   <si>
-    <t>PERSON_VIEW, TASK_DELETE, PERSON_DELETE, TASK_VIEW, EVENTPARTICIPANT_VIEW, PATHOGEN_TEST_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, ACTION_DELETE, EVENT_VIEW, SAMPLE_DELETE, VISIT_DELETE, ADDITIONAL_TEST_DELETE, EVENTPARTICIPANT_DELETE, DOCUMENT_DELETE, DOCUMENT_VIEW</t>
+    <t>DOCUMENT_DELETE, EVENT_VIEW, TASK_DELETE, SAMPLE_DELETE, ADDITIONAL_TEST_VIEW, ACTION_DELETE, EVENTPARTICIPANT_VIEW, VISIT_DELETE, DOCUMENT_VIEW, TASK_VIEW, SAMPLE_VIEW, EVENTPARTICIPANT_DELETE, PERSON_DELETE, PATHOGEN_TEST_DELETE, PERSON_VIEW, ADDITIONAL_TEST_DELETE</t>
   </si>
   <si>
     <t>Import events</t>
@@ -1283,7 +1283,7 @@
     <t>Able to view existing event participants</t>
   </si>
   <si>
-    <t>PERSON_VIEW, EVENT_VIEW</t>
+    <t>EVENT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Create new event participants</t>
@@ -1292,7 +1292,7 @@
     <t>Able to create new event participants</t>
   </si>
   <si>
-    <t>PERSON_VIEW, EVENTPARTICIPANT_VIEW, EVENT_VIEW</t>
+    <t>EVENTPARTICIPANT_VIEW, EVENT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing event participants</t>
@@ -1301,7 +1301,7 @@
     <t>Able to edit existing event participants</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT, EVENTPARTICIPANT_VIEW, EVENT_VIEW</t>
+    <t>PERSON_EDIT, EVENTPARTICIPANT_VIEW, EVENT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Event participant archive</t>
@@ -1316,7 +1316,7 @@
     <t>Able to delete event participants from the system</t>
   </si>
   <si>
-    <t>SAMPLE_DELETE, PERSON_VIEW, PERSON_DELETE, VISIT_DELETE, ADDITIONAL_TEST_DELETE, EVENTPARTICIPANT_VIEW, PATHOGEN_TEST_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, EVENT_VIEW</t>
+    <t>ADDITIONAL_TEST_VIEW, EVENTPARTICIPANT_VIEW, VISIT_DELETE, SAMPLE_VIEW, PERSON_DELETE, EVENT_VIEW, PATHOGEN_TEST_DELETE, SAMPLE_DELETE, PERSON_VIEW, ADDITIONAL_TEST_DELETE</t>
   </si>
   <si>
     <t>Import event participants</t>
@@ -1331,7 +1331,7 @@
     <t>Able to perform bulk operations in the event participants directory</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT, EVENTPARTICIPANT_VIEW, EVENTPARTICIPANT_EDIT, EVENT_VIEW</t>
+    <t>EVENTPARTICIPANT_EDIT, PERSON_EDIT, EVENTPARTICIPANT_VIEW, EVENT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Create new event groups</t>
@@ -1475,7 +1475,7 @@
     <t>Able to view contact transmission chains on the dashboard</t>
   </si>
   <si>
-    <t>PERSON_VIEW, DASHBOARD_CONTACT_VIEW, CONTACT_VIEW, CASE_VIEW</t>
+    <t>DASHBOARD_CONTACT_VIEW, CONTACT_VIEW, CASE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Access campaigns dashboard</t>
@@ -1505,7 +1505,7 @@
     <t>Able to create new prescriptions</t>
   </si>
   <si>
-    <t>THERAPY_VIEW, PERSON_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, THERAPY_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing prescriptions</t>
@@ -1550,7 +1550,7 @@
     <t>Able to edit the clinical course of cases</t>
   </si>
   <si>
-    <t>THERAPY_VIEW, PERSON_VIEW, CLINICAL_COURSE_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, CLINICAL_COURSE_VIEW, THERAPY_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Create new clinical visits</t>
@@ -1586,7 +1586,7 @@
     <t>Able to edit existing port health info</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PORT_HEALTH_INFO_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, PERSON_VIEW, PORT_HEALTH_INFO_VIEW</t>
   </si>
   <si>
     <t>Aggregated Reporting</t>
@@ -1676,7 +1676,7 @@
     <t>Able to delete campaigns from the system</t>
   </si>
   <si>
-    <t>CAMPAIGN_FORM_DATA_VIEW, CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_DELETE</t>
+    <t>CAMPAIGN_FORM_DATA_DELETE, CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_VIEW</t>
   </si>
   <si>
     <t>View existing campaign form data</t>
@@ -1733,7 +1733,7 @@
     <t>Able to create new travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW, TRAVEL_ENTRY_VIEW</t>
+    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing travel entries</t>
@@ -1742,7 +1742,7 @@
     <t>Able to edit existing travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW, PERSON_EDIT, TRAVEL_ENTRY_VIEW</t>
+    <t>PERSON_EDIT, TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Archive travel entries</t>
@@ -1757,7 +1757,7 @@
     <t>Able to delete travel entries from the system</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW, TASK_DELETE, PERSON_DELETE, VISIT_DELETE, TRAVEL_ENTRY_VIEW, TASK_VIEW, DOCUMENT_DELETE, DOCUMENT_VIEW</t>
+    <t>DOCUMENT_DELETE, VISIT_DELETE, DOCUMENT_VIEW, TASK_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW, PERSON_DELETE, TASK_DELETE, PERSON_VIEW</t>
   </si>
   <si>
     <t>Documents</t>
@@ -1883,7 +1883,7 @@
     <t>Able to work with messages</t>
   </si>
   <si>
-    <t>PERSON_DELETE, EVENT_CREATE, CASE_EDIT, PATHOGEN_TEST_EDIT, IMMUNIZATION_DELETE, SAMPLE_VIEW, EVENT_VIEW, IMMUNIZATION_EDIT, CONTACT_CREATE, EXTERNAL_MESSAGE_VIEW, SAMPLE_EDIT, CASE_CREATE, EVENTPARTICIPANT_EDIT, EVENT_EDIT, IMMUNIZATION_VIEW, PERSON_VIEW, PERSON_EDIT, CONTACT_VIEW, PATHOGEN_TEST_DELETE, EVENTPARTICIPANT_VIEW, PATHOGEN_TEST_CREATE, CONTACT_EDIT, VISIT_DELETE, EVENTPARTICIPANT_CREATE, SAMPLE_CREATE, IMMUNIZATION_CREATE, CASE_VIEW</t>
+    <t>IMMUNIZATION_DELETE, IMMUNIZATION_CREATE, CASE_EDIT, EXTERNAL_MESSAGE_VIEW, CONTACT_VIEW, SAMPLE_VIEW, CASE_VIEW, PATHOGEN_TEST_EDIT, PERSON_DELETE, EVENT_CREATE, PATHOGEN_TEST_DELETE, CONTACT_EDIT, PERSON_VIEW, EVENTPARTICIPANT_CREATE, PERSON_EDIT, CONTACT_CREATE, IMMUNIZATION_EDIT, SAMPLE_CREATE, EVENT_VIEW, EVENTPARTICIPANT_EDIT, EVENTPARTICIPANT_VIEW, VISIT_DELETE, SAMPLE_EDIT, EVENT_EDIT, CASE_CREATE, IMMUNIZATION_VIEW, PATHOGEN_TEST_CREATE</t>
   </si>
   <si>
     <t>Delete messages from the system</t>
@@ -2051,7 +2051,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.78.0-SNAPSHOT</t>
+    <t>1.79.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
@@ -758,7 +758,7 @@
     <t>Able to create new cases</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing cases</t>
@@ -767,7 +767,7 @@
     <t>Able to edit existing cases</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT, CASE_VIEW</t>
+    <t>CASE_VIEW, PERSON_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Archive cases</t>
@@ -782,7 +782,7 @@
     <t>Able to delete cases from the system</t>
   </si>
   <si>
-    <t>CLINICAL_VISIT_DELETE, IMMUNIZATION_VIEW, PERSON_VIEW, TASK_DELETE, PERSON_DELETE, TREATMENT_DELETE, TASK_VIEW, PATHOGEN_TEST_DELETE, IMMUNIZATION_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, SAMPLE_DELETE, THERAPY_VIEW, VISIT_DELETE, PRESCRIPTION_DELETE, ADDITIONAL_TEST_DELETE, CASE_VIEW, CLINICAL_COURSE_VIEW, DOCUMENT_DELETE, DOCUMENT_VIEW</t>
+    <t>CLINICAL_VISIT_DELETE, CASE_VIEW, SAMPLE_VIEW, THERAPY_VIEW, TASK_VIEW, DOCUMENT_DELETE, PRESCRIPTION_DELETE, IMMUNIZATION_DELETE, TASK_DELETE, PERSON_VIEW, SAMPLE_DELETE, PERSON_DELETE, IMMUNIZATION_VIEW, VISIT_DELETE, TREATMENT_DELETE, DOCUMENT_VIEW, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_VIEW, CLINICAL_COURSE_VIEW, ADDITIONAL_TEST_DELETE</t>
   </si>
   <si>
     <t>Import cases into SORMAS</t>
@@ -803,7 +803,7 @@
     <t>Able to edit case investigation status</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_EDIT, PERSON_EDIT, CASE_VIEW</t>
+    <t>CASE_EDIT, CASE_VIEW, PERSON_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Edit case classification and outcome</t>
@@ -866,7 +866,7 @@
     <t>Able to create new immunizations and vaccinations</t>
   </si>
   <si>
-    <t>IMMUNIZATION_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, IMMUNIZATION_VIEW</t>
   </si>
   <si>
     <t>Edit existing immunizations and vaccinations</t>
@@ -875,7 +875,7 @@
     <t>Able to edit existing immunizations and vaccinations</t>
   </si>
   <si>
-    <t>IMMUNIZATION_VIEW, PERSON_VIEW, PERSON_EDIT</t>
+    <t>PERSON_VIEW, IMMUNIZATION_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Archive immunizations</t>
@@ -890,7 +890,7 @@
     <t>Able to delete immunizations and vaccinations from the system</t>
   </si>
   <si>
-    <t>IMMUNIZATION_VIEW, PERSON_VIEW, PERSON_DELETE, VISIT_DELETE</t>
+    <t>PERSON_VIEW, PERSON_DELETE, IMMUNIZATION_VIEW, VISIT_DELETE</t>
   </si>
   <si>
     <t>Persons</t>
@@ -965,7 +965,7 @@
     <t>Able to delete samples from the system</t>
   </si>
   <si>
-    <t>ADDITIONAL_TEST_DELETE, PATHOGEN_TEST_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW</t>
+    <t>SAMPLE_VIEW, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE</t>
   </si>
   <si>
     <t>Export samples from SORMAS</t>
@@ -980,7 +980,7 @@
     <t>Able to transfer samples to another lab</t>
   </si>
   <si>
-    <t>SAMPLE_EDIT, SAMPLE_VIEW</t>
+    <t>SAMPLE_VIEW, SAMPLE_EDIT</t>
   </si>
   <si>
     <t>Edit samples reported by other users</t>
@@ -1055,7 +1055,7 @@
     <t>Able to create new contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CONTACT_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, PERSON_VIEW, CONTACT_VIEW</t>
   </si>
   <si>
     <t>Edit existing contacts</t>
@@ -1064,7 +1064,7 @@
     <t>Able to edit existing contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT, CONTACT_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, PERSON_VIEW, CONTACT_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Archive contacts</t>
@@ -1079,7 +1079,7 @@
     <t>Able to delete contacts from the system</t>
   </si>
   <si>
-    <t>PERSON_VIEW, TASK_DELETE, PERSON_DELETE, CONTACT_VIEW, TASK_VIEW, PATHOGEN_TEST_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, SAMPLE_DELETE, VISIT_DELETE, ADDITIONAL_TEST_DELETE, CASE_VIEW, DOCUMENT_DELETE, DOCUMENT_VIEW</t>
+    <t>CASE_VIEW, SAMPLE_VIEW, TASK_VIEW, DOCUMENT_DELETE, CONTACT_VIEW, TASK_DELETE, PERSON_VIEW, SAMPLE_DELETE, PERSON_DELETE, VISIT_DELETE, DOCUMENT_VIEW, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE</t>
   </si>
   <si>
     <t>Import contacts</t>
@@ -1100,7 +1100,7 @@
     <t>Able to create resulting cases from contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT, CONTACT_VIEW, CASE_CREATE, CONTACT_EDIT, CASE_VIEW</t>
+    <t>CONTACT_EDIT, CASE_VIEW, PERSON_VIEW, CASE_CREATE, CONTACT_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Reassign the source case of contacts</t>
@@ -1109,7 +1109,7 @@
     <t>Able to reassign the source case of contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT, CONTACT_VIEW, CONTACT_EDIT, CASE_VIEW</t>
+    <t>CONTACT_EDIT, CASE_VIEW, PERSON_VIEW, CONTACT_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Merge contacts</t>
@@ -1250,7 +1250,7 @@
     <t>Able to delete events from the system</t>
   </si>
   <si>
-    <t>PERSON_VIEW, TASK_DELETE, PERSON_DELETE, TASK_VIEW, EVENTPARTICIPANT_VIEW, PATHOGEN_TEST_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, ACTION_DELETE, EVENT_VIEW, SAMPLE_DELETE, VISIT_DELETE, ADDITIONAL_TEST_DELETE, EVENTPARTICIPANT_DELETE, DOCUMENT_DELETE, DOCUMENT_VIEW</t>
+    <t>SAMPLE_VIEW, TASK_VIEW, DOCUMENT_DELETE, EVENTPARTICIPANT_DELETE, EVENTPARTICIPANT_VIEW, TASK_DELETE, PERSON_VIEW, SAMPLE_DELETE, PERSON_DELETE, EVENT_VIEW, ACTION_DELETE, DOCUMENT_VIEW, VISIT_DELETE, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE</t>
   </si>
   <si>
     <t>Import events</t>
@@ -1292,7 +1292,7 @@
     <t>Able to create new event participants</t>
   </si>
   <si>
-    <t>PERSON_VIEW, EVENTPARTICIPANT_VIEW, EVENT_VIEW</t>
+    <t>PERSON_VIEW, EVENT_VIEW, EVENTPARTICIPANT_VIEW</t>
   </si>
   <si>
     <t>Edit existing event participants</t>
@@ -1301,7 +1301,7 @@
     <t>Able to edit existing event participants</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT, EVENTPARTICIPANT_VIEW, EVENT_VIEW</t>
+    <t>PERSON_VIEW, EVENT_VIEW, EVENTPARTICIPANT_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Event participant archive</t>
@@ -1316,7 +1316,7 @@
     <t>Able to delete event participants from the system</t>
   </si>
   <si>
-    <t>SAMPLE_DELETE, PERSON_VIEW, PERSON_DELETE, VISIT_DELETE, ADDITIONAL_TEST_DELETE, EVENTPARTICIPANT_VIEW, PATHOGEN_TEST_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, EVENT_VIEW</t>
+    <t>PERSON_VIEW, SAMPLE_VIEW, SAMPLE_DELETE, PERSON_DELETE, EVENT_VIEW, VISIT_DELETE, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_VIEW, EVENTPARTICIPANT_VIEW, ADDITIONAL_TEST_DELETE</t>
   </si>
   <si>
     <t>Import event participants</t>
@@ -1331,7 +1331,7 @@
     <t>Able to perform bulk operations in the event participants directory</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT, EVENTPARTICIPANT_VIEW, EVENTPARTICIPANT_EDIT, EVENT_VIEW</t>
+    <t>PERSON_VIEW, EVENTPARTICIPANT_EDIT, EVENT_VIEW, EVENTPARTICIPANT_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Create new event groups</t>
@@ -1475,7 +1475,7 @@
     <t>Able to view contact transmission chains on the dashboard</t>
   </si>
   <si>
-    <t>PERSON_VIEW, DASHBOARD_CONTACT_VIEW, CONTACT_VIEW, CASE_VIEW</t>
+    <t>DASHBOARD_CONTACT_VIEW, CASE_VIEW, PERSON_VIEW, CONTACT_VIEW</t>
   </si>
   <si>
     <t>Access campaigns dashboard</t>
@@ -1505,7 +1505,7 @@
     <t>Able to create new prescriptions</t>
   </si>
   <si>
-    <t>THERAPY_VIEW, PERSON_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, PERSON_VIEW, THERAPY_VIEW</t>
   </si>
   <si>
     <t>Edit existing prescriptions</t>
@@ -1550,7 +1550,7 @@
     <t>Able to edit the clinical course of cases</t>
   </si>
   <si>
-    <t>THERAPY_VIEW, PERSON_VIEW, CLINICAL_COURSE_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, PERSON_VIEW, THERAPY_VIEW, CLINICAL_COURSE_VIEW</t>
   </si>
   <si>
     <t>Create new clinical visits</t>
@@ -1586,7 +1586,7 @@
     <t>Able to edit existing port health info</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PORT_HEALTH_INFO_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, PERSON_VIEW, PORT_HEALTH_INFO_VIEW</t>
   </si>
   <si>
     <t>Aggregated Reporting</t>
@@ -1676,7 +1676,7 @@
     <t>Able to delete campaigns from the system</t>
   </si>
   <si>
-    <t>CAMPAIGN_FORM_DATA_VIEW, CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_DELETE</t>
+    <t>CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_VIEW, CAMPAIGN_FORM_DATA_DELETE</t>
   </si>
   <si>
     <t>View existing campaign form data</t>
@@ -1724,7 +1724,7 @@
     <t>Able to view existing travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW</t>
+    <t>PERSON_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
   </si>
   <si>
     <t>Create new travel entries</t>
@@ -1733,7 +1733,7 @@
     <t>Able to create new travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW, TRAVEL_ENTRY_VIEW</t>
+    <t>PERSON_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW</t>
   </si>
   <si>
     <t>Edit existing travel entries</t>
@@ -1742,7 +1742,7 @@
     <t>Able to edit existing travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW, PERSON_EDIT, TRAVEL_ENTRY_VIEW</t>
+    <t>PERSON_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Archive travel entries</t>
@@ -1757,7 +1757,7 @@
     <t>Able to delete travel entries from the system</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW, TASK_DELETE, PERSON_DELETE, VISIT_DELETE, TRAVEL_ENTRY_VIEW, TASK_VIEW, DOCUMENT_DELETE, DOCUMENT_VIEW</t>
+    <t>PERSON_VIEW, PERSON_DELETE, TASK_VIEW, DOCUMENT_DELETE, VISIT_DELETE, DOCUMENT_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW, TASK_DELETE</t>
   </si>
   <si>
     <t>Documents</t>
@@ -1883,7 +1883,7 @@
     <t>Able to work with messages</t>
   </si>
   <si>
-    <t>PERSON_DELETE, EVENT_CREATE, CASE_EDIT, PATHOGEN_TEST_EDIT, IMMUNIZATION_DELETE, SAMPLE_VIEW, EVENT_VIEW, IMMUNIZATION_EDIT, CONTACT_CREATE, EXTERNAL_MESSAGE_VIEW, SAMPLE_EDIT, CASE_CREATE, EVENTPARTICIPANT_EDIT, EVENT_EDIT, IMMUNIZATION_VIEW, PERSON_VIEW, PERSON_EDIT, CONTACT_VIEW, PATHOGEN_TEST_DELETE, EVENTPARTICIPANT_VIEW, PATHOGEN_TEST_CREATE, CONTACT_EDIT, VISIT_DELETE, EVENTPARTICIPANT_CREATE, SAMPLE_CREATE, IMMUNIZATION_CREATE, CASE_VIEW</t>
+    <t>SAMPLE_VIEW, EVENTPARTICIPANT_EDIT, CONTACT_CREATE, PATHOGEN_TEST_EDIT, SAMPLE_EDIT, CONTACT_VIEW, IMMUNIZATION_EDIT, CONTACT_EDIT, EXTERNAL_MESSAGE_VIEW, PERSON_VIEW, SAMPLE_CREATE, EVENT_VIEW, PATHOGEN_TEST_DELETE, EVENT_EDIT, CASE_VIEW, EVENT_CREATE, CASE_CREATE, PATHOGEN_TEST_CREATE, IMMUNIZATION_DELETE, EVENTPARTICIPANT_VIEW, CASE_EDIT, PERSON_DELETE, EVENTPARTICIPANT_CREATE, IMMUNIZATION_CREATE, IMMUNIZATION_VIEW, VISIT_DELETE, PERSON_EDIT</t>
   </si>
   <si>
     <t>Delete messages from the system</t>
@@ -2051,7 +2051,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.78.0-SNAPSHOT</t>
+    <t>1.0.0</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
@@ -758,7 +758,7 @@
     <t>Able to create new cases</t>
   </si>
   <si>
-    <t>CASE_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Edit existing cases</t>
@@ -767,7 +767,7 @@
     <t>Able to edit existing cases</t>
   </si>
   <si>
-    <t>PERSON_EDIT, CASE_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, CASE_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Archive cases</t>
@@ -782,7 +782,7 @@
     <t>Able to delete cases from the system</t>
   </si>
   <si>
-    <t>DOCUMENT_DELETE, PRESCRIPTION_DELETE, IMMUNIZATION_DELETE, TASK_DELETE, SAMPLE_DELETE, THERAPY_VIEW, ADDITIONAL_TEST_VIEW, VISIT_DELETE, DOCUMENT_VIEW, TASK_VIEW, TREATMENT_DELETE, SAMPLE_VIEW, CASE_VIEW, PERSON_DELETE, CLINICAL_VISIT_DELETE, IMMUNIZATION_VIEW, PATHOGEN_TEST_DELETE, PERSON_VIEW, CLINICAL_COURSE_VIEW, ADDITIONAL_TEST_DELETE</t>
+    <t>VISIT_DELETE, PRESCRIPTION_DELETE, PERSON_DELETE, DOCUMENT_DELETE, PERSON_VIEW, PATHOGEN_TEST_DELETE, TASK_DELETE, SAMPLE_VIEW, CLINICAL_VISIT_DELETE, THERAPY_VIEW, DOCUMENT_VIEW, IMMUNIZATION_VIEW, TREATMENT_DELETE, SAMPLE_DELETE, ADDITIONAL_TEST_DELETE, TASK_VIEW, CASE_VIEW, IMMUNIZATION_DELETE, ADDITIONAL_TEST_VIEW, CLINICAL_COURSE_VIEW</t>
   </si>
   <si>
     <t>Import cases into SORMAS</t>
@@ -803,7 +803,7 @@
     <t>Able to edit case investigation status</t>
   </si>
   <si>
-    <t>PERSON_EDIT, CASE_VIEW, CASE_EDIT, PERSON_VIEW</t>
+    <t>PERSON_VIEW, CASE_VIEW, PERSON_EDIT, CASE_EDIT</t>
   </si>
   <si>
     <t>Edit case classification and outcome</t>
@@ -875,7 +875,7 @@
     <t>Able to edit existing immunizations and vaccinations</t>
   </si>
   <si>
-    <t>PERSON_EDIT, IMMUNIZATION_VIEW, PERSON_VIEW</t>
+    <t>IMMUNIZATION_VIEW, PERSON_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Archive immunizations</t>
@@ -890,7 +890,7 @@
     <t>Able to delete immunizations and vaccinations from the system</t>
   </si>
   <si>
-    <t>VISIT_DELETE, PERSON_DELETE, IMMUNIZATION_VIEW, PERSON_VIEW</t>
+    <t>VISIT_DELETE, IMMUNIZATION_VIEW, PERSON_DELETE, PERSON_VIEW</t>
   </si>
   <si>
     <t>Persons</t>
@@ -929,7 +929,7 @@
     <t>Able to delete person contact details</t>
   </si>
   <si>
-    <t>PERSON_EDIT, PERSON_VIEW</t>
+    <t>PERSON_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Merge persons</t>
@@ -965,7 +965,7 @@
     <t>Able to delete samples from the system</t>
   </si>
   <si>
-    <t>ADDITIONAL_TEST_VIEW, SAMPLE_VIEW, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_DELETE</t>
+    <t>PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_DELETE, ADDITIONAL_TEST_VIEW, SAMPLE_VIEW</t>
   </si>
   <si>
     <t>Export samples from SORMAS</t>
@@ -1055,7 +1055,7 @@
     <t>Able to create new contacts</t>
   </si>
   <si>
-    <t>CONTACT_VIEW, CASE_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, CONTACT_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Edit existing contacts</t>
@@ -1064,7 +1064,7 @@
     <t>Able to edit existing contacts</t>
   </si>
   <si>
-    <t>PERSON_EDIT, CONTACT_VIEW, CASE_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, CONTACT_VIEW, CASE_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Archive contacts</t>
@@ -1079,7 +1079,7 @@
     <t>Able to delete contacts from the system</t>
   </si>
   <si>
-    <t>DOCUMENT_DELETE, TASK_DELETE, SAMPLE_DELETE, ADDITIONAL_TEST_VIEW, VISIT_DELETE, DOCUMENT_VIEW, TASK_VIEW, CONTACT_VIEW, SAMPLE_VIEW, CASE_VIEW, PERSON_DELETE, PATHOGEN_TEST_DELETE, PERSON_VIEW, ADDITIONAL_TEST_DELETE</t>
+    <t>VISIT_DELETE, PERSON_DELETE, DOCUMENT_DELETE, PERSON_VIEW, PATHOGEN_TEST_DELETE, CONTACT_VIEW, TASK_DELETE, SAMPLE_VIEW, DOCUMENT_VIEW, SAMPLE_DELETE, ADDITIONAL_TEST_DELETE, TASK_VIEW, ADDITIONAL_TEST_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Import contacts</t>
@@ -1100,7 +1100,7 @@
     <t>Able to create resulting cases from contacts</t>
   </si>
   <si>
-    <t>PERSON_EDIT, CONTACT_VIEW, CASE_VIEW, CASE_CREATE, CONTACT_EDIT, PERSON_VIEW</t>
+    <t>PERSON_VIEW, CONTACT_VIEW, CASE_VIEW, CASE_CREATE, PERSON_EDIT, CONTACT_EDIT</t>
   </si>
   <si>
     <t>Reassign the source case of contacts</t>
@@ -1109,7 +1109,7 @@
     <t>Able to reassign the source case of contacts</t>
   </si>
   <si>
-    <t>PERSON_EDIT, CONTACT_VIEW, CASE_VIEW, CONTACT_EDIT, PERSON_VIEW</t>
+    <t>PERSON_VIEW, CONTACT_VIEW, CASE_VIEW, PERSON_EDIT, CONTACT_EDIT</t>
   </si>
   <si>
     <t>Merge contacts</t>
@@ -1211,7 +1211,7 @@
     <t>Able to delete actions from the system</t>
   </si>
   <si>
-    <t>DOCUMENT_DELETE, DOCUMENT_VIEW, EVENT_VIEW</t>
+    <t>DOCUMENT_VIEW, DOCUMENT_DELETE, EVENT_VIEW</t>
   </si>
   <si>
     <t>Edit existing actions</t>
@@ -1250,7 +1250,7 @@
     <t>Able to delete events from the system</t>
   </si>
   <si>
-    <t>DOCUMENT_DELETE, EVENT_VIEW, TASK_DELETE, SAMPLE_DELETE, ADDITIONAL_TEST_VIEW, ACTION_DELETE, EVENTPARTICIPANT_VIEW, VISIT_DELETE, DOCUMENT_VIEW, TASK_VIEW, SAMPLE_VIEW, EVENTPARTICIPANT_DELETE, PERSON_DELETE, PATHOGEN_TEST_DELETE, PERSON_VIEW, ADDITIONAL_TEST_DELETE</t>
+    <t>VISIT_DELETE, PERSON_DELETE, DOCUMENT_DELETE, PERSON_VIEW, EVENTPARTICIPANT_DELETE, PATHOGEN_TEST_DELETE, EVENT_VIEW, TASK_DELETE, SAMPLE_VIEW, DOCUMENT_VIEW, ACTION_DELETE, EVENTPARTICIPANT_VIEW, SAMPLE_DELETE, ADDITIONAL_TEST_DELETE, TASK_VIEW, ADDITIONAL_TEST_VIEW</t>
   </si>
   <si>
     <t>Import events</t>
@@ -1283,7 +1283,7 @@
     <t>Able to view existing event participants</t>
   </si>
   <si>
-    <t>EVENT_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, EVENT_VIEW</t>
   </si>
   <si>
     <t>Create new event participants</t>
@@ -1292,7 +1292,7 @@
     <t>Able to create new event participants</t>
   </si>
   <si>
-    <t>EVENTPARTICIPANT_VIEW, EVENT_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, EVENTPARTICIPANT_VIEW, EVENT_VIEW</t>
   </si>
   <si>
     <t>Edit existing event participants</t>
@@ -1301,7 +1301,7 @@
     <t>Able to edit existing event participants</t>
   </si>
   <si>
-    <t>PERSON_EDIT, EVENTPARTICIPANT_VIEW, EVENT_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, EVENTPARTICIPANT_VIEW, EVENT_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Event participant archive</t>
@@ -1316,7 +1316,7 @@
     <t>Able to delete event participants from the system</t>
   </si>
   <si>
-    <t>ADDITIONAL_TEST_VIEW, EVENTPARTICIPANT_VIEW, VISIT_DELETE, SAMPLE_VIEW, PERSON_DELETE, EVENT_VIEW, PATHOGEN_TEST_DELETE, SAMPLE_DELETE, PERSON_VIEW, ADDITIONAL_TEST_DELETE</t>
+    <t>VISIT_DELETE, PERSON_DELETE, PERSON_VIEW, PATHOGEN_TEST_DELETE, EVENTPARTICIPANT_VIEW, SAMPLE_DELETE, EVENT_VIEW, ADDITIONAL_TEST_DELETE, ADDITIONAL_TEST_VIEW, SAMPLE_VIEW</t>
   </si>
   <si>
     <t>Import event participants</t>
@@ -1331,7 +1331,7 @@
     <t>Able to perform bulk operations in the event participants directory</t>
   </si>
   <si>
-    <t>EVENTPARTICIPANT_EDIT, PERSON_EDIT, EVENTPARTICIPANT_VIEW, EVENT_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, EVENTPARTICIPANT_EDIT, EVENTPARTICIPANT_VIEW, EVENT_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Create new event groups</t>
@@ -1475,7 +1475,7 @@
     <t>Able to view contact transmission chains on the dashboard</t>
   </si>
   <si>
-    <t>DASHBOARD_CONTACT_VIEW, CONTACT_VIEW, CASE_VIEW, PERSON_VIEW</t>
+    <t>DASHBOARD_CONTACT_VIEW, PERSON_VIEW, CONTACT_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Access campaigns dashboard</t>
@@ -1505,7 +1505,7 @@
     <t>Able to create new prescriptions</t>
   </si>
   <si>
-    <t>CASE_VIEW, THERAPY_VIEW, PERSON_VIEW</t>
+    <t>THERAPY_VIEW, PERSON_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Edit existing prescriptions</t>
@@ -1550,7 +1550,7 @@
     <t>Able to edit the clinical course of cases</t>
   </si>
   <si>
-    <t>CASE_VIEW, CLINICAL_COURSE_VIEW, THERAPY_VIEW, PERSON_VIEW</t>
+    <t>THERAPY_VIEW, PERSON_VIEW, CLINICAL_COURSE_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Create new clinical visits</t>
@@ -1586,7 +1586,7 @@
     <t>Able to edit existing port health info</t>
   </si>
   <si>
-    <t>CASE_VIEW, PERSON_VIEW, PORT_HEALTH_INFO_VIEW</t>
+    <t>PERSON_VIEW, PORT_HEALTH_INFO_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Aggregated Reporting</t>
@@ -1676,7 +1676,7 @@
     <t>Able to delete campaigns from the system</t>
   </si>
   <si>
-    <t>CAMPAIGN_FORM_DATA_DELETE, CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_VIEW</t>
+    <t>CAMPAIGN_FORM_DATA_DELETE, CAMPAIGN_FORM_DATA_VIEW, CAMPAIGN_VIEW</t>
   </si>
   <si>
     <t>View existing campaign form data</t>
@@ -1724,7 +1724,7 @@
     <t>Able to view existing travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW</t>
+    <t>PERSON_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
   </si>
   <si>
     <t>Create new travel entries</t>
@@ -1733,7 +1733,7 @@
     <t>Able to create new travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW, PERSON_VIEW</t>
+    <t>TRAVEL_ENTRY_VIEW, PERSON_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
   </si>
   <si>
     <t>Edit existing travel entries</t>
@@ -1742,7 +1742,7 @@
     <t>Able to edit existing travel entries</t>
   </si>
   <si>
-    <t>PERSON_EDIT, TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW, PERSON_VIEW</t>
+    <t>TRAVEL_ENTRY_VIEW, PERSON_VIEW, PERSON_EDIT, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
   </si>
   <si>
     <t>Archive travel entries</t>
@@ -1757,7 +1757,7 @@
     <t>Able to delete travel entries from the system</t>
   </si>
   <si>
-    <t>DOCUMENT_DELETE, VISIT_DELETE, DOCUMENT_VIEW, TASK_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW, PERSON_DELETE, TASK_DELETE, PERSON_VIEW</t>
+    <t>VISIT_DELETE, DOCUMENT_VIEW, PERSON_DELETE, TRAVEL_ENTRY_VIEW, DOCUMENT_DELETE, PERSON_VIEW, TASK_VIEW, TASK_DELETE, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
   </si>
   <si>
     <t>Documents</t>
@@ -1883,7 +1883,7 @@
     <t>Able to work with messages</t>
   </si>
   <si>
-    <t>IMMUNIZATION_DELETE, IMMUNIZATION_CREATE, CASE_EDIT, EXTERNAL_MESSAGE_VIEW, CONTACT_VIEW, SAMPLE_VIEW, CASE_VIEW, PATHOGEN_TEST_EDIT, PERSON_DELETE, EVENT_CREATE, PATHOGEN_TEST_DELETE, CONTACT_EDIT, PERSON_VIEW, EVENTPARTICIPANT_CREATE, PERSON_EDIT, CONTACT_CREATE, IMMUNIZATION_EDIT, SAMPLE_CREATE, EVENT_VIEW, EVENTPARTICIPANT_EDIT, EVENTPARTICIPANT_VIEW, VISIT_DELETE, SAMPLE_EDIT, EVENT_EDIT, CASE_CREATE, IMMUNIZATION_VIEW, PATHOGEN_TEST_CREATE</t>
+    <t>PERSON_DELETE, EVENT_EDIT, PERSON_VIEW, EVENTPARTICIPANT_EDIT, EVENT_VIEW, PERSON_EDIT, EXTERNAL_MESSAGE_VIEW, IMMUNIZATION_EDIT, CONTACT_CREATE, SAMPLE_CREATE, CASE_EDIT, SAMPLE_EDIT, CONTACT_EDIT, VISIT_DELETE, EVENT_CREATE, EVENTPARTICIPANT_CREATE, PATHOGEN_TEST_DELETE, CONTACT_VIEW, SAMPLE_VIEW, PATHOGEN_TEST_EDIT, IMMUNIZATION_VIEW, EVENTPARTICIPANT_VIEW, IMMUNIZATION_CREATE, PATHOGEN_TEST_CREATE, IMMUNIZATION_DELETE, CASE_VIEW, CASE_CREATE</t>
   </si>
   <si>
     <t>Delete messages from the system</t>
@@ -2051,7 +2051,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.79.0-SNAPSHOT</t>
+    <t>1.80.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
@@ -767,7 +767,7 @@
     <t>Able to create new cases</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing cases</t>
@@ -776,7 +776,7 @@
     <t>Able to edit existing cases</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW, PERSON_EDIT</t>
+    <t>CASE_VIEW, PERSON_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Archive cases</t>
@@ -791,7 +791,7 @@
     <t>Able to delete cases from the system</t>
   </si>
   <si>
-    <t>ADDITIONAL_TEST_VIEW, VISIT_DELETE, IMMUNIZATION_VIEW, IMMUNIZATION_DELETE, PERSON_VIEW, CASE_VIEW, TASK_DELETE, TREATMENT_DELETE, THERAPY_VIEW, CLINICAL_VISIT_DELETE, ADDITIONAL_TEST_DELETE, CLINICAL_COURSE_VIEW, PATHOGEN_TEST_DELETE, SAMPLE_DELETE, DOCUMENT_DELETE, DOCUMENT_VIEW, PRESCRIPTION_DELETE, TASK_VIEW, PERSON_DELETE, SAMPLE_VIEW</t>
+    <t>THERAPY_VIEW, ADDITIONAL_TEST_VIEW, PRESCRIPTION_DELETE, DOCUMENT_DELETE, PATHOGEN_TEST_DELETE, PERSON_VIEW, CLINICAL_VISIT_DELETE, SAMPLE_VIEW, TREATMENT_DELETE, IMMUNIZATION_DELETE, SAMPLE_DELETE, CASE_VIEW, TASK_DELETE, CLINICAL_COURSE_VIEW, VISIT_DELETE, TASK_VIEW, PERSON_DELETE, ADDITIONAL_TEST_DELETE, DOCUMENT_VIEW, IMMUNIZATION_VIEW</t>
   </si>
   <si>
     <t>Import cases into SORMAS</t>
@@ -812,7 +812,7 @@
     <t>Able to edit case investigation status</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW, PERSON_EDIT, CASE_EDIT</t>
+    <t>CASE_VIEW, PERSON_VIEW, CASE_EDIT, PERSON_EDIT</t>
   </si>
   <si>
     <t>Edit case classification and outcome</t>
@@ -875,7 +875,7 @@
     <t>Able to create new immunizations and vaccinations</t>
   </si>
   <si>
-    <t>IMMUNIZATION_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, IMMUNIZATION_VIEW</t>
   </si>
   <si>
     <t>Edit existing immunizations and vaccinations</t>
@@ -884,7 +884,7 @@
     <t>Able to edit existing immunizations and vaccinations</t>
   </si>
   <si>
-    <t>IMMUNIZATION_VIEW, PERSON_VIEW, PERSON_EDIT</t>
+    <t>PERSON_VIEW, PERSON_EDIT, IMMUNIZATION_VIEW</t>
   </si>
   <si>
     <t>Archive immunizations</t>
@@ -899,7 +899,7 @@
     <t>Able to delete immunizations and vaccinations from the system</t>
   </si>
   <si>
-    <t>IMMUNIZATION_VIEW, VISIT_DELETE, PERSON_VIEW, PERSON_DELETE</t>
+    <t>PERSON_VIEW, VISIT_DELETE, PERSON_DELETE, IMMUNIZATION_VIEW</t>
   </si>
   <si>
     <t>Persons</t>
@@ -923,7 +923,7 @@
     <t>Able to delete persons from the system</t>
   </si>
   <si>
-    <t>VISIT_DELETE, PERSON_VIEW</t>
+    <t>PERSON_VIEW, VISIT_DELETE</t>
   </si>
   <si>
     <t>Export persons</t>
@@ -1064,7 +1064,7 @@
     <t>Able to create new contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW, CONTACT_VIEW</t>
+    <t>CONTACT_VIEW, CASE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing contacts</t>
@@ -1073,7 +1073,7 @@
     <t>Able to edit existing contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW, PERSON_EDIT, CONTACT_VIEW</t>
+    <t>CONTACT_VIEW, CASE_VIEW, PERSON_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Archive contacts</t>
@@ -1088,7 +1088,7 @@
     <t>Able to delete contacts from the system</t>
   </si>
   <si>
-    <t>ADDITIONAL_TEST_VIEW, VISIT_DELETE, PERSON_VIEW, CASE_VIEW, TASK_DELETE, ADDITIONAL_TEST_DELETE, PATHOGEN_TEST_DELETE, SAMPLE_DELETE, DOCUMENT_DELETE, CONTACT_VIEW, DOCUMENT_VIEW, TASK_VIEW, PERSON_DELETE, SAMPLE_VIEW</t>
+    <t>CONTACT_VIEW, ADDITIONAL_TEST_VIEW, DOCUMENT_DELETE, PATHOGEN_TEST_DELETE, PERSON_VIEW, SAMPLE_VIEW, SAMPLE_DELETE, TASK_DELETE, CASE_VIEW, VISIT_DELETE, TASK_VIEW, PERSON_DELETE, ADDITIONAL_TEST_DELETE, DOCUMENT_VIEW</t>
   </si>
   <si>
     <t>Import contacts</t>
@@ -1109,7 +1109,7 @@
     <t>Able to create resulting cases from contacts</t>
   </si>
   <si>
-    <t>CONTACT_EDIT, PERSON_VIEW, CASE_VIEW, CASE_CREATE, PERSON_EDIT, CONTACT_VIEW</t>
+    <t>CONTACT_EDIT, CONTACT_VIEW, CASE_VIEW, CASE_CREATE, PERSON_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Reassign the source case of contacts</t>
@@ -1118,7 +1118,7 @@
     <t>Able to reassign the source case of contacts</t>
   </si>
   <si>
-    <t>CONTACT_EDIT, PERSON_VIEW, CASE_VIEW, PERSON_EDIT, CONTACT_VIEW</t>
+    <t>CONTACT_EDIT, CONTACT_VIEW, CASE_VIEW, PERSON_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Merge contacts</t>
@@ -1220,7 +1220,7 @@
     <t>Able to delete actions from the system</t>
   </si>
   <si>
-    <t>EVENT_VIEW, DOCUMENT_DELETE, DOCUMENT_VIEW</t>
+    <t>DOCUMENT_DELETE, DOCUMENT_VIEW, EVENT_VIEW</t>
   </si>
   <si>
     <t>Edit existing actions</t>
@@ -1259,7 +1259,7 @@
     <t>Able to delete events from the system</t>
   </si>
   <si>
-    <t>ADDITIONAL_TEST_VIEW, EVENT_VIEW, VISIT_DELETE, PERSON_VIEW, TASK_DELETE, EVENTPARTICIPANT_VIEW, ADDITIONAL_TEST_DELETE, EVENTPARTICIPANT_DELETE, PATHOGEN_TEST_DELETE, SAMPLE_DELETE, DOCUMENT_DELETE, ACTION_DELETE, DOCUMENT_VIEW, TASK_VIEW, PERSON_DELETE, SAMPLE_VIEW</t>
+    <t>ACTION_DELETE, ADDITIONAL_TEST_VIEW, DOCUMENT_DELETE, PATHOGEN_TEST_DELETE, PERSON_VIEW, SAMPLE_VIEW, EVENT_VIEW, EVENTPARTICIPANT_DELETE, SAMPLE_DELETE, EVENTPARTICIPANT_VIEW, TASK_DELETE, VISIT_DELETE, TASK_VIEW, PERSON_DELETE, ADDITIONAL_TEST_DELETE, DOCUMENT_VIEW</t>
   </si>
   <si>
     <t>Import events</t>
@@ -1280,7 +1280,7 @@
     <t>Able to perform bulk operations in the event directory</t>
   </si>
   <si>
-    <t>EVENT_VIEW, EVENT_EDIT</t>
+    <t>EVENT_EDIT, EVENT_VIEW</t>
   </si>
   <si>
     <t>Can be responsible for an event</t>
@@ -1292,7 +1292,7 @@
     <t>Able to view existing event participants</t>
   </si>
   <si>
-    <t>EVENT_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, EVENT_VIEW</t>
   </si>
   <si>
     <t>Create new event participants</t>
@@ -1301,7 +1301,7 @@
     <t>Able to create new event participants</t>
   </si>
   <si>
-    <t>EVENT_VIEW, PERSON_VIEW, EVENTPARTICIPANT_VIEW</t>
+    <t>EVENTPARTICIPANT_VIEW, PERSON_VIEW, EVENT_VIEW</t>
   </si>
   <si>
     <t>Edit existing event participants</t>
@@ -1310,7 +1310,7 @@
     <t>Able to edit existing event participants</t>
   </si>
   <si>
-    <t>EVENT_VIEW, PERSON_VIEW, PERSON_EDIT, EVENTPARTICIPANT_VIEW</t>
+    <t>EVENTPARTICIPANT_VIEW, PERSON_VIEW, PERSON_EDIT, EVENT_VIEW</t>
   </si>
   <si>
     <t>Event participant archive</t>
@@ -1325,7 +1325,7 @@
     <t>Able to delete event participants from the system</t>
   </si>
   <si>
-    <t>ADDITIONAL_TEST_VIEW, EVENT_VIEW, VISIT_DELETE, PERSON_VIEW, PATHOGEN_TEST_DELETE, SAMPLE_DELETE, EVENTPARTICIPANT_VIEW, PERSON_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE</t>
+    <t>SAMPLE_DELETE, EVENTPARTICIPANT_VIEW, ADDITIONAL_TEST_VIEW, PATHOGEN_TEST_DELETE, PERSON_VIEW, VISIT_DELETE, PERSON_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE, EVENT_VIEW</t>
   </si>
   <si>
     <t>Import event participants</t>
@@ -1340,7 +1340,7 @@
     <t>Able to perform bulk operations in the event participants directory</t>
   </si>
   <si>
-    <t>EVENT_VIEW, PERSON_VIEW, PERSON_EDIT, EVENTPARTICIPANT_EDIT, EVENTPARTICIPANT_VIEW</t>
+    <t>EVENTPARTICIPANT_EDIT, EVENTPARTICIPANT_VIEW, PERSON_VIEW, PERSON_EDIT, EVENT_VIEW</t>
   </si>
   <si>
     <t>Create new event groups</t>
@@ -1484,7 +1484,7 @@
     <t>Able to view contact transmission chains on the dashboard</t>
   </si>
   <si>
-    <t>DASHBOARD_CONTACT_VIEW, PERSON_VIEW, CASE_VIEW, CONTACT_VIEW</t>
+    <t>CONTACT_VIEW, CASE_VIEW, PERSON_VIEW, DASHBOARD_CONTACT_VIEW</t>
   </si>
   <si>
     <t>Access campaigns dashboard</t>
@@ -1517,7 +1517,7 @@
     <t>Able to create new prescriptions</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW, THERAPY_VIEW</t>
+    <t>CASE_VIEW, THERAPY_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing prescriptions</t>
@@ -1562,7 +1562,7 @@
     <t>Able to edit the clinical course of cases</t>
   </si>
   <si>
-    <t>CLINICAL_COURSE_VIEW, PERSON_VIEW, CASE_VIEW, THERAPY_VIEW</t>
+    <t>CASE_VIEW, THERAPY_VIEW, CLINICAL_COURSE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Create new clinical visits</t>
@@ -1598,7 +1598,7 @@
     <t>Able to edit existing port health info</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW, PORT_HEALTH_INFO_VIEW</t>
+    <t>CASE_VIEW, PERSON_VIEW, PORT_HEALTH_INFO_VIEW</t>
   </si>
   <si>
     <t>Aggregated Reporting</t>
@@ -1688,7 +1688,7 @@
     <t>Able to delete campaigns from the system</t>
   </si>
   <si>
-    <t>CAMPAIGN_FORM_DATA_VIEW, CAMPAIGN_FORM_DATA_DELETE, CAMPAIGN_VIEW</t>
+    <t>CAMPAIGN_FORM_DATA_DELETE, CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_VIEW</t>
   </si>
   <si>
     <t>View existing campaign form data</t>
@@ -1745,7 +1745,7 @@
     <t>Able to create new travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW, TRAVEL_ENTRY_VIEW</t>
+    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing travel entries</t>
@@ -1754,7 +1754,7 @@
     <t>Able to edit existing travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW, PERSON_EDIT, TRAVEL_ENTRY_VIEW</t>
+    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW, PERSON_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Archive travel entries</t>
@@ -1769,7 +1769,7 @@
     <t>Able to delete travel entries from the system</t>
   </si>
   <si>
-    <t>VISIT_DELETE, TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW, TASK_DELETE, DOCUMENT_DELETE, DOCUMENT_VIEW, TRAVEL_ENTRY_VIEW, TASK_VIEW, PERSON_DELETE</t>
+    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, TASK_DELETE, TRAVEL_ENTRY_VIEW, DOCUMENT_DELETE, PERSON_VIEW, TASK_VIEW, VISIT_DELETE, PERSON_DELETE, DOCUMENT_VIEW</t>
   </si>
   <si>
     <t>Documents</t>
@@ -1907,7 +1907,7 @@
     <t>Able to work with messages</t>
   </si>
   <si>
-    <t>IMMUNIZATION_VIEW, VISIT_DELETE, EVENT_VIEW, IMMUNIZATION_DELETE, PERSON_VIEW, PATHOGEN_TEST_CREATE, EVENTPARTICIPANT_EDIT, EVENTPARTICIPANT_VIEW, EVENTPARTICIPANT_CREATE, PATHOGEN_TEST_EDIT, IMMUNIZATION_EDIT, CONTACT_CREATE, PERSON_EDIT, CASE_EDIT, SAMPLE_VIEW, CONTACT_EDIT, EVENT_CREATE, CASE_VIEW, CASE_CREATE, SAMPLE_EDIT, EVENT_EDIT, IMMUNIZATION_CREATE, EXTERNAL_MESSAGE_VIEW, PATHOGEN_TEST_DELETE, CONTACT_VIEW, SAMPLE_CREATE, PERSON_DELETE</t>
+    <t>EVENTPARTICIPANT_EDIT, EVENT_CREATE, SAMPLE_EDIT, PATHOGEN_TEST_DELETE, PERSON_EDIT, EVENT_VIEW, EVENTPARTICIPANT_VIEW, CASE_VIEW, CONTACT_CREATE, EVENT_EDIT, PERSON_DELETE, EVENTPARTICIPANT_CREATE, IMMUNIZATION_EDIT, SAMPLE_CREATE, CONTACT_VIEW, CASE_CREATE, PERSON_VIEW, PATHOGEN_TEST_CREATE, CASE_EDIT, SAMPLE_VIEW, IMMUNIZATION_DELETE, CONTACT_EDIT, EXTERNAL_MESSAGE_VIEW, PATHOGEN_TEST_EDIT, VISIT_DELETE, IMMUNIZATION_CREATE, IMMUNIZATION_VIEW</t>
   </si>
   <si>
     <t>Delete messages from the system</t>
@@ -2075,7 +2075,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.81.0-SNAPSHOT</t>
+    <t>1.82.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
@@ -767,7 +767,7 @@
     <t>Able to create new cases</t>
   </si>
   <si>
-    <t>CASE_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Edit existing cases</t>
@@ -776,7 +776,7 @@
     <t>Able to edit existing cases</t>
   </si>
   <si>
-    <t>CASE_VIEW, PERSON_VIEW, PERSON_EDIT</t>
+    <t>PERSON_VIEW, PERSON_EDIT, CASE_VIEW</t>
   </si>
   <si>
     <t>Archive cases</t>
@@ -791,7 +791,7 @@
     <t>Able to delete cases from the system</t>
   </si>
   <si>
-    <t>THERAPY_VIEW, ADDITIONAL_TEST_VIEW, PRESCRIPTION_DELETE, DOCUMENT_DELETE, PATHOGEN_TEST_DELETE, PERSON_VIEW, CLINICAL_VISIT_DELETE, SAMPLE_VIEW, TREATMENT_DELETE, IMMUNIZATION_DELETE, SAMPLE_DELETE, CASE_VIEW, TASK_DELETE, CLINICAL_COURSE_VIEW, VISIT_DELETE, TASK_VIEW, PERSON_DELETE, ADDITIONAL_TEST_DELETE, DOCUMENT_VIEW, IMMUNIZATION_VIEW</t>
+    <t>IMMUNIZATION_VIEW, PRESCRIPTION_DELETE, PERSON_VIEW, ADDITIONAL_TEST_VIEW, SAMPLE_DELETE, CLINICAL_VISIT_DELETE, SAMPLE_VIEW, TREATMENT_DELETE, IMMUNIZATION_DELETE, TASK_VIEW, VISIT_DELETE, CLINICAL_COURSE_VIEW, THERAPY_VIEW, DOCUMENT_VIEW, TASK_DELETE, ADDITIONAL_TEST_DELETE, PERSON_DELETE, PATHOGEN_TEST_DELETE, DOCUMENT_DELETE, CASE_VIEW</t>
   </si>
   <si>
     <t>Import cases into SORMAS</t>
@@ -812,7 +812,7 @@
     <t>Able to edit case investigation status</t>
   </si>
   <si>
-    <t>CASE_VIEW, PERSON_VIEW, CASE_EDIT, PERSON_EDIT</t>
+    <t>PERSON_VIEW, PERSON_EDIT, CASE_VIEW, CASE_EDIT</t>
   </si>
   <si>
     <t>Edit case classification and outcome</t>
@@ -875,7 +875,7 @@
     <t>Able to create new immunizations and vaccinations</t>
   </si>
   <si>
-    <t>PERSON_VIEW, IMMUNIZATION_VIEW</t>
+    <t>IMMUNIZATION_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing immunizations and vaccinations</t>
@@ -884,7 +884,7 @@
     <t>Able to edit existing immunizations and vaccinations</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT, IMMUNIZATION_VIEW</t>
+    <t>IMMUNIZATION_VIEW, PERSON_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Archive immunizations</t>
@@ -899,7 +899,7 @@
     <t>Able to delete immunizations and vaccinations from the system</t>
   </si>
   <si>
-    <t>PERSON_VIEW, VISIT_DELETE, PERSON_DELETE, IMMUNIZATION_VIEW</t>
+    <t>IMMUNIZATION_VIEW, VISIT_DELETE, PERSON_VIEW, PERSON_DELETE</t>
   </si>
   <si>
     <t>Persons</t>
@@ -923,7 +923,7 @@
     <t>Able to delete persons from the system</t>
   </si>
   <si>
-    <t>PERSON_VIEW, VISIT_DELETE</t>
+    <t>VISIT_DELETE, PERSON_VIEW</t>
   </si>
   <si>
     <t>Export persons</t>
@@ -974,7 +974,7 @@
     <t>Able to delete samples from the system</t>
   </si>
   <si>
-    <t>ADDITIONAL_TEST_VIEW, PATHOGEN_TEST_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE</t>
+    <t>ADDITIONAL_TEST_DELETE, ADDITIONAL_TEST_VIEW, PATHOGEN_TEST_DELETE, SAMPLE_VIEW</t>
   </si>
   <si>
     <t>Export samples from SORMAS</t>
@@ -1064,7 +1064,7 @@
     <t>Able to create new contacts</t>
   </si>
   <si>
-    <t>CONTACT_VIEW, CASE_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, CASE_VIEW, CONTACT_VIEW</t>
   </si>
   <si>
     <t>Edit existing contacts</t>
@@ -1073,7 +1073,7 @@
     <t>Able to edit existing contacts</t>
   </si>
   <si>
-    <t>CONTACT_VIEW, CASE_VIEW, PERSON_VIEW, PERSON_EDIT</t>
+    <t>PERSON_VIEW, PERSON_EDIT, CASE_VIEW, CONTACT_VIEW</t>
   </si>
   <si>
     <t>Archive contacts</t>
@@ -1088,7 +1088,7 @@
     <t>Able to delete contacts from the system</t>
   </si>
   <si>
-    <t>CONTACT_VIEW, ADDITIONAL_TEST_VIEW, DOCUMENT_DELETE, PATHOGEN_TEST_DELETE, PERSON_VIEW, SAMPLE_VIEW, SAMPLE_DELETE, TASK_DELETE, CASE_VIEW, VISIT_DELETE, TASK_VIEW, PERSON_DELETE, ADDITIONAL_TEST_DELETE, DOCUMENT_VIEW</t>
+    <t>PERSON_VIEW, ADDITIONAL_TEST_VIEW, SAMPLE_DELETE, SAMPLE_VIEW, CONTACT_VIEW, TASK_VIEW, VISIT_DELETE, DOCUMENT_VIEW, TASK_DELETE, ADDITIONAL_TEST_DELETE, PERSON_DELETE, PATHOGEN_TEST_DELETE, DOCUMENT_DELETE, CASE_VIEW</t>
   </si>
   <si>
     <t>Import contacts</t>
@@ -1109,7 +1109,7 @@
     <t>Able to create resulting cases from contacts</t>
   </si>
   <si>
-    <t>CONTACT_EDIT, CONTACT_VIEW, CASE_VIEW, CASE_CREATE, PERSON_VIEW, PERSON_EDIT</t>
+    <t>CONTACT_EDIT, PERSON_VIEW, PERSON_EDIT, CASE_VIEW, CASE_CREATE, CONTACT_VIEW</t>
   </si>
   <si>
     <t>Reassign the source case of contacts</t>
@@ -1118,7 +1118,7 @@
     <t>Able to reassign the source case of contacts</t>
   </si>
   <si>
-    <t>CONTACT_EDIT, CONTACT_VIEW, CASE_VIEW, PERSON_VIEW, PERSON_EDIT</t>
+    <t>CONTACT_EDIT, PERSON_VIEW, PERSON_EDIT, CASE_VIEW, CONTACT_VIEW</t>
   </si>
   <si>
     <t>Merge contacts</t>
@@ -1196,7 +1196,7 @@
     <t>Able to assign tasks to users</t>
   </si>
   <si>
-    <t>TASK_EDIT, TASK_VIEW</t>
+    <t>TASK_VIEW, TASK_EDIT</t>
   </si>
   <si>
     <t>Archive tasks</t>
@@ -1220,7 +1220,7 @@
     <t>Able to delete actions from the system</t>
   </si>
   <si>
-    <t>DOCUMENT_DELETE, DOCUMENT_VIEW, EVENT_VIEW</t>
+    <t>DOCUMENT_VIEW, EVENT_VIEW, DOCUMENT_DELETE</t>
   </si>
   <si>
     <t>Edit existing actions</t>
@@ -1259,7 +1259,7 @@
     <t>Able to delete events from the system</t>
   </si>
   <si>
-    <t>ACTION_DELETE, ADDITIONAL_TEST_VIEW, DOCUMENT_DELETE, PATHOGEN_TEST_DELETE, PERSON_VIEW, SAMPLE_VIEW, EVENT_VIEW, EVENTPARTICIPANT_DELETE, SAMPLE_DELETE, EVENTPARTICIPANT_VIEW, TASK_DELETE, VISIT_DELETE, TASK_VIEW, PERSON_DELETE, ADDITIONAL_TEST_DELETE, DOCUMENT_VIEW</t>
+    <t>PERSON_VIEW, ADDITIONAL_TEST_VIEW, SAMPLE_DELETE, SAMPLE_VIEW, EVENTPARTICIPANT_DELETE, TASK_VIEW, VISIT_DELETE, ACTION_DELETE, DOCUMENT_VIEW, TASK_DELETE, ADDITIONAL_TEST_DELETE, EVENTPARTICIPANT_VIEW, PERSON_DELETE, PATHOGEN_TEST_DELETE, EVENT_VIEW, DOCUMENT_DELETE</t>
   </si>
   <si>
     <t>Import events</t>
@@ -1301,7 +1301,7 @@
     <t>Able to create new event participants</t>
   </si>
   <si>
-    <t>EVENTPARTICIPANT_VIEW, PERSON_VIEW, EVENT_VIEW</t>
+    <t>PERSON_VIEW, EVENTPARTICIPANT_VIEW, EVENT_VIEW</t>
   </si>
   <si>
     <t>Edit existing event participants</t>
@@ -1310,7 +1310,7 @@
     <t>Able to edit existing event participants</t>
   </si>
   <si>
-    <t>EVENTPARTICIPANT_VIEW, PERSON_VIEW, PERSON_EDIT, EVENT_VIEW</t>
+    <t>PERSON_VIEW, PERSON_EDIT, EVENTPARTICIPANT_VIEW, EVENT_VIEW</t>
   </si>
   <si>
     <t>Event participant archive</t>
@@ -1325,7 +1325,7 @@
     <t>Able to delete event participants from the system</t>
   </si>
   <si>
-    <t>SAMPLE_DELETE, EVENTPARTICIPANT_VIEW, ADDITIONAL_TEST_VIEW, PATHOGEN_TEST_DELETE, PERSON_VIEW, VISIT_DELETE, PERSON_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE, EVENT_VIEW</t>
+    <t>VISIT_DELETE, PERSON_VIEW, ADDITIONAL_TEST_DELETE, ADDITIONAL_TEST_VIEW, EVENTPARTICIPANT_VIEW, PERSON_DELETE, PATHOGEN_TEST_DELETE, EVENT_VIEW, SAMPLE_DELETE, SAMPLE_VIEW</t>
   </si>
   <si>
     <t>Import event participants</t>
@@ -1340,7 +1340,7 @@
     <t>Able to perform bulk operations in the event participants directory</t>
   </si>
   <si>
-    <t>EVENTPARTICIPANT_EDIT, EVENTPARTICIPANT_VIEW, PERSON_VIEW, PERSON_EDIT, EVENT_VIEW</t>
+    <t>EVENTPARTICIPANT_EDIT, PERSON_VIEW, PERSON_EDIT, EVENTPARTICIPANT_VIEW, EVENT_VIEW</t>
   </si>
   <si>
     <t>Create new event groups</t>
@@ -1484,7 +1484,7 @@
     <t>Able to view contact transmission chains on the dashboard</t>
   </si>
   <si>
-    <t>CONTACT_VIEW, CASE_VIEW, PERSON_VIEW, DASHBOARD_CONTACT_VIEW</t>
+    <t>DASHBOARD_CONTACT_VIEW, PERSON_VIEW, CASE_VIEW, CONTACT_VIEW</t>
   </si>
   <si>
     <t>Access campaigns dashboard</t>
@@ -1517,7 +1517,7 @@
     <t>Able to create new prescriptions</t>
   </si>
   <si>
-    <t>CASE_VIEW, THERAPY_VIEW, PERSON_VIEW</t>
+    <t>THERAPY_VIEW, PERSON_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Edit existing prescriptions</t>
@@ -1562,7 +1562,7 @@
     <t>Able to edit the clinical course of cases</t>
   </si>
   <si>
-    <t>CASE_VIEW, THERAPY_VIEW, CLINICAL_COURSE_VIEW, PERSON_VIEW</t>
+    <t>CLINICAL_COURSE_VIEW, THERAPY_VIEW, PERSON_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Create new clinical visits</t>
@@ -1598,7 +1598,7 @@
     <t>Able to edit existing port health info</t>
   </si>
   <si>
-    <t>CASE_VIEW, PERSON_VIEW, PORT_HEALTH_INFO_VIEW</t>
+    <t>PERSON_VIEW, PORT_HEALTH_INFO_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Aggregated Reporting</t>
@@ -1688,7 +1688,7 @@
     <t>Able to delete campaigns from the system</t>
   </si>
   <si>
-    <t>CAMPAIGN_FORM_DATA_DELETE, CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_VIEW</t>
+    <t>CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_VIEW, CAMPAIGN_FORM_DATA_DELETE</t>
   </si>
   <si>
     <t>View existing campaign form data</t>
@@ -1745,7 +1745,7 @@
     <t>Able to create new travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW, PERSON_VIEW</t>
+    <t>TRAVEL_ENTRY_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing travel entries</t>
@@ -1754,7 +1754,7 @@
     <t>Able to edit existing travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW, PERSON_VIEW, PERSON_EDIT</t>
+    <t>TRAVEL_ENTRY_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Archive travel entries</t>
@@ -1769,7 +1769,7 @@
     <t>Able to delete travel entries from the system</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, TASK_DELETE, TRAVEL_ENTRY_VIEW, DOCUMENT_DELETE, PERSON_VIEW, TASK_VIEW, VISIT_DELETE, PERSON_DELETE, DOCUMENT_VIEW</t>
+    <t>TASK_VIEW, TRAVEL_ENTRY_VIEW, VISIT_DELETE, TRAVEL_ENTRY_MANAGEMENT_ACCESS, DOCUMENT_VIEW, PERSON_VIEW, TASK_DELETE, PERSON_DELETE, DOCUMENT_DELETE</t>
   </si>
   <si>
     <t>Documents</t>
@@ -1907,7 +1907,7 @@
     <t>Able to work with messages</t>
   </si>
   <si>
-    <t>EVENTPARTICIPANT_EDIT, EVENT_CREATE, SAMPLE_EDIT, PATHOGEN_TEST_DELETE, PERSON_EDIT, EVENT_VIEW, EVENTPARTICIPANT_VIEW, CASE_VIEW, CONTACT_CREATE, EVENT_EDIT, PERSON_DELETE, EVENTPARTICIPANT_CREATE, IMMUNIZATION_EDIT, SAMPLE_CREATE, CONTACT_VIEW, CASE_CREATE, PERSON_VIEW, PATHOGEN_TEST_CREATE, CASE_EDIT, SAMPLE_VIEW, IMMUNIZATION_DELETE, CONTACT_EDIT, EXTERNAL_MESSAGE_VIEW, PATHOGEN_TEST_EDIT, VISIT_DELETE, IMMUNIZATION_CREATE, IMMUNIZATION_VIEW</t>
+    <t>CONTACT_EDIT, IMMUNIZATION_VIEW, PERSON_VIEW, PERSON_EDIT, SAMPLE_VIEW, CASE_CREATE, PATHOGEN_TEST_EDIT, EVENTPARTICIPANT_EDIT, SAMPLE_CREATE, PATHOGEN_TEST_DELETE, EVENT_EDIT, EVENT_VIEW, EVENTPARTICIPANT_CREATE, CASE_EDIT, PATHOGEN_TEST_CREATE, CONTACT_VIEW, IMMUNIZATION_CREATE, EXTERNAL_MESSAGE_VIEW, SAMPLE_EDIT, IMMUNIZATION_DELETE, VISIT_DELETE, EVENTPARTICIPANT_VIEW, PERSON_DELETE, CONTACT_CREATE, EVENT_CREATE, CASE_VIEW, IMMUNIZATION_EDIT</t>
   </si>
   <si>
     <t>Delete messages from the system</t>
@@ -2075,7 +2075,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.82.0-SNAPSHOT</t>
+    <t>1.83.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
@@ -791,7 +791,7 @@
     <t>Able to delete cases from the system</t>
   </si>
   <si>
-    <t>IMMUNIZATION_VIEW, PRESCRIPTION_DELETE, PERSON_VIEW, ADDITIONAL_TEST_VIEW, SAMPLE_DELETE, CLINICAL_VISIT_DELETE, SAMPLE_VIEW, TREATMENT_DELETE, IMMUNIZATION_DELETE, TASK_VIEW, VISIT_DELETE, CLINICAL_COURSE_VIEW, THERAPY_VIEW, DOCUMENT_VIEW, TASK_DELETE, ADDITIONAL_TEST_DELETE, PERSON_DELETE, PATHOGEN_TEST_DELETE, DOCUMENT_DELETE, CASE_VIEW</t>
+    <t>CLINICAL_VISIT_DELETE, CLINICAL_COURSE_VIEW, TREATMENT_DELETE, ADDITIONAL_TEST_DELETE, IMMUNIZATION_DELETE, TASK_VIEW, CASE_VIEW, DOCUMENT_DELETE, PERSON_DELETE, PRESCRIPTION_DELETE, TASK_DELETE, PERSON_VIEW, DOCUMENT_VIEW, PATHOGEN_TEST_DELETE, VISIT_DELETE, SAMPLE_DELETE, ADDITIONAL_TEST_VIEW, SAMPLE_VIEW, THERAPY_VIEW, IMMUNIZATION_VIEW</t>
   </si>
   <si>
     <t>Import cases into SORMAS</t>
@@ -812,7 +812,7 @@
     <t>Able to edit case investigation status</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT, CASE_VIEW, CASE_EDIT</t>
+    <t>PERSON_VIEW, CASE_EDIT, PERSON_EDIT, CASE_VIEW</t>
   </si>
   <si>
     <t>Edit case classification and outcome</t>
@@ -875,7 +875,7 @@
     <t>Able to create new immunizations and vaccinations</t>
   </si>
   <si>
-    <t>IMMUNIZATION_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, IMMUNIZATION_VIEW</t>
   </si>
   <si>
     <t>Edit existing immunizations and vaccinations</t>
@@ -884,7 +884,7 @@
     <t>Able to edit existing immunizations and vaccinations</t>
   </si>
   <si>
-    <t>IMMUNIZATION_VIEW, PERSON_VIEW, PERSON_EDIT</t>
+    <t>PERSON_VIEW, PERSON_EDIT, IMMUNIZATION_VIEW</t>
   </si>
   <si>
     <t>Archive immunizations</t>
@@ -899,7 +899,7 @@
     <t>Able to delete immunizations and vaccinations from the system</t>
   </si>
   <si>
-    <t>IMMUNIZATION_VIEW, VISIT_DELETE, PERSON_VIEW, PERSON_DELETE</t>
+    <t>PERSON_VIEW, VISIT_DELETE, PERSON_DELETE, IMMUNIZATION_VIEW</t>
   </si>
   <si>
     <t>Persons</t>
@@ -923,7 +923,7 @@
     <t>Able to delete persons from the system</t>
   </si>
   <si>
-    <t>VISIT_DELETE, PERSON_VIEW</t>
+    <t>PERSON_VIEW, VISIT_DELETE</t>
   </si>
   <si>
     <t>Export persons</t>
@@ -974,7 +974,7 @@
     <t>Able to delete samples from the system</t>
   </si>
   <si>
-    <t>ADDITIONAL_TEST_DELETE, ADDITIONAL_TEST_VIEW, PATHOGEN_TEST_DELETE, SAMPLE_VIEW</t>
+    <t>PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_VIEW, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE</t>
   </si>
   <si>
     <t>Export samples from SORMAS</t>
@@ -989,7 +989,7 @@
     <t>Able to transfer samples to another lab</t>
   </si>
   <si>
-    <t>SAMPLE_EDIT, SAMPLE_VIEW</t>
+    <t>SAMPLE_VIEW, SAMPLE_EDIT</t>
   </si>
   <si>
     <t>Edit samples reported by other users</t>
@@ -1064,7 +1064,7 @@
     <t>Able to create new contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW, CONTACT_VIEW</t>
+    <t>PERSON_VIEW, CONTACT_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Edit existing contacts</t>
@@ -1073,7 +1073,7 @@
     <t>Able to edit existing contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT, CASE_VIEW, CONTACT_VIEW</t>
+    <t>PERSON_VIEW, CONTACT_VIEW, PERSON_EDIT, CASE_VIEW</t>
   </si>
   <si>
     <t>Archive contacts</t>
@@ -1088,7 +1088,7 @@
     <t>Able to delete contacts from the system</t>
   </si>
   <si>
-    <t>PERSON_VIEW, ADDITIONAL_TEST_VIEW, SAMPLE_DELETE, SAMPLE_VIEW, CONTACT_VIEW, TASK_VIEW, VISIT_DELETE, DOCUMENT_VIEW, TASK_DELETE, ADDITIONAL_TEST_DELETE, PERSON_DELETE, PATHOGEN_TEST_DELETE, DOCUMENT_DELETE, CASE_VIEW</t>
+    <t>ADDITIONAL_TEST_DELETE, TASK_VIEW, CASE_VIEW, DOCUMENT_DELETE, PERSON_DELETE, TASK_DELETE, PERSON_VIEW, DOCUMENT_VIEW, CONTACT_VIEW, PATHOGEN_TEST_DELETE, VISIT_DELETE, SAMPLE_DELETE, ADDITIONAL_TEST_VIEW, SAMPLE_VIEW</t>
   </si>
   <si>
     <t>Import contacts</t>
@@ -1109,7 +1109,7 @@
     <t>Able to create resulting cases from contacts</t>
   </si>
   <si>
-    <t>CONTACT_EDIT, PERSON_VIEW, PERSON_EDIT, CASE_VIEW, CASE_CREATE, CONTACT_VIEW</t>
+    <t>PERSON_VIEW, CONTACT_EDIT, CONTACT_VIEW, PERSON_EDIT, CASE_VIEW, CASE_CREATE</t>
   </si>
   <si>
     <t>Reassign the source case of contacts</t>
@@ -1118,7 +1118,7 @@
     <t>Able to reassign the source case of contacts</t>
   </si>
   <si>
-    <t>CONTACT_EDIT, PERSON_VIEW, PERSON_EDIT, CASE_VIEW, CONTACT_VIEW</t>
+    <t>PERSON_VIEW, CONTACT_EDIT, CONTACT_VIEW, PERSON_EDIT, CASE_VIEW</t>
   </si>
   <si>
     <t>Merge contacts</t>
@@ -1196,7 +1196,7 @@
     <t>Able to assign tasks to users</t>
   </si>
   <si>
-    <t>TASK_VIEW, TASK_EDIT</t>
+    <t>TASK_EDIT, TASK_VIEW</t>
   </si>
   <si>
     <t>Archive tasks</t>
@@ -1259,7 +1259,7 @@
     <t>Able to delete events from the system</t>
   </si>
   <si>
-    <t>PERSON_VIEW, ADDITIONAL_TEST_VIEW, SAMPLE_DELETE, SAMPLE_VIEW, EVENTPARTICIPANT_DELETE, TASK_VIEW, VISIT_DELETE, ACTION_DELETE, DOCUMENT_VIEW, TASK_DELETE, ADDITIONAL_TEST_DELETE, EVENTPARTICIPANT_VIEW, PERSON_DELETE, PATHOGEN_TEST_DELETE, EVENT_VIEW, DOCUMENT_DELETE</t>
+    <t>ADDITIONAL_TEST_DELETE, ACTION_DELETE, TASK_VIEW, DOCUMENT_DELETE, PERSON_DELETE, TASK_DELETE, PERSON_VIEW, DOCUMENT_VIEW, PATHOGEN_TEST_DELETE, VISIT_DELETE, EVENT_VIEW, SAMPLE_DELETE, ADDITIONAL_TEST_VIEW, EVENTPARTICIPANT_DELETE, EVENTPARTICIPANT_VIEW, SAMPLE_VIEW</t>
   </si>
   <si>
     <t>Import events</t>
@@ -1301,7 +1301,7 @@
     <t>Able to create new event participants</t>
   </si>
   <si>
-    <t>PERSON_VIEW, EVENTPARTICIPANT_VIEW, EVENT_VIEW</t>
+    <t>PERSON_VIEW, EVENT_VIEW, EVENTPARTICIPANT_VIEW</t>
   </si>
   <si>
     <t>Edit existing event participants</t>
@@ -1310,7 +1310,7 @@
     <t>Able to edit existing event participants</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT, EVENTPARTICIPANT_VIEW, EVENT_VIEW</t>
+    <t>PERSON_VIEW, PERSON_EDIT, EVENT_VIEW, EVENTPARTICIPANT_VIEW</t>
   </si>
   <si>
     <t>Event participant archive</t>
@@ -1325,7 +1325,7 @@
     <t>Able to delete event participants from the system</t>
   </si>
   <si>
-    <t>VISIT_DELETE, PERSON_VIEW, ADDITIONAL_TEST_DELETE, ADDITIONAL_TEST_VIEW, EVENTPARTICIPANT_VIEW, PERSON_DELETE, PATHOGEN_TEST_DELETE, EVENT_VIEW, SAMPLE_DELETE, SAMPLE_VIEW</t>
+    <t>PERSON_VIEW, PATHOGEN_TEST_DELETE, VISIT_DELETE, SAMPLE_DELETE, ADDITIONAL_TEST_VIEW, EVENT_VIEW, EVENTPARTICIPANT_VIEW, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE, PERSON_DELETE</t>
   </si>
   <si>
     <t>Import event participants</t>
@@ -1340,7 +1340,7 @@
     <t>Able to perform bulk operations in the event participants directory</t>
   </si>
   <si>
-    <t>EVENTPARTICIPANT_EDIT, PERSON_VIEW, PERSON_EDIT, EVENTPARTICIPANT_VIEW, EVENT_VIEW</t>
+    <t>PERSON_VIEW, EVENTPARTICIPANT_EDIT, PERSON_EDIT, EVENT_VIEW, EVENTPARTICIPANT_VIEW</t>
   </si>
   <si>
     <t>Create new event groups</t>
@@ -1484,7 +1484,7 @@
     <t>Able to view contact transmission chains on the dashboard</t>
   </si>
   <si>
-    <t>DASHBOARD_CONTACT_VIEW, PERSON_VIEW, CASE_VIEW, CONTACT_VIEW</t>
+    <t>PERSON_VIEW, DASHBOARD_CONTACT_VIEW, CONTACT_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Access campaigns dashboard</t>
@@ -1517,7 +1517,7 @@
     <t>Able to create new prescriptions</t>
   </si>
   <si>
-    <t>THERAPY_VIEW, PERSON_VIEW, CASE_VIEW</t>
+    <t>PERSON_VIEW, THERAPY_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Edit existing prescriptions</t>
@@ -1562,7 +1562,7 @@
     <t>Able to edit the clinical course of cases</t>
   </si>
   <si>
-    <t>CLINICAL_COURSE_VIEW, THERAPY_VIEW, PERSON_VIEW, CASE_VIEW</t>
+    <t>PERSON_VIEW, CLINICAL_COURSE_VIEW, THERAPY_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Create new clinical visits</t>
@@ -1688,7 +1688,7 @@
     <t>Able to delete campaigns from the system</t>
   </si>
   <si>
-    <t>CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_VIEW, CAMPAIGN_FORM_DATA_DELETE</t>
+    <t>CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_DELETE, CAMPAIGN_FORM_DATA_VIEW</t>
   </si>
   <si>
     <t>View existing campaign form data</t>
@@ -1736,7 +1736,7 @@
     <t>Able to view existing travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW</t>
+    <t>PERSON_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
   </si>
   <si>
     <t>Create new travel entries</t>
@@ -1745,7 +1745,7 @@
     <t>Able to create new travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW</t>
+    <t>PERSON_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW</t>
   </si>
   <si>
     <t>Edit existing travel entries</t>
@@ -1754,7 +1754,7 @@
     <t>Able to edit existing travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW, PERSON_EDIT</t>
+    <t>PERSON_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Archive travel entries</t>
@@ -1769,7 +1769,7 @@
     <t>Able to delete travel entries from the system</t>
   </si>
   <si>
-    <t>TASK_VIEW, TRAVEL_ENTRY_VIEW, VISIT_DELETE, TRAVEL_ENTRY_MANAGEMENT_ACCESS, DOCUMENT_VIEW, PERSON_VIEW, TASK_DELETE, PERSON_DELETE, DOCUMENT_DELETE</t>
+    <t>PERSON_VIEW, DOCUMENT_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, VISIT_DELETE, TRAVEL_ENTRY_VIEW, TASK_VIEW, DOCUMENT_DELETE, PERSON_DELETE, TASK_DELETE</t>
   </si>
   <si>
     <t>Documents</t>
@@ -1907,7 +1907,7 @@
     <t>Able to work with messages</t>
   </si>
   <si>
-    <t>CONTACT_EDIT, IMMUNIZATION_VIEW, PERSON_VIEW, PERSON_EDIT, SAMPLE_VIEW, CASE_CREATE, PATHOGEN_TEST_EDIT, EVENTPARTICIPANT_EDIT, SAMPLE_CREATE, PATHOGEN_TEST_DELETE, EVENT_EDIT, EVENT_VIEW, EVENTPARTICIPANT_CREATE, CASE_EDIT, PATHOGEN_TEST_CREATE, CONTACT_VIEW, IMMUNIZATION_CREATE, EXTERNAL_MESSAGE_VIEW, SAMPLE_EDIT, IMMUNIZATION_DELETE, VISIT_DELETE, EVENTPARTICIPANT_VIEW, PERSON_DELETE, CONTACT_CREATE, EVENT_CREATE, CASE_VIEW, IMMUNIZATION_EDIT</t>
+    <t>PATHOGEN_TEST_EDIT, EVENTPARTICIPANT_EDIT, CASE_VIEW, CASE_CREATE, SAMPLE_EDIT, PERSON_DELETE, PERSON_VIEW, CONTACT_EDIT, VISIT_DELETE, CASE_EDIT, SAMPLE_VIEW, EVENTPARTICIPANT_VIEW, IMMUNIZATION_VIEW, CONTACT_CREATE, EXTERNAL_MESSAGE_VIEW, PATHOGEN_TEST_CREATE, EVENT_EDIT, IMMUNIZATION_EDIT, EVENTPARTICIPANT_CREATE, SAMPLE_CREATE, PERSON_EDIT, IMMUNIZATION_DELETE, CONTACT_VIEW, PATHOGEN_TEST_DELETE, EVENT_VIEW, EVENT_CREATE, IMMUNIZATION_CREATE</t>
   </si>
   <si>
     <t>Delete messages from the system</t>
@@ -2075,7 +2075,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.83.0-SNAPSHOT</t>
+    <t>1.0.0</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
@@ -776,7 +776,7 @@
     <t>Able to edit existing cases</t>
   </si>
   <si>
-    <t>CASE_VIEW, PERSON_VIEW, PERSON_EDIT</t>
+    <t>CASE_VIEW, PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Archive cases</t>
@@ -791,7 +791,7 @@
     <t>Able to delete cases from the system</t>
   </si>
   <si>
-    <t>ADDITIONAL_TEST_VIEW, CASE_VIEW, PERSON_VIEW, CLINICAL_VISIT_DELETE, SAMPLE_VIEW, TASK_DELETE, DOCUMENT_DELETE, TREATMENT_DELETE, DOCUMENT_VIEW, IMMUNIZATION_VIEW, IMMUNIZATION_DELETE, THERAPY_VIEW, ADDITIONAL_TEST_DELETE, VISIT_DELETE, PERSON_DELETE, TASK_VIEW, PATHOGEN_TEST_DELETE, PRESCRIPTION_DELETE, CLINICAL_COURSE_VIEW, SAMPLE_DELETE</t>
+    <t>CLINICAL_COURSE_VIEW, TASK_DELETE, SAMPLE_DELETE, PATHOGEN_TEST_DELETE, PERSON_DELETE, ADDITIONAL_TEST_VIEW, IMMUNIZATION_VIEW, IMMUNIZATION_DELETE, TASK_VIEW, CLINICAL_VISIT_DELETE, ADDITIONAL_TEST_DELETE, DOCUMENT_VIEW, THERAPY_VIEW, PRESCRIPTION_DELETE, CASE_VIEW, DOCUMENT_DELETE, VISIT_DELETE, SAMPLE_VIEW, TREATMENT_DELETE, PERSON_VIEW</t>
   </si>
   <si>
     <t>Import cases into SORMAS</t>
@@ -812,7 +812,7 @@
     <t>Able to edit case investigation status</t>
   </si>
   <si>
-    <t>CASE_VIEW, PERSON_VIEW, CASE_EDIT, PERSON_EDIT</t>
+    <t>CASE_VIEW, CASE_EDIT, PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit case classification and outcome</t>
@@ -875,7 +875,7 @@
     <t>Able to create new immunizations and vaccinations</t>
   </si>
   <si>
-    <t>PERSON_VIEW, IMMUNIZATION_VIEW</t>
+    <t>IMMUNIZATION_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing immunizations and vaccinations</t>
@@ -884,7 +884,7 @@
     <t>Able to edit existing immunizations and vaccinations</t>
   </si>
   <si>
-    <t>PERSON_VIEW, IMMUNIZATION_VIEW, PERSON_EDIT</t>
+    <t>IMMUNIZATION_VIEW, PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Archive immunizations</t>
@@ -899,7 +899,7 @@
     <t>Able to delete immunizations and vaccinations from the system</t>
   </si>
   <si>
-    <t>PERSON_DELETE, PERSON_VIEW, VISIT_DELETE, IMMUNIZATION_VIEW</t>
+    <t>VISIT_DELETE, PERSON_DELETE, IMMUNIZATION_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Persons</t>
@@ -923,7 +923,7 @@
     <t>Able to delete persons from the system</t>
   </si>
   <si>
-    <t>PERSON_VIEW, VISIT_DELETE</t>
+    <t>VISIT_DELETE, PERSON_VIEW</t>
   </si>
   <si>
     <t>Export persons</t>
@@ -938,7 +938,7 @@
     <t>Able to delete person contact details</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT</t>
+    <t>PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Merge persons</t>
@@ -974,7 +974,7 @@
     <t>Able to delete samples from the system</t>
   </si>
   <si>
-    <t>ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE, PATHOGEN_TEST_DELETE, SAMPLE_VIEW</t>
+    <t>PATHOGEN_TEST_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE</t>
   </si>
   <si>
     <t>Export samples from SORMAS</t>
@@ -989,7 +989,7 @@
     <t>Able to transfer samples to another lab</t>
   </si>
   <si>
-    <t>SAMPLE_VIEW, SAMPLE_EDIT</t>
+    <t>SAMPLE_EDIT, SAMPLE_VIEW</t>
   </si>
   <si>
     <t>Edit samples reported by other users</t>
@@ -1034,7 +1034,7 @@
     <t>Able to create new additional tests</t>
   </si>
   <si>
-    <t>ADDITIONAL_TEST_VIEW, SAMPLE_VIEW</t>
+    <t>SAMPLE_VIEW, ADDITIONAL_TEST_VIEW</t>
   </si>
   <si>
     <t>Edit existing additional tests</t>
@@ -1064,7 +1064,7 @@
     <t>Able to create new contacts</t>
   </si>
   <si>
-    <t>CONTACT_VIEW, CASE_VIEW, PERSON_VIEW</t>
+    <t>CASE_VIEW, CONTACT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing contacts</t>
@@ -1073,7 +1073,7 @@
     <t>Able to edit existing contacts</t>
   </si>
   <si>
-    <t>CONTACT_VIEW, CASE_VIEW, PERSON_VIEW, PERSON_EDIT</t>
+    <t>CASE_VIEW, CONTACT_VIEW, PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Archive contacts</t>
@@ -1088,7 +1088,7 @@
     <t>Able to delete contacts from the system</t>
   </si>
   <si>
-    <t>ADDITIONAL_TEST_VIEW, CONTACT_VIEW, CASE_VIEW, PERSON_VIEW, SAMPLE_VIEW, TASK_DELETE, DOCUMENT_DELETE, DOCUMENT_VIEW, ADDITIONAL_TEST_DELETE, VISIT_DELETE, PERSON_DELETE, TASK_VIEW, PATHOGEN_TEST_DELETE, SAMPLE_DELETE</t>
+    <t>TASK_DELETE, SAMPLE_DELETE, PATHOGEN_TEST_DELETE, PERSON_DELETE, ADDITIONAL_TEST_VIEW, TASK_VIEW, ADDITIONAL_TEST_DELETE, DOCUMENT_VIEW, DOCUMENT_DELETE, CASE_VIEW, CONTACT_VIEW, VISIT_DELETE, SAMPLE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Import contacts</t>
@@ -1109,7 +1109,7 @@
     <t>Able to create resulting cases from contacts</t>
   </si>
   <si>
-    <t>CONTACT_VIEW, CASE_VIEW, PERSON_VIEW, CONTACT_EDIT, CASE_CREATE, PERSON_EDIT</t>
+    <t>CASE_VIEW, CONTACT_VIEW, CASE_CREATE, PERSON_EDIT, CONTACT_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Reassign the source case of contacts</t>
@@ -1118,7 +1118,7 @@
     <t>Able to reassign the source case of contacts</t>
   </si>
   <si>
-    <t>CONTACT_VIEW, CASE_VIEW, PERSON_VIEW, CONTACT_EDIT, PERSON_EDIT</t>
+    <t>CASE_VIEW, CONTACT_VIEW, PERSON_EDIT, CONTACT_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Merge contacts</t>
@@ -1259,7 +1259,7 @@
     <t>Able to delete events from the system</t>
   </si>
   <si>
-    <t>ADDITIONAL_TEST_VIEW, EVENTPARTICIPANT_VIEW, PERSON_VIEW, SAMPLE_VIEW, ACTION_DELETE, TASK_DELETE, DOCUMENT_DELETE, DOCUMENT_VIEW, ADDITIONAL_TEST_DELETE, TASK_VIEW, PERSON_DELETE, VISIT_DELETE, PATHOGEN_TEST_DELETE, EVENT_VIEW, EVENTPARTICIPANT_DELETE, SAMPLE_DELETE</t>
+    <t>TASK_DELETE, SAMPLE_DELETE, PATHOGEN_TEST_DELETE, EVENTPARTICIPANT_DELETE, EVENTPARTICIPANT_VIEW, PERSON_DELETE, ADDITIONAL_TEST_VIEW, TASK_VIEW, DOCUMENT_VIEW, ADDITIONAL_TEST_DELETE, DOCUMENT_DELETE, VISIT_DELETE, SAMPLE_VIEW, EVENT_VIEW, ACTION_DELETE, PERSON_VIEW</t>
   </si>
   <si>
     <t>Import events</t>
@@ -1280,7 +1280,7 @@
     <t>Able to perform bulk operations in the event directory</t>
   </si>
   <si>
-    <t>EVENT_EDIT, EVENT_VIEW</t>
+    <t>EVENT_VIEW, EVENT_EDIT</t>
   </si>
   <si>
     <t>Can be responsible for an event</t>
@@ -1292,7 +1292,7 @@
     <t>Able to view existing event participants</t>
   </si>
   <si>
-    <t>PERSON_VIEW, EVENT_VIEW</t>
+    <t>EVENT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Create new event participants</t>
@@ -1301,7 +1301,7 @@
     <t>Able to create new event participants</t>
   </si>
   <si>
-    <t>EVENTPARTICIPANT_VIEW, PERSON_VIEW, EVENT_VIEW</t>
+    <t>EVENTPARTICIPANT_VIEW, EVENT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing event participants</t>
@@ -1310,7 +1310,7 @@
     <t>Able to edit existing event participants</t>
   </si>
   <si>
-    <t>EVENTPARTICIPANT_VIEW, PERSON_VIEW, EVENT_VIEW, PERSON_EDIT</t>
+    <t>EVENTPARTICIPANT_VIEW, PERSON_EDIT, EVENT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Event participant archive</t>
@@ -1325,7 +1325,7 @@
     <t>Able to delete event participants from the system</t>
   </si>
   <si>
-    <t>ADDITIONAL_TEST_VIEW, EVENTPARTICIPANT_VIEW, ADDITIONAL_TEST_DELETE, PERSON_DELETE, PERSON_VIEW, VISIT_DELETE, PATHOGEN_TEST_DELETE, SAMPLE_VIEW, EVENT_VIEW, SAMPLE_DELETE</t>
+    <t>SAMPLE_DELETE, VISIT_DELETE, PATHOGEN_TEST_DELETE, EVENTPARTICIPANT_VIEW, PERSON_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, EVENT_VIEW, ADDITIONAL_TEST_DELETE, PERSON_VIEW</t>
   </si>
   <si>
     <t>Import event participants</t>
@@ -1340,7 +1340,7 @@
     <t>Able to perform bulk operations in the event participants directory</t>
   </si>
   <si>
-    <t>EVENTPARTICIPANT_EDIT, EVENTPARTICIPANT_VIEW, PERSON_VIEW, EVENT_VIEW, PERSON_EDIT</t>
+    <t>EVENTPARTICIPANT_EDIT, EVENTPARTICIPANT_VIEW, PERSON_EDIT, EVENT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Create new event groups</t>
@@ -1484,7 +1484,7 @@
     <t>Able to view contact transmission chains on the dashboard</t>
   </si>
   <si>
-    <t>CONTACT_VIEW, CASE_VIEW, PERSON_VIEW, DASHBOARD_CONTACT_VIEW</t>
+    <t>CASE_VIEW, CONTACT_VIEW, DASHBOARD_CONTACT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Access campaigns dashboard</t>
@@ -1517,7 +1517,7 @@
     <t>Able to create new prescriptions</t>
   </si>
   <si>
-    <t>CASE_VIEW, PERSON_VIEW, THERAPY_VIEW</t>
+    <t>THERAPY_VIEW, CASE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing prescriptions</t>
@@ -1562,7 +1562,7 @@
     <t>Able to edit the clinical course of cases</t>
   </si>
   <si>
-    <t>CASE_VIEW, PERSON_VIEW, CLINICAL_COURSE_VIEW, THERAPY_VIEW</t>
+    <t>CLINICAL_COURSE_VIEW, THERAPY_VIEW, CASE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Create new clinical visits</t>
@@ -1598,7 +1598,7 @@
     <t>Able to edit existing port health info</t>
   </si>
   <si>
-    <t>CASE_VIEW, PERSON_VIEW, PORT_HEALTH_INFO_VIEW</t>
+    <t>PORT_HEALTH_INFO_VIEW, CASE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Aggregated Reporting</t>
@@ -1688,7 +1688,7 @@
     <t>Able to delete campaigns from the system</t>
   </si>
   <si>
-    <t>CAMPAIGN_FORM_DATA_VIEW, CAMPAIGN_FORM_DATA_DELETE, CAMPAIGN_VIEW</t>
+    <t>CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_DELETE, CAMPAIGN_FORM_DATA_VIEW</t>
   </si>
   <si>
     <t>View existing campaign form data</t>
@@ -1754,7 +1754,7 @@
     <t>Able to edit existing travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW, PERSON_EDIT</t>
+    <t>TRAVEL_ENTRY_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Archive travel entries</t>
@@ -1769,7 +1769,7 @@
     <t>Able to delete travel entries from the system</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_DELETE, PERSON_VIEW, VISIT_DELETE, TASK_VIEW, TASK_DELETE, DOCUMENT_DELETE, DOCUMENT_VIEW</t>
+    <t>TASK_DELETE, DOCUMENT_DELETE, VISIT_DELETE, TRAVEL_ENTRY_VIEW, PERSON_DELETE, TRAVEL_ENTRY_MANAGEMENT_ACCESS, TASK_VIEW, DOCUMENT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Documents</t>
@@ -1907,7 +1907,7 @@
     <t>Able to work with messages</t>
   </si>
   <si>
-    <t>CONTACT_VIEW, CASE_VIEW, SAMPLE_CREATE, IMMUNIZATION_DELETE, CONTACT_CREATE, PERSON_EDIT, PATHOGEN_TEST_DELETE, VISIT_DELETE, EVENT_VIEW, PATHOGEN_TEST_CREATE, EVENTPARTICIPANT_EDIT, EVENTPARTICIPANT_VIEW, EVENTPARTICIPANT_CREATE, PERSON_VIEW, EXTERNAL_MESSAGE_VIEW, PATHOGEN_TEST_EDIT, SAMPLE_VIEW, CONTACT_EDIT, IMMUNIZATION_VIEW, CASE_EDIT, SAMPLE_EDIT, PERSON_DELETE, EVENT_EDIT, CASE_CREATE, EVENT_CREATE, IMMUNIZATION_CREATE, IMMUNIZATION_EDIT</t>
+    <t>EVENTPARTICIPANT_VIEW, IMMUNIZATION_DELETE, EVENT_EDIT, IMMUNIZATION_EDIT, IMMUNIZATION_CREATE, VISIT_DELETE, SAMPLE_CREATE, PATHOGEN_TEST_EDIT, CONTACT_EDIT, PERSON_VIEW, EVENTPARTICIPANT_EDIT, PATHOGEN_TEST_CREATE, PATHOGEN_TEST_DELETE, EXTERNAL_MESSAGE_VIEW, EVENT_CREATE, PERSON_DELETE, CASE_EDIT, IMMUNIZATION_VIEW, PERSON_EDIT, SAMPLE_EDIT, CONTACT_CREATE, CASE_VIEW, EVENTPARTICIPANT_CREATE, CONTACT_VIEW, SAMPLE_VIEW, CASE_CREATE, EVENT_VIEW</t>
   </si>
   <si>
     <t>Delete messages from the system</t>
@@ -2075,7 +2075,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.84.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
@@ -794,7 +794,7 @@
     <t>Able to create new cases</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing cases</t>
@@ -803,7 +803,7 @@
     <t>Able to edit existing cases</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW, PERSON_EDIT</t>
+    <t>CASE_VIEW, PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Archive cases</t>
@@ -818,7 +818,7 @@
     <t>Able to delete cases from the system</t>
   </si>
   <si>
-    <t>TREATMENT_DELETE, SAMPLE_VIEW, VISIT_DELETE, PRESCRIPTION_DELETE, CASE_VIEW, PATHOGEN_TEST_DELETE, IMMUNIZATION_DELETE, DOCUMENT_VIEW, CLINICAL_VISIT_DELETE, DOCUMENT_DELETE, PERSON_VIEW, TASK_VIEW, THERAPY_VIEW, SAMPLE_DELETE, TASK_DELETE, ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE, PERSON_DELETE, CLINICAL_COURSE_VIEW, IMMUNIZATION_VIEW</t>
+    <t>SAMPLE_DELETE, THERAPY_VIEW, VISIT_DELETE, TREATMENT_DELETE, DOCUMENT_DELETE, ADDITIONAL_TEST_DELETE, CLINICAL_COURSE_VIEW, TASK_DELETE, PERSON_VIEW, IMMUNIZATION_VIEW, CASE_VIEW, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, PERSON_DELETE, IMMUNIZATION_DELETE, PATHOGEN_TEST_DELETE, PRESCRIPTION_DELETE, DOCUMENT_VIEW, CLINICAL_VISIT_DELETE, TASK_VIEW</t>
   </si>
   <si>
     <t>Import cases into SORMAS</t>
@@ -839,7 +839,7 @@
     <t>Able to edit case investigation status</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_EDIT, CASE_VIEW, PERSON_EDIT</t>
+    <t>CASE_VIEW, PERSON_EDIT, PERSON_VIEW, CASE_EDIT</t>
   </si>
   <si>
     <t>Edit case classification and outcome</t>
@@ -911,7 +911,7 @@
     <t>Able to edit existing immunizations and vaccinations</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT, IMMUNIZATION_VIEW</t>
+    <t>PERSON_EDIT, PERSON_VIEW, IMMUNIZATION_VIEW</t>
   </si>
   <si>
     <t>Archive immunizations</t>
@@ -926,7 +926,7 @@
     <t>Able to delete immunizations and vaccinations from the system</t>
   </si>
   <si>
-    <t>PERSON_VIEW, VISIT_DELETE, IMMUNIZATION_VIEW, PERSON_DELETE</t>
+    <t>VISIT_DELETE, PERSON_VIEW, PERSON_DELETE, IMMUNIZATION_VIEW</t>
   </si>
   <si>
     <t>Persons</t>
@@ -950,7 +950,7 @@
     <t>Able to delete persons from the system</t>
   </si>
   <si>
-    <t>PERSON_VIEW, VISIT_DELETE</t>
+    <t>VISIT_DELETE, PERSON_VIEW</t>
   </si>
   <si>
     <t>Export persons</t>
@@ -965,7 +965,7 @@
     <t>Able to delete person contact details</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT</t>
+    <t>PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Merge persons</t>
@@ -1001,7 +1001,7 @@
     <t>Able to delete samples from the system</t>
   </si>
   <si>
-    <t>SAMPLE_VIEW, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE</t>
+    <t>SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE, PATHOGEN_TEST_DELETE</t>
   </si>
   <si>
     <t>Export samples from SORMAS</t>
@@ -1091,7 +1091,7 @@
     <t>Able to create new contacts</t>
   </si>
   <si>
-    <t>CONTACT_VIEW, PERSON_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, CONTACT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing contacts</t>
@@ -1100,7 +1100,7 @@
     <t>Able to edit existing contacts</t>
   </si>
   <si>
-    <t>CONTACT_VIEW, PERSON_VIEW, CASE_VIEW, PERSON_EDIT</t>
+    <t>CASE_VIEW, CONTACT_VIEW, PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Archive contacts</t>
@@ -1115,7 +1115,7 @@
     <t>Able to delete contacts from the system</t>
   </si>
   <si>
-    <t>SAMPLE_VIEW, CONTACT_VIEW, VISIT_DELETE, CASE_VIEW, PATHOGEN_TEST_DELETE, DOCUMENT_VIEW, DOCUMENT_DELETE, PERSON_VIEW, TASK_VIEW, SAMPLE_DELETE, TASK_DELETE, ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE, PERSON_DELETE</t>
+    <t>SAMPLE_DELETE, CONTACT_VIEW, VISIT_DELETE, DOCUMENT_DELETE, ADDITIONAL_TEST_DELETE, TASK_DELETE, PERSON_VIEW, SAMPLE_VIEW, CASE_VIEW, ADDITIONAL_TEST_VIEW, PERSON_DELETE, PATHOGEN_TEST_DELETE, DOCUMENT_VIEW, TASK_VIEW</t>
   </si>
   <si>
     <t>Import contacts</t>
@@ -1136,7 +1136,7 @@
     <t>Able to create resulting cases from contacts</t>
   </si>
   <si>
-    <t>CONTACT_EDIT, CONTACT_VIEW, PERSON_VIEW, CASE_VIEW, CASE_CREATE, PERSON_EDIT</t>
+    <t>CASE_VIEW, CONTACT_EDIT, CONTACT_VIEW, CASE_CREATE, PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Reassign the source case of contacts</t>
@@ -1145,7 +1145,7 @@
     <t>Able to reassign the source case of contacts</t>
   </si>
   <si>
-    <t>CONTACT_EDIT, CONTACT_VIEW, PERSON_VIEW, CASE_VIEW, PERSON_EDIT</t>
+    <t>CASE_VIEW, CONTACT_EDIT, CONTACT_VIEW, PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Merge contacts</t>
@@ -1223,7 +1223,7 @@
     <t>Able to assign tasks to users</t>
   </si>
   <si>
-    <t>TASK_VIEW, TASK_EDIT</t>
+    <t>TASK_EDIT, TASK_VIEW</t>
   </si>
   <si>
     <t>Archive tasks</t>
@@ -1286,7 +1286,7 @@
     <t>Able to delete events from the system</t>
   </si>
   <si>
-    <t>SAMPLE_VIEW, EVENTPARTICIPANT_VIEW, EVENT_VIEW, VISIT_DELETE, PATHOGEN_TEST_DELETE, DOCUMENT_VIEW, DOCUMENT_DELETE, PERSON_VIEW, TASK_VIEW, EVENTPARTICIPANT_DELETE, ACTION_DELETE, SAMPLE_DELETE, TASK_DELETE, ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE, PERSON_DELETE</t>
+    <t>SAMPLE_DELETE, VISIT_DELETE, EVENTPARTICIPANT_DELETE, DOCUMENT_DELETE, ADDITIONAL_TEST_DELETE, TASK_DELETE, PERSON_VIEW, SAMPLE_VIEW, ACTION_DELETE, ADDITIONAL_TEST_VIEW, EVENT_VIEW, PERSON_DELETE, PATHOGEN_TEST_DELETE, DOCUMENT_VIEW, TASK_VIEW, EVENTPARTICIPANT_VIEW</t>
   </si>
   <si>
     <t>Import events</t>
@@ -1328,7 +1328,7 @@
     <t>Able to create new event participants</t>
   </si>
   <si>
-    <t>PERSON_VIEW, EVENTPARTICIPANT_VIEW, EVENT_VIEW</t>
+    <t>PERSON_VIEW, EVENT_VIEW, EVENTPARTICIPANT_VIEW</t>
   </si>
   <si>
     <t>Edit existing event participants</t>
@@ -1337,7 +1337,7 @@
     <t>Able to edit existing event participants</t>
   </si>
   <si>
-    <t>PERSON_VIEW, EVENTPARTICIPANT_VIEW, EVENT_VIEW, PERSON_EDIT</t>
+    <t>PERSON_EDIT, PERSON_VIEW, EVENT_VIEW, EVENTPARTICIPANT_VIEW</t>
   </si>
   <si>
     <t>Event participant archive</t>
@@ -1352,7 +1352,7 @@
     <t>Able to delete event participants from the system</t>
   </si>
   <si>
-    <t>SAMPLE_VIEW, PERSON_VIEW, EVENTPARTICIPANT_VIEW, EVENT_VIEW, VISIT_DELETE, SAMPLE_DELETE, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE, PERSON_DELETE</t>
+    <t>SAMPLE_DELETE, SAMPLE_VIEW, VISIT_DELETE, ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE, PERSON_VIEW, PERSON_DELETE, PATHOGEN_TEST_DELETE, EVENT_VIEW, EVENTPARTICIPANT_VIEW</t>
   </si>
   <si>
     <t>Import event participants</t>
@@ -1367,7 +1367,7 @@
     <t>Able to perform bulk operations in the event participants directory</t>
   </si>
   <si>
-    <t>PERSON_VIEW, EVENTPARTICIPANT_VIEW, EVENT_VIEW, EVENTPARTICIPANT_EDIT, PERSON_EDIT</t>
+    <t>PERSON_EDIT, PERSON_VIEW, EVENT_VIEW, EVENTPARTICIPANT_EDIT, EVENTPARTICIPANT_VIEW</t>
   </si>
   <si>
     <t>Create new event groups</t>
@@ -1514,7 +1514,7 @@
     <t>Able to view contact transmission chains on the dashboard</t>
   </si>
   <si>
-    <t>CONTACT_VIEW, PERSON_VIEW, DASHBOARD_CONTACT_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, CONTACT_VIEW, PERSON_VIEW, DASHBOARD_CONTACT_VIEW</t>
   </si>
   <si>
     <t>Access campaigns dashboard</t>
@@ -1547,7 +1547,7 @@
     <t>Able to create new prescriptions</t>
   </si>
   <si>
-    <t>PERSON_VIEW, THERAPY_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, THERAPY_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing prescriptions</t>
@@ -1592,7 +1592,7 @@
     <t>Able to edit the clinical course of cases</t>
   </si>
   <si>
-    <t>PERSON_VIEW, THERAPY_VIEW, CASE_VIEW, CLINICAL_COURSE_VIEW</t>
+    <t>CASE_VIEW, THERAPY_VIEW, CLINICAL_COURSE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Create new clinical visits</t>
@@ -1628,7 +1628,7 @@
     <t>Able to edit existing port health info</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW, PORT_HEALTH_INFO_VIEW</t>
+    <t>PORT_HEALTH_INFO_VIEW, CASE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Aggregated Reporting</t>
@@ -1718,7 +1718,7 @@
     <t>Able to delete campaigns from the system</t>
   </si>
   <si>
-    <t>CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_DELETE, CAMPAIGN_FORM_DATA_VIEW</t>
+    <t>CAMPAIGN_FORM_DATA_DELETE, CAMPAIGN_FORM_DATA_VIEW, CAMPAIGN_VIEW</t>
   </si>
   <si>
     <t>View existing campaign form data</t>
@@ -1775,7 +1775,7 @@
     <t>Able to create new travel entries</t>
   </si>
   <si>
-    <t>PERSON_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW</t>
+    <t>PERSON_VIEW, TRAVEL_ENTRY_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
   </si>
   <si>
     <t>Edit existing travel entries</t>
@@ -1784,7 +1784,7 @@
     <t>Able to edit existing travel entries</t>
   </si>
   <si>
-    <t>PERSON_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW, PERSON_EDIT</t>
+    <t>PERSON_EDIT, PERSON_VIEW, TRAVEL_ENTRY_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
   </si>
   <si>
     <t>Archive travel entries</t>
@@ -1799,7 +1799,7 @@
     <t>Able to delete travel entries from the system</t>
   </si>
   <si>
-    <t>DOCUMENT_DELETE, TASK_VIEW, PERSON_VIEW, VISIT_DELETE, TASK_DELETE, TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW, PERSON_DELETE, DOCUMENT_VIEW</t>
+    <t>VISIT_DELETE, DOCUMENT_DELETE, TASK_DELETE, PERSON_VIEW, TRAVEL_ENTRY_VIEW, PERSON_DELETE, TRAVEL_ENTRY_MANAGEMENT_ACCESS, DOCUMENT_VIEW, TASK_VIEW</t>
   </si>
   <si>
     <t>Environments</t>
@@ -1982,7 +1982,7 @@
     <t>Able to work with messages</t>
   </si>
   <si>
-    <t>CONTACT_EDIT, SAMPLE_VIEW, CONTACT_VIEW, IMMUNIZATION_DELETE, IMMUNIZATION_CREATE, CASE_EDIT, EVENT_CREATE, SAMPLE_EDIT, PATHOGEN_TEST_CREATE, PERSON_EDIT, IMMUNIZATION_VIEW, PERSON_DELETE, EVENT_EDIT, EVENTPARTICIPANT_VIEW, CONTACT_CREATE, EVENTPARTICIPANT_CREATE, EVENT_VIEW, VISIT_DELETE, PATHOGEN_TEST_DELETE, CASE_VIEW, CASE_CREATE, EXTERNAL_MESSAGE_VIEW, PERSON_VIEW, SAMPLE_CREATE, EVENTPARTICIPANT_EDIT, PATHOGEN_TEST_EDIT, IMMUNIZATION_EDIT</t>
+    <t>VISIT_DELETE, PERSON_EDIT, EXTERNAL_MESSAGE_VIEW, IMMUNIZATION_VIEW, IMMUNIZATION_CREATE, EVENT_CREATE, CONTACT_CREATE, SAMPLE_CREATE, PATHOGEN_TEST_DELETE, EVENTPARTICIPANT_EDIT, EVENTPARTICIPANT_VIEW, CONTACT_EDIT, PATHOGEN_TEST_EDIT, CONTACT_VIEW, CASE_CREATE, PATHOGEN_TEST_CREATE, EVENTPARTICIPANT_CREATE, PERSON_VIEW, CASE_VIEW, SAMPLE_VIEW, SAMPLE_EDIT, EVENT_EDIT, IMMUNIZATION_EDIT, CASE_EDIT, IMMUNIZATION_DELETE, EVENT_VIEW, PERSON_DELETE</t>
   </si>
   <si>
     <t>Push external messages to the system</t>
@@ -2156,7 +2156,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.86.0-SNAPSHOT</t>
+    <t>1.87.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
@@ -9739,8 +9739,8 @@
       <c r="EF12" t="s" s="0">
         <v>212</v>
       </c>
-      <c r="EG12" t="s" s="0">
-        <v>212</v>
+      <c r="EG12" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="EH12" t="s" s="0">
         <v>212</v>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
@@ -818,7 +818,7 @@
     <t>Able to create new cases</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing cases</t>
@@ -827,7 +827,7 @@
     <t>Able to edit existing cases</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW, PERSON_EDIT</t>
+    <t>PERSON_EDIT, CASE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Archive cases</t>
@@ -842,7 +842,7 @@
     <t>Able to delete cases from the system</t>
   </si>
   <si>
-    <t>TREATMENT_DELETE, THERAPY_VIEW, PATHOGEN_TEST_DELETE, CASE_VIEW, VISIT_DELETE, TASK_VIEW, DOCUMENT_VIEW, DOCUMENT_DELETE, SAMPLE_DELETE, PERSON_DELETE, PERSON_VIEW, IMMUNIZATION_VIEW, SAMPLE_VIEW, CLINICAL_VISIT_DELETE, ADDITIONAL_TEST_DELETE, ADDITIONAL_TEST_VIEW, CLINICAL_COURSE_VIEW, IMMUNIZATION_DELETE, TASK_DELETE, PRESCRIPTION_DELETE</t>
+    <t>TASK_DELETE, IMMUNIZATION_DELETE, TREATMENT_DELETE, SAMPLE_VIEW, SAMPLE_DELETE, PATHOGEN_TEST_DELETE, PRESCRIPTION_DELETE, DOCUMENT_DELETE, CASE_VIEW, PERSON_VIEW, DOCUMENT_VIEW, TASK_VIEW, ADDITIONAL_TEST_VIEW, THERAPY_VIEW, ADDITIONAL_TEST_DELETE, CLINICAL_VISIT_DELETE, PERSON_DELETE, VISIT_DELETE, CLINICAL_COURSE_VIEW, IMMUNIZATION_VIEW</t>
   </si>
   <si>
     <t>Import cases into SORMAS</t>
@@ -863,7 +863,7 @@
     <t>Able to edit case investigation status</t>
   </si>
   <si>
-    <t>CASE_EDIT, PERSON_VIEW, CASE_VIEW, PERSON_EDIT</t>
+    <t>PERSON_EDIT, CASE_EDIT, CASE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit case classification and outcome</t>
@@ -935,7 +935,7 @@
     <t>Able to edit existing immunizations and vaccinations</t>
   </si>
   <si>
-    <t>IMMUNIZATION_VIEW, PERSON_VIEW, PERSON_EDIT</t>
+    <t>PERSON_EDIT, IMMUNIZATION_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Archive immunizations</t>
@@ -950,7 +950,7 @@
     <t>Able to delete immunizations and vaccinations from the system</t>
   </si>
   <si>
-    <t>IMMUNIZATION_VIEW, PERSON_DELETE, PERSON_VIEW, VISIT_DELETE</t>
+    <t>PERSON_DELETE, VISIT_DELETE, IMMUNIZATION_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Persons</t>
@@ -974,7 +974,7 @@
     <t>Able to delete persons from the system</t>
   </si>
   <si>
-    <t>PERSON_VIEW, VISIT_DELETE</t>
+    <t>VISIT_DELETE, PERSON_VIEW</t>
   </si>
   <si>
     <t>Export persons</t>
@@ -989,7 +989,7 @@
     <t>Able to delete person contact details</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT</t>
+    <t>PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Merge persons</t>
@@ -1025,7 +1025,7 @@
     <t>Able to delete samples from the system</t>
   </si>
   <si>
-    <t>SAMPLE_VIEW, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_DELETE, ADDITIONAL_TEST_VIEW</t>
+    <t>SAMPLE_VIEW, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE</t>
   </si>
   <si>
     <t>Export samples from SORMAS</t>
@@ -1115,7 +1115,7 @@
     <t>Able to create new contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW, CONTACT_VIEW</t>
+    <t>CASE_VIEW, PERSON_VIEW, CONTACT_VIEW</t>
   </si>
   <si>
     <t>Edit existing contacts</t>
@@ -1124,7 +1124,7 @@
     <t>Able to edit existing contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW, PERSON_EDIT, CONTACT_VIEW</t>
+    <t>PERSON_EDIT, CASE_VIEW, PERSON_VIEW, CONTACT_VIEW</t>
   </si>
   <si>
     <t>Archive contacts</t>
@@ -1139,7 +1139,7 @@
     <t>Able to delete contacts from the system</t>
   </si>
   <si>
-    <t>PATHOGEN_TEST_DELETE, CASE_VIEW, VISIT_DELETE, TASK_VIEW, DOCUMENT_VIEW, CONTACT_VIEW, DOCUMENT_DELETE, SAMPLE_DELETE, PERSON_DELETE, PERSON_VIEW, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE, ADDITIONAL_TEST_VIEW, TASK_DELETE</t>
+    <t>TASK_DELETE, SAMPLE_VIEW, SAMPLE_DELETE, PATHOGEN_TEST_DELETE, DOCUMENT_DELETE, CASE_VIEW, PERSON_VIEW, DOCUMENT_VIEW, TASK_VIEW, ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE, PERSON_DELETE, VISIT_DELETE, CONTACT_VIEW</t>
   </si>
   <si>
     <t>Import contacts</t>
@@ -1160,7 +1160,7 @@
     <t>Able to create resulting cases from contacts</t>
   </si>
   <si>
-    <t>CONTACT_EDIT, PERSON_VIEW, CASE_VIEW, PERSON_EDIT, CASE_CREATE, CONTACT_VIEW</t>
+    <t>CASE_CREATE, CONTACT_EDIT, PERSON_EDIT, CASE_VIEW, PERSON_VIEW, CONTACT_VIEW</t>
   </si>
   <si>
     <t>Reassign the source case of contacts</t>
@@ -1169,7 +1169,7 @@
     <t>Able to reassign the source case of contacts</t>
   </si>
   <si>
-    <t>CONTACT_EDIT, PERSON_VIEW, CASE_VIEW, PERSON_EDIT, CONTACT_VIEW</t>
+    <t>CONTACT_EDIT, PERSON_EDIT, CASE_VIEW, PERSON_VIEW, CONTACT_VIEW</t>
   </si>
   <si>
     <t>Merge contacts</t>
@@ -1247,7 +1247,7 @@
     <t>Able to assign tasks to users</t>
   </si>
   <si>
-    <t>TASK_VIEW, TASK_EDIT</t>
+    <t>TASK_EDIT, TASK_VIEW</t>
   </si>
   <si>
     <t>Archive tasks</t>
@@ -1271,7 +1271,7 @@
     <t>Able to delete actions from the system</t>
   </si>
   <si>
-    <t>EVENT_VIEW, DOCUMENT_VIEW, DOCUMENT_DELETE</t>
+    <t>DOCUMENT_DELETE, EVENT_VIEW, DOCUMENT_VIEW</t>
   </si>
   <si>
     <t>Edit existing actions</t>
@@ -1310,7 +1310,7 @@
     <t>Able to delete events from the system</t>
   </si>
   <si>
-    <t>PATHOGEN_TEST_DELETE, VISIT_DELETE, EVENT_VIEW, ACTION_DELETE, DOCUMENT_VIEW, TASK_VIEW, DOCUMENT_DELETE, EVENTPARTICIPANT_DELETE, SAMPLE_DELETE, PERSON_DELETE, PERSON_VIEW, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE, ADDITIONAL_TEST_VIEW, EVENTPARTICIPANT_VIEW, TASK_DELETE</t>
+    <t>TASK_DELETE, SAMPLE_VIEW, SAMPLE_DELETE, PATHOGEN_TEST_DELETE, DOCUMENT_DELETE, DOCUMENT_VIEW, EVENTPARTICIPANT_VIEW, PERSON_VIEW, TASK_VIEW, ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE, PERSON_DELETE, ACTION_DELETE, VISIT_DELETE, EVENT_VIEW, EVENTPARTICIPANT_DELETE</t>
   </si>
   <si>
     <t>Import events</t>
@@ -1343,7 +1343,7 @@
     <t>Able to view existing event participants</t>
   </si>
   <si>
-    <t>PERSON_VIEW, EVENT_VIEW</t>
+    <t>EVENT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Create new event participants</t>
@@ -1352,7 +1352,7 @@
     <t>Able to create new event participants</t>
   </si>
   <si>
-    <t>PERSON_VIEW, EVENTPARTICIPANT_VIEW, EVENT_VIEW</t>
+    <t>EVENT_VIEW, EVENTPARTICIPANT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing event participants</t>
@@ -1361,7 +1361,7 @@
     <t>Able to edit existing event participants</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT, EVENTPARTICIPANT_VIEW, EVENT_VIEW</t>
+    <t>PERSON_EDIT, EVENT_VIEW, EVENTPARTICIPANT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Event participant archive</t>
@@ -1376,7 +1376,7 @@
     <t>Able to delete event participants from the system</t>
   </si>
   <si>
-    <t>PERSON_DELETE, PERSON_VIEW, SAMPLE_VIEW, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_DELETE, ADDITIONAL_TEST_VIEW, VISIT_DELETE, EVENTPARTICIPANT_VIEW, EVENT_VIEW, SAMPLE_DELETE</t>
+    <t>PERSON_DELETE, SAMPLE_VIEW, SAMPLE_DELETE, PATHOGEN_TEST_DELETE, VISIT_DELETE, EVENT_VIEW, EVENTPARTICIPANT_VIEW, PERSON_VIEW, ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE</t>
   </si>
   <si>
     <t>Import event participants</t>
@@ -1391,7 +1391,7 @@
     <t>Able to perform bulk operations in the event participants directory</t>
   </si>
   <si>
-    <t>PERSON_VIEW, EVENTPARTICIPANT_EDIT, PERSON_EDIT, EVENTPARTICIPANT_VIEW, EVENT_VIEW</t>
+    <t>PERSON_EDIT, EVENT_VIEW, EVENTPARTICIPANT_VIEW, PERSON_VIEW, EVENTPARTICIPANT_EDIT</t>
   </si>
   <si>
     <t>Create new event groups</t>
@@ -1400,7 +1400,7 @@
     <t>Able to create new event groups</t>
   </si>
   <si>
-    <t>EVENTGROUP_LINK, EVENT_EDIT, EVENT_VIEW</t>
+    <t>EVENT_EDIT, EVENTGROUP_LINK, EVENT_VIEW</t>
   </si>
   <si>
     <t>Edit existing event groups</t>
@@ -1538,7 +1538,7 @@
     <t>Able to view contact transmission chains on the dashboard</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW, DASHBOARD_CONTACT_VIEW, CONTACT_VIEW</t>
+    <t>DASHBOARD_CONTACT_VIEW, CASE_VIEW, PERSON_VIEW, CONTACT_VIEW</t>
   </si>
   <si>
     <t>Access campaigns dashboard</t>
@@ -1571,7 +1571,7 @@
     <t>Able to create new prescriptions</t>
   </si>
   <si>
-    <t>THERAPY_VIEW, PERSON_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, PERSON_VIEW, THERAPY_VIEW</t>
   </si>
   <si>
     <t>Edit existing prescriptions</t>
@@ -1616,7 +1616,7 @@
     <t>Able to edit the clinical course of cases</t>
   </si>
   <si>
-    <t>THERAPY_VIEW, PERSON_VIEW, CASE_VIEW, CLINICAL_COURSE_VIEW</t>
+    <t>CLINICAL_COURSE_VIEW, CASE_VIEW, PERSON_VIEW, THERAPY_VIEW</t>
   </si>
   <si>
     <t>Create new clinical visits</t>
@@ -1652,7 +1652,7 @@
     <t>Able to edit existing port health info</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PORT_HEALTH_INFO_VIEW, CASE_VIEW</t>
+    <t>PORT_HEALTH_INFO_VIEW, CASE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Aggregated Reporting</t>
@@ -1742,7 +1742,7 @@
     <t>Able to delete campaigns from the system</t>
   </si>
   <si>
-    <t>CAMPAIGN_FORM_DATA_VIEW, CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_DELETE</t>
+    <t>CAMPAIGN_FORM_DATA_DELETE, CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_VIEW</t>
   </si>
   <si>
     <t>View existing campaign form data</t>
@@ -1790,7 +1790,7 @@
     <t>Able to view existing travel entries</t>
   </si>
   <si>
-    <t>PERSON_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
+    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW</t>
   </si>
   <si>
     <t>Create new travel entries</t>
@@ -1799,7 +1799,7 @@
     <t>Able to create new travel entries</t>
   </si>
   <si>
-    <t>PERSON_VIEW, TRAVEL_ENTRY_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
+    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing travel entries</t>
@@ -1808,7 +1808,7 @@
     <t>Able to edit existing travel entries</t>
   </si>
   <si>
-    <t>PERSON_VIEW, TRAVEL_ENTRY_VIEW, PERSON_EDIT, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
+    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW, PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Archive travel entries</t>
@@ -1823,7 +1823,7 @@
     <t>Able to delete travel entries from the system</t>
   </si>
   <si>
-    <t>PERSON_DELETE, PERSON_VIEW, TRAVEL_ENTRY_VIEW, VISIT_DELETE, TRAVEL_ENTRY_MANAGEMENT_ACCESS, TASK_VIEW, DOCUMENT_VIEW, TASK_DELETE, DOCUMENT_DELETE</t>
+    <t>TASK_DELETE, TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_DELETE, TRAVEL_ENTRY_VIEW, DOCUMENT_DELETE, VISIT_DELETE, PERSON_VIEW, DOCUMENT_VIEW, TASK_VIEW</t>
   </si>
   <si>
     <t>Environments</t>
@@ -1889,7 +1889,7 @@
     <t>Able to edit existing environment samples</t>
   </si>
   <si>
-    <t>Edit environment dispatch information</t>
+    <t>Edit environment samples dispatch information</t>
   </si>
   <si>
     <t>Able to edit environment samples dispatch information</t>
@@ -2060,7 +2060,7 @@
     <t>Able to work with messages</t>
   </si>
   <si>
-    <t>PATHOGEN_TEST_DELETE, CASE_VIEW, EXTERNAL_MESSAGE_VIEW, VISIT_DELETE, EVENT_EDIT, EVENT_VIEW, IMMUNIZATION_CREATE, CONTACT_EDIT, SAMPLE_VIEW, PERSON_VIEW, IMMUNIZATION_DELETE, CONTACT_CREATE, SAMPLE_CREATE, CASE_EDIT, PATHOGEN_TEST_CREATE, IMMUNIZATION_EDIT, EVENTPARTICIPANT_EDIT, EVENT_CREATE, CASE_CREATE, PATHOGEN_TEST_EDIT, CONTACT_VIEW, IMMUNIZATION_VIEW, PERSON_DELETE, SAMPLE_EDIT, PERSON_EDIT, EVENTPARTICIPANT_VIEW, EVENTPARTICIPANT_CREATE</t>
+    <t>IMMUNIZATION_DELETE, EVENT_EDIT, PATHOGEN_TEST_DELETE, EVENTPARTICIPANT_CREATE, SAMPLE_EDIT, SAMPLE_CREATE, CASE_VIEW, EVENT_CREATE, PERSON_EDIT, EVENT_VIEW, PATHOGEN_TEST_EDIT, EVENTPARTICIPANT_EDIT, SAMPLE_VIEW, PERSON_VIEW, EVENTPARTICIPANT_VIEW, CASE_CREATE, CONTACT_CREATE, CONTACT_EDIT, PERSON_DELETE, PATHOGEN_TEST_CREATE, VISIT_DELETE, IMMUNIZATION_EDIT, CASE_EDIT, IMMUNIZATION_VIEW, EXTERNAL_MESSAGE_VIEW, CONTACT_VIEW, IMMUNIZATION_CREATE</t>
   </si>
   <si>
     <t>Push external messages to the system</t>
@@ -2234,7 +2234,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.88.0-SNAPSHOT</t>
+    <t>1.89.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
@@ -818,7 +818,7 @@
     <t>Able to create new cases</t>
   </si>
   <si>
-    <t>CASE_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Edit existing cases</t>
@@ -827,7 +827,7 @@
     <t>Able to edit existing cases</t>
   </si>
   <si>
-    <t>PERSON_EDIT, CASE_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, PERSON_EDIT, CASE_VIEW</t>
   </si>
   <si>
     <t>Archive cases</t>
@@ -842,7 +842,7 @@
     <t>Able to delete cases from the system</t>
   </si>
   <si>
-    <t>TASK_DELETE, IMMUNIZATION_DELETE, TREATMENT_DELETE, SAMPLE_VIEW, SAMPLE_DELETE, PATHOGEN_TEST_DELETE, PRESCRIPTION_DELETE, DOCUMENT_DELETE, CASE_VIEW, PERSON_VIEW, DOCUMENT_VIEW, TASK_VIEW, ADDITIONAL_TEST_VIEW, THERAPY_VIEW, ADDITIONAL_TEST_DELETE, CLINICAL_VISIT_DELETE, PERSON_DELETE, VISIT_DELETE, CLINICAL_COURSE_VIEW, IMMUNIZATION_VIEW</t>
+    <t>SAMPLE_DELETE, PERSON_DELETE, DOCUMENT_VIEW, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE, TREATMENT_DELETE, CLINICAL_COURSE_VIEW, DOCUMENT_DELETE, TASK_VIEW, TASK_DELETE, PATHOGEN_TEST_DELETE, THERAPY_VIEW, PERSON_VIEW, IMMUNIZATION_VIEW, CLINICAL_VISIT_DELETE, PRESCRIPTION_DELETE, CASE_VIEW, ADDITIONAL_TEST_VIEW, VISIT_DELETE, IMMUNIZATION_DELETE</t>
   </si>
   <si>
     <t>Import cases into SORMAS</t>
@@ -863,7 +863,7 @@
     <t>Able to edit case investigation status</t>
   </si>
   <si>
-    <t>PERSON_EDIT, CASE_EDIT, CASE_VIEW, PERSON_VIEW</t>
+    <t>CASE_EDIT, PERSON_VIEW, PERSON_EDIT, CASE_VIEW</t>
   </si>
   <si>
     <t>Edit case classification and outcome</t>
@@ -926,7 +926,7 @@
     <t>Able to create new immunizations and vaccinations</t>
   </si>
   <si>
-    <t>IMMUNIZATION_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, IMMUNIZATION_VIEW</t>
   </si>
   <si>
     <t>Edit existing immunizations and vaccinations</t>
@@ -935,7 +935,7 @@
     <t>Able to edit existing immunizations and vaccinations</t>
   </si>
   <si>
-    <t>PERSON_EDIT, IMMUNIZATION_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, IMMUNIZATION_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Archive immunizations</t>
@@ -950,7 +950,7 @@
     <t>Able to delete immunizations and vaccinations from the system</t>
   </si>
   <si>
-    <t>PERSON_DELETE, VISIT_DELETE, IMMUNIZATION_VIEW, PERSON_VIEW</t>
+    <t>PERSON_DELETE, PERSON_VIEW, IMMUNIZATION_VIEW, VISIT_DELETE</t>
   </si>
   <si>
     <t>Persons</t>
@@ -974,7 +974,7 @@
     <t>Able to delete persons from the system</t>
   </si>
   <si>
-    <t>VISIT_DELETE, PERSON_VIEW</t>
+    <t>PERSON_VIEW, VISIT_DELETE</t>
   </si>
   <si>
     <t>Export persons</t>
@@ -989,7 +989,7 @@
     <t>Able to delete person contact details</t>
   </si>
   <si>
-    <t>PERSON_EDIT, PERSON_VIEW</t>
+    <t>PERSON_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Merge persons</t>
@@ -1025,7 +1025,7 @@
     <t>Able to delete samples from the system</t>
   </si>
   <si>
-    <t>SAMPLE_VIEW, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE</t>
+    <t>PATHOGEN_TEST_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE, ADDITIONAL_TEST_VIEW</t>
   </si>
   <si>
     <t>Export samples from SORMAS</t>
@@ -1040,7 +1040,7 @@
     <t>Able to transfer samples to another lab</t>
   </si>
   <si>
-    <t>SAMPLE_VIEW, SAMPLE_EDIT</t>
+    <t>SAMPLE_EDIT, SAMPLE_VIEW</t>
   </si>
   <si>
     <t>Edit samples reported by other users</t>
@@ -1115,7 +1115,7 @@
     <t>Able to create new contacts</t>
   </si>
   <si>
-    <t>CASE_VIEW, PERSON_VIEW, CONTACT_VIEW</t>
+    <t>PERSON_VIEW, CONTACT_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Edit existing contacts</t>
@@ -1124,7 +1124,7 @@
     <t>Able to edit existing contacts</t>
   </si>
   <si>
-    <t>PERSON_EDIT, CASE_VIEW, PERSON_VIEW, CONTACT_VIEW</t>
+    <t>PERSON_VIEW, CONTACT_VIEW, PERSON_EDIT, CASE_VIEW</t>
   </si>
   <si>
     <t>Archive contacts</t>
@@ -1139,7 +1139,7 @@
     <t>Able to delete contacts from the system</t>
   </si>
   <si>
-    <t>TASK_DELETE, SAMPLE_VIEW, SAMPLE_DELETE, PATHOGEN_TEST_DELETE, DOCUMENT_DELETE, CASE_VIEW, PERSON_VIEW, DOCUMENT_VIEW, TASK_VIEW, ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE, PERSON_DELETE, VISIT_DELETE, CONTACT_VIEW</t>
+    <t>SAMPLE_DELETE, PERSON_DELETE, DOCUMENT_VIEW, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE, CONTACT_VIEW, DOCUMENT_DELETE, TASK_VIEW, TASK_DELETE, PATHOGEN_TEST_DELETE, PERSON_VIEW, CASE_VIEW, ADDITIONAL_TEST_VIEW, VISIT_DELETE</t>
   </si>
   <si>
     <t>Import contacts</t>
@@ -1160,7 +1160,7 @@
     <t>Able to create resulting cases from contacts</t>
   </si>
   <si>
-    <t>CASE_CREATE, CONTACT_EDIT, PERSON_EDIT, CASE_VIEW, PERSON_VIEW, CONTACT_VIEW</t>
+    <t>PERSON_VIEW, CASE_CREATE, CONTACT_VIEW, PERSON_EDIT, CASE_VIEW, CONTACT_EDIT</t>
   </si>
   <si>
     <t>Reassign the source case of contacts</t>
@@ -1169,7 +1169,7 @@
     <t>Able to reassign the source case of contacts</t>
   </si>
   <si>
-    <t>CONTACT_EDIT, PERSON_EDIT, CASE_VIEW, PERSON_VIEW, CONTACT_VIEW</t>
+    <t>PERSON_VIEW, CONTACT_VIEW, PERSON_EDIT, CASE_VIEW, CONTACT_EDIT</t>
   </si>
   <si>
     <t>Merge contacts</t>
@@ -1247,7 +1247,7 @@
     <t>Able to assign tasks to users</t>
   </si>
   <si>
-    <t>TASK_EDIT, TASK_VIEW</t>
+    <t>TASK_VIEW, TASK_EDIT</t>
   </si>
   <si>
     <t>Archive tasks</t>
@@ -1271,7 +1271,7 @@
     <t>Able to delete actions from the system</t>
   </si>
   <si>
-    <t>DOCUMENT_DELETE, EVENT_VIEW, DOCUMENT_VIEW</t>
+    <t>DOCUMENT_VIEW, EVENT_VIEW, DOCUMENT_DELETE</t>
   </si>
   <si>
     <t>Edit existing actions</t>
@@ -1310,7 +1310,7 @@
     <t>Able to delete events from the system</t>
   </si>
   <si>
-    <t>TASK_DELETE, SAMPLE_VIEW, SAMPLE_DELETE, PATHOGEN_TEST_DELETE, DOCUMENT_DELETE, DOCUMENT_VIEW, EVENTPARTICIPANT_VIEW, PERSON_VIEW, TASK_VIEW, ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE, PERSON_DELETE, ACTION_DELETE, VISIT_DELETE, EVENT_VIEW, EVENTPARTICIPANT_DELETE</t>
+    <t>SAMPLE_DELETE, PERSON_DELETE, DOCUMENT_VIEW, EVENT_VIEW, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE, DOCUMENT_DELETE, TASK_VIEW, TASK_DELETE, EVENTPARTICIPANT_DELETE, ACTION_DELETE, PATHOGEN_TEST_DELETE, PERSON_VIEW, EVENTPARTICIPANT_VIEW, ADDITIONAL_TEST_VIEW, VISIT_DELETE</t>
   </si>
   <si>
     <t>Import events</t>
@@ -1352,7 +1352,7 @@
     <t>Able to create new event participants</t>
   </si>
   <si>
-    <t>EVENT_VIEW, EVENTPARTICIPANT_VIEW, PERSON_VIEW</t>
+    <t>EVENT_VIEW, PERSON_VIEW, EVENTPARTICIPANT_VIEW</t>
   </si>
   <si>
     <t>Edit existing event participants</t>
@@ -1361,7 +1361,7 @@
     <t>Able to edit existing event participants</t>
   </si>
   <si>
-    <t>PERSON_EDIT, EVENT_VIEW, EVENTPARTICIPANT_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, EVENT_VIEW, PERSON_EDIT, EVENTPARTICIPANT_VIEW</t>
   </si>
   <si>
     <t>Event participant archive</t>
@@ -1376,7 +1376,7 @@
     <t>Able to delete event participants from the system</t>
   </si>
   <si>
-    <t>PERSON_DELETE, SAMPLE_VIEW, SAMPLE_DELETE, PATHOGEN_TEST_DELETE, VISIT_DELETE, EVENT_VIEW, EVENTPARTICIPANT_VIEW, PERSON_VIEW, ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE</t>
+    <t>SAMPLE_DELETE, PERSON_DELETE, PATHOGEN_TEST_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE, PERSON_VIEW, EVENT_VIEW, EVENTPARTICIPANT_VIEW, ADDITIONAL_TEST_VIEW, VISIT_DELETE</t>
   </si>
   <si>
     <t>Import event participants</t>
@@ -1391,7 +1391,7 @@
     <t>Able to perform bulk operations in the event participants directory</t>
   </si>
   <si>
-    <t>PERSON_EDIT, EVENT_VIEW, EVENTPARTICIPANT_VIEW, PERSON_VIEW, EVENTPARTICIPANT_EDIT</t>
+    <t>PERSON_VIEW, EVENT_VIEW, PERSON_EDIT, EVENTPARTICIPANT_EDIT, EVENTPARTICIPANT_VIEW</t>
   </si>
   <si>
     <t>Create new event groups</t>
@@ -1400,7 +1400,7 @@
     <t>Able to create new event groups</t>
   </si>
   <si>
-    <t>EVENT_EDIT, EVENTGROUP_LINK, EVENT_VIEW</t>
+    <t>EVENT_EDIT, EVENT_VIEW, EVENTGROUP_LINK</t>
   </si>
   <si>
     <t>Edit existing event groups</t>
@@ -1538,7 +1538,7 @@
     <t>Able to view contact transmission chains on the dashboard</t>
   </si>
   <si>
-    <t>DASHBOARD_CONTACT_VIEW, CASE_VIEW, PERSON_VIEW, CONTACT_VIEW</t>
+    <t>PERSON_VIEW, CONTACT_VIEW, DASHBOARD_CONTACT_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Access campaigns dashboard</t>
@@ -1571,7 +1571,7 @@
     <t>Able to create new prescriptions</t>
   </si>
   <si>
-    <t>CASE_VIEW, PERSON_VIEW, THERAPY_VIEW</t>
+    <t>THERAPY_VIEW, PERSON_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Edit existing prescriptions</t>
@@ -1616,7 +1616,7 @@
     <t>Able to edit the clinical course of cases</t>
   </si>
   <si>
-    <t>CLINICAL_COURSE_VIEW, CASE_VIEW, PERSON_VIEW, THERAPY_VIEW</t>
+    <t>THERAPY_VIEW, PERSON_VIEW, CLINICAL_COURSE_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Create new clinical visits</t>
@@ -1652,7 +1652,7 @@
     <t>Able to edit existing port health info</t>
   </si>
   <si>
-    <t>PORT_HEALTH_INFO_VIEW, CASE_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, PORT_HEALTH_INFO_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Aggregated Reporting</t>
@@ -1799,7 +1799,7 @@
     <t>Able to create new travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW, PERSON_VIEW</t>
+    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW, TRAVEL_ENTRY_VIEW</t>
   </si>
   <si>
     <t>Edit existing travel entries</t>
@@ -1808,7 +1808,7 @@
     <t>Able to edit existing travel entries</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW, PERSON_EDIT, PERSON_VIEW</t>
+    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW, PERSON_EDIT, TRAVEL_ENTRY_VIEW</t>
   </si>
   <si>
     <t>Archive travel entries</t>
@@ -1823,7 +1823,7 @@
     <t>Able to delete travel entries from the system</t>
   </si>
   <si>
-    <t>TASK_DELETE, TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_DELETE, TRAVEL_ENTRY_VIEW, DOCUMENT_DELETE, VISIT_DELETE, PERSON_VIEW, DOCUMENT_VIEW, TASK_VIEW</t>
+    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_DELETE, DOCUMENT_VIEW, PERSON_VIEW, DOCUMENT_DELETE, TASK_VIEW, TRAVEL_ENTRY_VIEW, TASK_DELETE, VISIT_DELETE</t>
   </si>
   <si>
     <t>Environments</t>
@@ -1895,7 +1895,7 @@
     <t>Able to edit environment samples dispatch information</t>
   </si>
   <si>
-    <t>ENVIRONMENT_SAMPLE_EDIT, ENVIRONMENT_SAMPLE_VIEW</t>
+    <t>ENVIRONMENT_SAMPLE_VIEW, ENVIRONMENT_SAMPLE_EDIT</t>
   </si>
   <si>
     <t>Edit environment samples receival information</t>
@@ -1916,7 +1916,7 @@
     <t>Able to import environment samples</t>
   </si>
   <si>
-    <t>ENVIRONMENT_SAMPLE_CREATE, ENVIRONMENT_SAMPLE_VIEW</t>
+    <t>ENVIRONMENT_SAMPLE_VIEW, ENVIRONMENT_SAMPLE_CREATE</t>
   </si>
   <si>
     <t>Export environment samples</t>
@@ -2060,7 +2060,7 @@
     <t>Able to work with messages</t>
   </si>
   <si>
-    <t>IMMUNIZATION_DELETE, EVENT_EDIT, PATHOGEN_TEST_DELETE, EVENTPARTICIPANT_CREATE, SAMPLE_EDIT, SAMPLE_CREATE, CASE_VIEW, EVENT_CREATE, PERSON_EDIT, EVENT_VIEW, PATHOGEN_TEST_EDIT, EVENTPARTICIPANT_EDIT, SAMPLE_VIEW, PERSON_VIEW, EVENTPARTICIPANT_VIEW, CASE_CREATE, CONTACT_CREATE, CONTACT_EDIT, PERSON_DELETE, PATHOGEN_TEST_CREATE, VISIT_DELETE, IMMUNIZATION_EDIT, CASE_EDIT, IMMUNIZATION_VIEW, EXTERNAL_MESSAGE_VIEW, CONTACT_VIEW, IMMUNIZATION_CREATE</t>
+    <t>IMMUNIZATION_CREATE, PERSON_DELETE, SAMPLE_EDIT, SAMPLE_VIEW, PERSON_EDIT, SAMPLE_CREATE, IMMUNIZATION_EDIT, EXTERNAL_MESSAGE_VIEW, PATHOGEN_TEST_EDIT, PATHOGEN_TEST_DELETE, PERSON_VIEW, PATHOGEN_TEST_CREATE, IMMUNIZATION_VIEW, IMMUNIZATION_DELETE, VISIT_DELETE</t>
   </si>
   <si>
     <t>Push external messages to the system</t>
@@ -2234,7 +2234,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.89.0-SNAPSHOT</t>
+    <t>1.90.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
@@ -827,7 +827,7 @@
     <t>Able to edit existing cases</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PERSON_EDIT, CASE_VIEW</t>
+    <t>PERSON_VIEW, CASE_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Archive cases</t>
@@ -842,7 +842,7 @@
     <t>Able to delete cases from the system</t>
   </si>
   <si>
-    <t>SAMPLE_DELETE, PERSON_DELETE, DOCUMENT_VIEW, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE, TREATMENT_DELETE, CLINICAL_COURSE_VIEW, DOCUMENT_DELETE, TASK_VIEW, TASK_DELETE, PATHOGEN_TEST_DELETE, THERAPY_VIEW, PERSON_VIEW, IMMUNIZATION_VIEW, CLINICAL_VISIT_DELETE, PRESCRIPTION_DELETE, CASE_VIEW, ADDITIONAL_TEST_VIEW, VISIT_DELETE, IMMUNIZATION_DELETE</t>
+    <t>SAMPLE_VIEW, PRESCRIPTION_DELETE, DOCUMENT_DELETE, TREATMENT_DELETE, DOCUMENT_VIEW, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_DELETE, IMMUNIZATION_DELETE, SAMPLE_DELETE, CLINICAL_COURSE_VIEW, CLINICAL_VISIT_DELETE, VISIT_DELETE, PERSON_VIEW, TASK_VIEW, IMMUNIZATION_VIEW, CASE_VIEW, PERSON_DELETE, THERAPY_VIEW, TASK_DELETE, ADDITIONAL_TEST_VIEW</t>
   </si>
   <si>
     <t>Import cases into SORMAS</t>
@@ -863,7 +863,7 @@
     <t>Able to edit case investigation status</t>
   </si>
   <si>
-    <t>CASE_EDIT, PERSON_VIEW, PERSON_EDIT, CASE_VIEW</t>
+    <t>CASE_EDIT, PERSON_VIEW, CASE_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Edit case classification and outcome</t>
@@ -926,7 +926,7 @@
     <t>Able to create new immunizations and vaccinations</t>
   </si>
   <si>
-    <t>PERSON_VIEW, IMMUNIZATION_VIEW</t>
+    <t>IMMUNIZATION_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing immunizations and vaccinations</t>
@@ -935,7 +935,7 @@
     <t>Able to edit existing immunizations and vaccinations</t>
   </si>
   <si>
-    <t>PERSON_VIEW, IMMUNIZATION_VIEW, PERSON_EDIT</t>
+    <t>IMMUNIZATION_VIEW, PERSON_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Archive immunizations</t>
@@ -950,7 +950,7 @@
     <t>Able to delete immunizations and vaccinations from the system</t>
   </si>
   <si>
-    <t>PERSON_DELETE, PERSON_VIEW, IMMUNIZATION_VIEW, VISIT_DELETE</t>
+    <t>VISIT_DELETE, IMMUNIZATION_VIEW, PERSON_VIEW, PERSON_DELETE</t>
   </si>
   <si>
     <t>Persons</t>
@@ -974,7 +974,7 @@
     <t>Able to delete persons from the system</t>
   </si>
   <si>
-    <t>PERSON_VIEW, VISIT_DELETE</t>
+    <t>VISIT_DELETE, PERSON_VIEW</t>
   </si>
   <si>
     <t>Export persons</t>
@@ -1025,7 +1025,7 @@
     <t>Able to delete samples from the system</t>
   </si>
   <si>
-    <t>PATHOGEN_TEST_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE, ADDITIONAL_TEST_VIEW</t>
+    <t>SAMPLE_VIEW, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_DELETE, ADDITIONAL_TEST_VIEW</t>
   </si>
   <si>
     <t>Export samples from SORMAS</t>
@@ -1040,7 +1040,7 @@
     <t>Able to transfer samples to another lab</t>
   </si>
   <si>
-    <t>SAMPLE_EDIT, SAMPLE_VIEW</t>
+    <t>SAMPLE_VIEW, SAMPLE_EDIT</t>
   </si>
   <si>
     <t>Edit samples reported by other users</t>
@@ -1124,7 +1124,7 @@
     <t>Able to edit existing contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CONTACT_VIEW, PERSON_EDIT, CASE_VIEW</t>
+    <t>PERSON_VIEW, CONTACT_VIEW, CASE_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Archive contacts</t>
@@ -1139,7 +1139,7 @@
     <t>Able to delete contacts from the system</t>
   </si>
   <si>
-    <t>SAMPLE_DELETE, PERSON_DELETE, DOCUMENT_VIEW, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE, CONTACT_VIEW, DOCUMENT_DELETE, TASK_VIEW, TASK_DELETE, PATHOGEN_TEST_DELETE, PERSON_VIEW, CASE_VIEW, ADDITIONAL_TEST_VIEW, VISIT_DELETE</t>
+    <t>SAMPLE_VIEW, DOCUMENT_DELETE, CONTACT_VIEW, DOCUMENT_VIEW, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_DELETE, SAMPLE_DELETE, VISIT_DELETE, PERSON_VIEW, TASK_VIEW, PERSON_DELETE, CASE_VIEW, TASK_DELETE, ADDITIONAL_TEST_VIEW</t>
   </si>
   <si>
     <t>Import contacts</t>
@@ -1160,7 +1160,7 @@
     <t>Able to create resulting cases from contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_CREATE, CONTACT_VIEW, PERSON_EDIT, CASE_VIEW, CONTACT_EDIT</t>
+    <t>CASE_CREATE, PERSON_VIEW, CASE_VIEW, CONTACT_VIEW, PERSON_EDIT, CONTACT_EDIT</t>
   </si>
   <si>
     <t>Reassign the source case of contacts</t>
@@ -1169,7 +1169,7 @@
     <t>Able to reassign the source case of contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CONTACT_VIEW, PERSON_EDIT, CASE_VIEW, CONTACT_EDIT</t>
+    <t>PERSON_VIEW, CONTACT_VIEW, CASE_VIEW, PERSON_EDIT, CONTACT_EDIT</t>
   </si>
   <si>
     <t>Merge contacts</t>
@@ -1247,7 +1247,7 @@
     <t>Able to assign tasks to users</t>
   </si>
   <si>
-    <t>TASK_VIEW, TASK_EDIT</t>
+    <t>TASK_EDIT, TASK_VIEW</t>
   </si>
   <si>
     <t>Archive tasks</t>
@@ -1271,7 +1271,7 @@
     <t>Able to delete actions from the system</t>
   </si>
   <si>
-    <t>DOCUMENT_VIEW, EVENT_VIEW, DOCUMENT_DELETE</t>
+    <t>DOCUMENT_DELETE, EVENT_VIEW, DOCUMENT_VIEW</t>
   </si>
   <si>
     <t>Edit existing actions</t>
@@ -1310,7 +1310,7 @@
     <t>Able to delete events from the system</t>
   </si>
   <si>
-    <t>SAMPLE_DELETE, PERSON_DELETE, DOCUMENT_VIEW, EVENT_VIEW, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE, DOCUMENT_DELETE, TASK_VIEW, TASK_DELETE, EVENTPARTICIPANT_DELETE, ACTION_DELETE, PATHOGEN_TEST_DELETE, PERSON_VIEW, EVENTPARTICIPANT_VIEW, ADDITIONAL_TEST_VIEW, VISIT_DELETE</t>
+    <t>SAMPLE_VIEW, DOCUMENT_DELETE, DOCUMENT_VIEW, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_DELETE, SAMPLE_DELETE, EVENTPARTICIPANT_DELETE, EVENTPARTICIPANT_VIEW, VISIT_DELETE, PERSON_VIEW, TASK_VIEW, EVENT_VIEW, ACTION_DELETE, PERSON_DELETE, TASK_DELETE, ADDITIONAL_TEST_VIEW</t>
   </si>
   <si>
     <t>Import events</t>
@@ -1343,7 +1343,7 @@
     <t>Able to view existing event participants</t>
   </si>
   <si>
-    <t>EVENT_VIEW, PERSON_VIEW</t>
+    <t>PERSON_VIEW, EVENT_VIEW</t>
   </si>
   <si>
     <t>Create new event participants</t>
@@ -1352,7 +1352,7 @@
     <t>Able to create new event participants</t>
   </si>
   <si>
-    <t>EVENT_VIEW, PERSON_VIEW, EVENTPARTICIPANT_VIEW</t>
+    <t>EVENTPARTICIPANT_VIEW, PERSON_VIEW, EVENT_VIEW</t>
   </si>
   <si>
     <t>Edit existing event participants</t>
@@ -1361,7 +1361,7 @@
     <t>Able to edit existing event participants</t>
   </si>
   <si>
-    <t>PERSON_VIEW, EVENT_VIEW, PERSON_EDIT, EVENTPARTICIPANT_VIEW</t>
+    <t>EVENTPARTICIPANT_VIEW, PERSON_VIEW, EVENT_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Event participant archive</t>
@@ -1376,7 +1376,7 @@
     <t>Able to delete event participants from the system</t>
   </si>
   <si>
-    <t>SAMPLE_DELETE, PERSON_DELETE, PATHOGEN_TEST_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE, PERSON_VIEW, EVENT_VIEW, EVENTPARTICIPANT_VIEW, ADDITIONAL_TEST_VIEW, VISIT_DELETE</t>
+    <t>SAMPLE_VIEW, SAMPLE_DELETE, EVENTPARTICIPANT_VIEW, VISIT_DELETE, PERSON_VIEW, PERSON_DELETE, EVENT_VIEW, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_DELETE, ADDITIONAL_TEST_VIEW</t>
   </si>
   <si>
     <t>Import event participants</t>
@@ -1391,7 +1391,7 @@
     <t>Able to perform bulk operations in the event participants directory</t>
   </si>
   <si>
-    <t>PERSON_VIEW, EVENT_VIEW, PERSON_EDIT, EVENTPARTICIPANT_EDIT, EVENTPARTICIPANT_VIEW</t>
+    <t>EVENTPARTICIPANT_VIEW, PERSON_VIEW, EVENT_VIEW, PERSON_EDIT, EVENTPARTICIPANT_EDIT</t>
   </si>
   <si>
     <t>Create new event groups</t>
@@ -1538,7 +1538,7 @@
     <t>Able to view contact transmission chains on the dashboard</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CONTACT_VIEW, DASHBOARD_CONTACT_VIEW, CASE_VIEW</t>
+    <t>DASHBOARD_CONTACT_VIEW, PERSON_VIEW, CONTACT_VIEW, CASE_VIEW</t>
   </si>
   <si>
     <t>Access campaigns dashboard</t>
@@ -1571,7 +1571,7 @@
     <t>Able to create new prescriptions</t>
   </si>
   <si>
-    <t>THERAPY_VIEW, PERSON_VIEW, CASE_VIEW</t>
+    <t>PERSON_VIEW, CASE_VIEW, THERAPY_VIEW</t>
   </si>
   <si>
     <t>Edit existing prescriptions</t>
@@ -1616,7 +1616,7 @@
     <t>Able to edit the clinical course of cases</t>
   </si>
   <si>
-    <t>THERAPY_VIEW, PERSON_VIEW, CLINICAL_COURSE_VIEW, CASE_VIEW</t>
+    <t>CLINICAL_COURSE_VIEW, PERSON_VIEW, CASE_VIEW, THERAPY_VIEW</t>
   </si>
   <si>
     <t>Create new clinical visits</t>
@@ -1652,7 +1652,7 @@
     <t>Able to edit existing port health info</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PORT_HEALTH_INFO_VIEW, CASE_VIEW</t>
+    <t>PERSON_VIEW, CASE_VIEW, PORT_HEALTH_INFO_VIEW</t>
   </si>
   <si>
     <t>Aggregated Reporting</t>
@@ -1742,7 +1742,7 @@
     <t>Able to delete campaigns from the system</t>
   </si>
   <si>
-    <t>CAMPAIGN_FORM_DATA_DELETE, CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_VIEW</t>
+    <t>CAMPAIGN_FORM_DATA_VIEW, CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_DELETE</t>
   </si>
   <si>
     <t>View existing campaign form data</t>
@@ -1823,7 +1823,7 @@
     <t>Able to delete travel entries from the system</t>
   </si>
   <si>
-    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_DELETE, DOCUMENT_VIEW, PERSON_VIEW, DOCUMENT_DELETE, TASK_VIEW, TRAVEL_ENTRY_VIEW, TASK_DELETE, VISIT_DELETE</t>
+    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, VISIT_DELETE, DOCUMENT_DELETE, PERSON_VIEW, TASK_VIEW, PERSON_DELETE, TRAVEL_ENTRY_VIEW, DOCUMENT_VIEW, TASK_DELETE</t>
   </si>
   <si>
     <t>Environments</t>
@@ -1862,7 +1862,7 @@
     <t>Able to import environments</t>
   </si>
   <si>
-    <t>ENVIRONMENT_VIEW, ENVIRONMENT_CREATE</t>
+    <t>ENVIRONMENT_CREATE, ENVIRONMENT_VIEW</t>
   </si>
   <si>
     <t>Export environments</t>
@@ -2060,7 +2060,7 @@
     <t>Able to work with messages</t>
   </si>
   <si>
-    <t>IMMUNIZATION_CREATE, PERSON_DELETE, SAMPLE_EDIT, SAMPLE_VIEW, PERSON_EDIT, SAMPLE_CREATE, IMMUNIZATION_EDIT, EXTERNAL_MESSAGE_VIEW, PATHOGEN_TEST_EDIT, PATHOGEN_TEST_DELETE, PERSON_VIEW, PATHOGEN_TEST_CREATE, IMMUNIZATION_VIEW, IMMUNIZATION_DELETE, VISIT_DELETE</t>
+    <t>SAMPLE_VIEW, PATHOGEN_TEST_EDIT, PERSON_EDIT, SAMPLE_CREATE, PATHOGEN_TEST_DELETE, EXTERNAL_MESSAGE_VIEW, IMMUNIZATION_DELETE, IMMUNIZATION_EDIT, SAMPLE_EDIT, VISIT_DELETE, IMMUNIZATION_VIEW, PERSON_VIEW, PERSON_DELETE, PATHOGEN_TEST_CREATE, IMMUNIZATION_CREATE</t>
   </si>
   <si>
     <t>Push external messages to the system</t>
@@ -2234,7 +2234,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.90.0-SNAPSHOT</t>
+    <t>1.91.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
@@ -830,7 +830,7 @@
     <t>Able to create new cases</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing cases</t>
@@ -839,7 +839,7 @@
     <t>Able to edit existing cases</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW, PERSON_EDIT</t>
+    <t>CASE_VIEW, PERSON_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Archive cases</t>
@@ -854,7 +854,7 @@
     <t>Able to delete cases from the system</t>
   </si>
   <si>
-    <t>ADDITIONAL_TEST_DELETE, PATHOGEN_TEST_DELETE, TASK_VIEW, PRESCRIPTION_DELETE, CLINICAL_VISIT_DELETE, THERAPY_VIEW, IMMUNIZATION_DELETE, DOCUMENT_VIEW, SAMPLE_DELETE, PERSON_VIEW, DOCUMENT_DELETE, IMMUNIZATION_VIEW, PERSON_DELETE, CASE_VIEW, TASK_DELETE, SAMPLE_VIEW, CLINICAL_COURSE_VIEW, ADDITIONAL_TEST_VIEW, VISIT_DELETE, TREATMENT_DELETE</t>
+    <t>SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, DOCUMENT_VIEW, VISIT_DELETE, CLINICAL_COURSE_VIEW, IMMUNIZATION_VIEW, DOCUMENT_DELETE, IMMUNIZATION_DELETE, TASK_DELETE, TASK_VIEW, PERSON_VIEW, PERSON_DELETE, PATHOGEN_TEST_DELETE, PRESCRIPTION_DELETE, CLINICAL_VISIT_DELETE, CASE_VIEW, ADDITIONAL_TEST_DELETE, SAMPLE_DELETE, THERAPY_VIEW, TREATMENT_DELETE</t>
   </si>
   <si>
     <t>Import cases into SORMAS</t>
@@ -875,7 +875,7 @@
     <t>Able to edit case investigation status</t>
   </si>
   <si>
-    <t>CASE_EDIT, PERSON_VIEW, CASE_VIEW, PERSON_EDIT</t>
+    <t>CASE_VIEW, CASE_EDIT, PERSON_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Edit case classification and outcome</t>
@@ -944,7 +944,7 @@
     <t>Able to create new immunizations and vaccinations</t>
   </si>
   <si>
-    <t>PERSON_VIEW, IMMUNIZATION_VIEW</t>
+    <t>IMMUNIZATION_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing immunizations and vaccinations</t>
@@ -953,7 +953,7 @@
     <t>Able to edit existing immunizations and vaccinations</t>
   </si>
   <si>
-    <t>PERSON_VIEW, IMMUNIZATION_VIEW, PERSON_EDIT</t>
+    <t>IMMUNIZATION_VIEW, PERSON_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Archive immunizations</t>
@@ -968,7 +968,7 @@
     <t>Able to delete immunizations and vaccinations from the system</t>
   </si>
   <si>
-    <t>PERSON_VIEW, IMMUNIZATION_VIEW, PERSON_DELETE, VISIT_DELETE</t>
+    <t>VISIT_DELETE, IMMUNIZATION_VIEW, PERSON_VIEW, PERSON_DELETE</t>
   </si>
   <si>
     <t>Persons</t>
@@ -992,7 +992,7 @@
     <t>Able to delete persons from the system</t>
   </si>
   <si>
-    <t>PERSON_VIEW, VISIT_DELETE</t>
+    <t>VISIT_DELETE, PERSON_VIEW</t>
   </si>
   <si>
     <t>Export persons</t>
@@ -1043,7 +1043,7 @@
     <t>Able to delete samples from the system</t>
   </si>
   <si>
-    <t>ADDITIONAL_TEST_DELETE, PATHOGEN_TEST_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW</t>
+    <t>SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, ADDITIONAL_TEST_DELETE, PATHOGEN_TEST_DELETE</t>
   </si>
   <si>
     <t>Export samples from SORMAS</t>
@@ -1127,7 +1127,7 @@
     <t>Able to create new contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW, CONTACT_VIEW</t>
+    <t>CONTACT_VIEW, CASE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing contacts</t>
@@ -1136,7 +1136,7 @@
     <t>Able to edit existing contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW, CONTACT_VIEW, PERSON_EDIT</t>
+    <t>CONTACT_VIEW, CASE_VIEW, PERSON_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Archive contacts</t>
@@ -1151,7 +1151,7 @@
     <t>Able to delete contacts from the system</t>
   </si>
   <si>
-    <t>ADDITIONAL_TEST_DELETE, PATHOGEN_TEST_DELETE, TASK_VIEW, DOCUMENT_VIEW, SAMPLE_DELETE, PERSON_VIEW, DOCUMENT_DELETE, PERSON_DELETE, CASE_VIEW, TASK_DELETE, SAMPLE_VIEW, CONTACT_VIEW, ADDITIONAL_TEST_VIEW, VISIT_DELETE</t>
+    <t>SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, DOCUMENT_VIEW, VISIT_DELETE, DOCUMENT_DELETE, CONTACT_VIEW, TASK_DELETE, TASK_VIEW, PERSON_VIEW, PERSON_DELETE, PATHOGEN_TEST_DELETE, CASE_VIEW, ADDITIONAL_TEST_DELETE, SAMPLE_DELETE</t>
   </si>
   <si>
     <t>Import contacts</t>
@@ -1172,7 +1172,7 @@
     <t>Able to create resulting cases from contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CONTACT_EDIT, CASE_CREATE, CASE_VIEW, CONTACT_VIEW, PERSON_EDIT</t>
+    <t>CONTACT_VIEW, CASE_VIEW, CONTACT_EDIT, CASE_CREATE, PERSON_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Reassign the source case of contacts</t>
@@ -1181,7 +1181,7 @@
     <t>Able to reassign the source case of contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CONTACT_EDIT, CASE_VIEW, CONTACT_VIEW, PERSON_EDIT</t>
+    <t>CONTACT_VIEW, CASE_VIEW, CONTACT_EDIT, PERSON_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Merge contacts</t>
@@ -1259,7 +1259,7 @@
     <t>Able to assign tasks to users</t>
   </si>
   <si>
-    <t>TASK_VIEW, TASK_EDIT</t>
+    <t>TASK_EDIT, TASK_VIEW</t>
   </si>
   <si>
     <t>Archive tasks</t>
@@ -1283,7 +1283,7 @@
     <t>Able to delete actions from the system</t>
   </si>
   <si>
-    <t>DOCUMENT_VIEW, DOCUMENT_DELETE, EVENT_VIEW</t>
+    <t>EVENT_VIEW, DOCUMENT_VIEW, DOCUMENT_DELETE</t>
   </si>
   <si>
     <t>Edit existing actions</t>
@@ -1322,7 +1322,7 @@
     <t>Able to delete events from the system</t>
   </si>
   <si>
-    <t>ADDITIONAL_TEST_DELETE, TASK_VIEW, PATHOGEN_TEST_DELETE, EVENTPARTICIPANT_DELETE, EVENT_VIEW, ACTION_DELETE, EVENTPARTICIPANT_VIEW, DOCUMENT_VIEW, SAMPLE_DELETE, PERSON_VIEW, DOCUMENT_DELETE, PERSON_DELETE, TASK_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, VISIT_DELETE</t>
+    <t>EVENTPARTICIPANT_DELETE, SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, EVENT_VIEW, DOCUMENT_VIEW, VISIT_DELETE, DOCUMENT_DELETE, TASK_DELETE, TASK_VIEW, PERSON_VIEW, PERSON_DELETE, PATHOGEN_TEST_DELETE, ACTION_DELETE, ADDITIONAL_TEST_DELETE, SAMPLE_DELETE, EVENTPARTICIPANT_VIEW</t>
   </si>
   <si>
     <t>Import events</t>
@@ -1340,7 +1340,7 @@
     <t>Can be responsible for an event</t>
   </si>
   <si>
-    <t>EVENT_EDIT, EVENT_VIEW</t>
+    <t>EVENT_VIEW, EVENT_EDIT</t>
   </si>
   <si>
     <t>View existing event participants</t>
@@ -1349,7 +1349,7 @@
     <t>Able to view existing event participants</t>
   </si>
   <si>
-    <t>PERSON_VIEW, EVENT_VIEW</t>
+    <t>EVENT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Create new event participants</t>
@@ -1358,7 +1358,7 @@
     <t>Able to create new event participants</t>
   </si>
   <si>
-    <t>PERSON_VIEW, EVENT_VIEW, EVENTPARTICIPANT_VIEW</t>
+    <t>EVENT_VIEW, EVENTPARTICIPANT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing event participants</t>
@@ -1367,7 +1367,7 @@
     <t>Able to edit existing event participants</t>
   </si>
   <si>
-    <t>PERSON_VIEW, EVENT_VIEW, EVENTPARTICIPANT_VIEW, PERSON_EDIT</t>
+    <t>EVENT_VIEW, EVENTPARTICIPANT_VIEW, PERSON_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Event participant archive</t>
@@ -1382,7 +1382,7 @@
     <t>Able to delete event participants from the system</t>
   </si>
   <si>
-    <t>SAMPLE_DELETE, ADDITIONAL_TEST_DELETE, PERSON_VIEW, PATHOGEN_TEST_DELETE, PERSON_DELETE, SAMPLE_VIEW, EVENT_VIEW, ADDITIONAL_TEST_VIEW, EVENTPARTICIPANT_VIEW, VISIT_DELETE</t>
+    <t>SAMPLE_VIEW, ADDITIONAL_TEST_VIEW, EVENT_VIEW, VISIT_DELETE, ADDITIONAL_TEST_DELETE, SAMPLE_DELETE, EVENTPARTICIPANT_VIEW, PERSON_VIEW, PERSON_DELETE, PATHOGEN_TEST_DELETE</t>
   </si>
   <si>
     <t>Import event participants</t>
@@ -1397,7 +1397,7 @@
     <t>Able to create new event groups</t>
   </si>
   <si>
-    <t>EVENT_EDIT, EVENTGROUP_LINK, EVENT_VIEW</t>
+    <t>EVENT_VIEW, EVENTGROUP_LINK, EVENT_EDIT</t>
   </si>
   <si>
     <t>Edit existing event groups</t>
@@ -1535,7 +1535,7 @@
     <t>Able to view contact transmission chains on the dashboard</t>
   </si>
   <si>
-    <t>DASHBOARD_CONTACT_VIEW, PERSON_VIEW, CASE_VIEW, CONTACT_VIEW</t>
+    <t>DASHBOARD_CONTACT_VIEW, CONTACT_VIEW, CASE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Access campaigns dashboard</t>
@@ -1568,7 +1568,7 @@
     <t>Able to create new prescriptions</t>
   </si>
   <si>
-    <t>PERSON_VIEW, THERAPY_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, THERAPY_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing prescriptions</t>
@@ -1613,7 +1613,7 @@
     <t>Able to edit the clinical course of cases</t>
   </si>
   <si>
-    <t>PERSON_VIEW, THERAPY_VIEW, CASE_VIEW, CLINICAL_COURSE_VIEW</t>
+    <t>CLINICAL_COURSE_VIEW, CASE_VIEW, THERAPY_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Create new clinical visits</t>
@@ -1649,7 +1649,7 @@
     <t>Able to edit existing port health info</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PORT_HEALTH_INFO_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, PORT_HEALTH_INFO_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Aggregated Reporting</t>
@@ -1739,7 +1739,7 @@
     <t>Able to delete campaigns from the system</t>
   </si>
   <si>
-    <t>CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_VIEW, CAMPAIGN_FORM_DATA_DELETE</t>
+    <t>CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_DELETE, CAMPAIGN_FORM_DATA_VIEW</t>
   </si>
   <si>
     <t>View existing campaign form data</t>
@@ -1787,7 +1787,7 @@
     <t>Able to view existing travel entries</t>
   </si>
   <si>
-    <t>PERSON_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
+    <t>TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW</t>
   </si>
   <si>
     <t>Create new travel entries</t>
@@ -1796,7 +1796,7 @@
     <t>Able to create new travel entries</t>
   </si>
   <si>
-    <t>PERSON_VIEW, TRAVEL_ENTRY_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS</t>
+    <t>TRAVEL_ENTRY_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing travel entries</t>
@@ -1805,7 +1805,7 @@
     <t>Able to edit existing travel entries</t>
   </si>
   <si>
-    <t>PERSON_VIEW, TRAVEL_ENTRY_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_EDIT</t>
+    <t>TRAVEL_ENTRY_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, PERSON_VIEW, PERSON_EDIT</t>
   </si>
   <si>
     <t>Archive travel entries</t>
@@ -1820,7 +1820,7 @@
     <t>Able to delete travel entries from the system</t>
   </si>
   <si>
-    <t>DOCUMENT_VIEW, PERSON_VIEW, TRAVEL_ENTRY_VIEW, DOCUMENT_DELETE, TASK_VIEW, PERSON_DELETE, TASK_DELETE, TRAVEL_ENTRY_MANAGEMENT_ACCESS, VISIT_DELETE</t>
+    <t>TRAVEL_ENTRY_VIEW, DOCUMENT_VIEW, VISIT_DELETE, DOCUMENT_DELETE, TRAVEL_ENTRY_MANAGEMENT_ACCESS, TASK_DELETE, TASK_VIEW, PERSON_VIEW, PERSON_DELETE</t>
   </si>
   <si>
     <t>Environments</t>
@@ -1853,7 +1853,7 @@
     <t>Able to delete environments from the system</t>
   </si>
   <si>
-    <t>ENVIRONMENT_VIEW, ENVIRONMENT_PATHOGEN_TEST_DELETE, ENVIRONMENT_SAMPLE_DELETE, ENVIRONMENT_SAMPLE_VIEW</t>
+    <t>ENVIRONMENT_SAMPLE_DELETE, ENVIRONMENT_SAMPLE_VIEW, ENVIRONMENT_VIEW, ENVIRONMENT_PATHOGEN_TEST_DELETE</t>
   </si>
   <si>
     <t>Import environments</t>
@@ -1862,7 +1862,7 @@
     <t>Able to import environments</t>
   </si>
   <si>
-    <t>ENVIRONMENT_VIEW, ENVIRONMENT_CREATE</t>
+    <t>ENVIRONMENT_CREATE, ENVIRONMENT_VIEW</t>
   </si>
   <si>
     <t>Export environments</t>
@@ -1895,7 +1895,7 @@
     <t>Able to edit environment samples dispatch information</t>
   </si>
   <si>
-    <t>ENVIRONMENT_SAMPLE_EDIT, ENVIRONMENT_SAMPLE_VIEW</t>
+    <t>ENVIRONMENT_SAMPLE_VIEW, ENVIRONMENT_SAMPLE_EDIT</t>
   </si>
   <si>
     <t>Edit environment samples receival information</t>
@@ -1910,7 +1910,7 @@
     <t>Able to delete environment samples from the system</t>
   </si>
   <si>
-    <t>ENVIRONMENT_PATHOGEN_TEST_DELETE, ENVIRONMENT_SAMPLE_VIEW</t>
+    <t>ENVIRONMENT_SAMPLE_VIEW, ENVIRONMENT_PATHOGEN_TEST_DELETE</t>
   </si>
   <si>
     <t>Import environment samples</t>
@@ -2081,7 +2081,7 @@
     <t>Able to work with messages</t>
   </si>
   <si>
-    <t>PATHOGEN_TEST_DELETE, PATHOGEN_TEST_EDIT, IMMUNIZATION_DELETE, IMMUNIZATION_EDIT, IMMUNIZATION_CREATE, PERSON_VIEW, PATHOGEN_TEST_CREATE, IMMUNIZATION_VIEW, PERSON_DELETE, SAMPLE_VIEW, SAMPLE_CREATE, EXTERNAL_MESSAGE_VIEW, SAMPLE_EDIT, VISIT_DELETE, PERSON_EDIT</t>
+    <t>SAMPLE_VIEW, VISIT_DELETE, SAMPLE_EDIT, PATHOGEN_TEST_EDIT, IMMUNIZATION_VIEW, EXTERNAL_MESSAGE_VIEW, IMMUNIZATION_DELETE, PERSON_VIEW, PATHOGEN_TEST_DELETE, PERSON_EDIT, PERSON_DELETE, SAMPLE_CREATE, PATHOGEN_TEST_CREATE, IMMUNIZATION_EDIT, IMMUNIZATION_CREATE</t>
   </si>
   <si>
     <t>Push external messages to the system</t>
@@ -2276,7 +2276,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.95.0-SNAPSHOT</t>
+    <t>1.0.0</t>
   </si>
 </sst>
 </file>

--- a/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
+++ b/sormas-api/src/main/resources/doc/SORMAS_User_Roles.xlsx
@@ -842,7 +842,7 @@
     <t>Able to create new cases</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing cases</t>
@@ -851,7 +851,7 @@
     <t>Able to edit existing cases</t>
   </si>
   <si>
-    <t>PERSON_EDIT, PERSON_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Archive cases</t>
@@ -866,7 +866,7 @@
     <t>Able to delete cases from the system</t>
   </si>
   <si>
-    <t>TASK_VIEW, SAMPLE_VIEW, PERSON_VIEW, ADDITIONAL_TEST_DELETE, THERAPY_VIEW, IMMUNIZATION_VIEW, DOCUMENT_DELETE, CLINICAL_COURSE_VIEW, VISIT_DELETE, PATHOGEN_TEST_DELETE, CASE_VIEW, DOCUMENT_VIEW, ADDITIONAL_TEST_VIEW, SAMPLE_DELETE, TREATMENT_DELETE, PRESCRIPTION_DELETE, CLINICAL_VISIT_DELETE, IMMUNIZATION_DELETE, TASK_DELETE, PERSON_DELETE</t>
+    <t>DOCUMENT_DELETE, IMMUNIZATION_DELETE, THERAPY_VIEW, ADDITIONAL_TEST_VIEW, PRESCRIPTION_DELETE, DOCUMENT_VIEW, PATHOGEN_TEST_DELETE, TASK_DELETE, SAMPLE_DELETE, TASK_VIEW, TREATMENT_DELETE, CLINICAL_VISIT_DELETE, CLINICAL_COURSE_VIEW, CASE_VIEW, IMMUNIZATION_VIEW, ADDITIONAL_TEST_DELETE, PERSON_VIEW, SAMPLE_VIEW, VISIT_DELETE, PERSON_DELETE</t>
   </si>
   <si>
     <t>Import cases into SORMAS</t>
@@ -887,7 +887,7 @@
     <t>Able to edit case investigation status</t>
   </si>
   <si>
-    <t>PERSON_EDIT, PERSON_VIEW, CASE_EDIT, CASE_VIEW</t>
+    <t>CASE_VIEW, PERSON_EDIT, CASE_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit case classification and outcome</t>
@@ -956,7 +956,7 @@
     <t>Able to create new immunizations and vaccinations</t>
   </si>
   <si>
-    <t>PERSON_VIEW, IMMUNIZATION_VIEW</t>
+    <t>IMMUNIZATION_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing immunizations and vaccinations</t>
@@ -965,7 +965,7 @@
     <t>Able to edit existing immunizations and vaccinations</t>
   </si>
   <si>
-    <t>PERSON_EDIT, PERSON_VIEW, IMMUNIZATION_VIEW</t>
+    <t>IMMUNIZATION_VIEW, PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Archive immunizations</t>
@@ -980,7 +980,7 @@
     <t>Able to delete immunizations and vaccinations from the system</t>
   </si>
   <si>
-    <t>VISIT_DELETE, PERSON_VIEW, IMMUNIZATION_VIEW, PERSON_DELETE</t>
+    <t>IMMUNIZATION_VIEW, PERSON_VIEW, VISIT_DELETE, PERSON_DELETE</t>
   </si>
   <si>
     <t>Persons</t>
@@ -1004,7 +1004,7 @@
     <t>Able to delete persons from the system</t>
   </si>
   <si>
-    <t>VISIT_DELETE, PERSON_VIEW</t>
+    <t>PERSON_VIEW, VISIT_DELETE</t>
   </si>
   <si>
     <t>Export persons</t>
@@ -1055,7 +1055,7 @@
     <t>Able to delete samples from the system</t>
   </si>
   <si>
-    <t>SAMPLE_VIEW, ADDITIONAL_TEST_DELETE, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_VIEW</t>
+    <t>ADDITIONAL_TEST_VIEW, PATHOGEN_TEST_DELETE, ADDITIONAL_TEST_DELETE, SAMPLE_VIEW</t>
   </si>
   <si>
     <t>Export samples from SORMAS</t>
@@ -1070,7 +1070,7 @@
     <t>Able to transfer samples to another lab</t>
   </si>
   <si>
-    <t>SAMPLE_VIEW, SAMPLE_EDIT</t>
+    <t>SAMPLE_EDIT, SAMPLE_VIEW</t>
   </si>
   <si>
     <t>Edit samples reported by other users</t>
@@ -1109,7 +1109,7 @@
     <t>Able to create new additional tests</t>
   </si>
   <si>
-    <t>SAMPLE_VIEW, ADDITIONAL_TEST_VIEW</t>
+    <t>ADDITIONAL_TEST_VIEW, SAMPLE_VIEW</t>
   </si>
   <si>
     <t>Edit existing additional tests</t>
@@ -1139,7 +1139,7 @@
     <t>Able to create new contacts</t>
   </si>
   <si>
-    <t>PERSON_VIEW, CASE_VIEW, CONTACT_VIEW</t>
+    <t>CONTACT_VIEW, CASE_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing contacts</t>
@@ -1148,7 +1148,7 @@
     <t>Able to edit existing contacts</t>
   </si>
   <si>
-    <t>PERSON_EDIT, PERSON_VIEW, CASE_VIEW, CONTACT_VIEW</t>
+    <t>CONTACT_VIEW, CASE_VIEW, PERSON_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Archive contacts</t>
@@ -1163,7 +1163,7 @@
     <t>Able to delete contacts from the system</t>
   </si>
   <si>
-    <t>TASK_VIEW, SAMPLE_VIEW, ADDITIONAL_TEST_DELETE, PERSON_VIEW, DOCUMENT_DELETE, VISIT_DELETE, PATHOGEN_TEST_DELETE, DOCUMENT_VIEW, CASE_VIEW, ADDITIONAL_TEST_VIEW, SAMPLE_DELETE, CONTACT_VIEW, TASK_DELETE, PERSON_DELETE</t>
+    <t>DOCUMENT_DELETE, ADDITIONAL_TEST_VIEW, DOCUMENT_VIEW, PATHOGEN_TEST_DELETE, TASK_DELETE, SAMPLE_DELETE, TASK_VIEW, CONTACT_VIEW, CASE_VIEW, ADDITIONAL_TEST_DELETE, PERSON_VIEW, SAMPLE_VIEW, VISIT_DELETE, PERSON_DELETE</t>
   </si>
   <si>
     <t>Import contacts</t>
@@ -1184,7 +1184,7 @@
     <t>Able to create resulting cases from contacts</t>
   </si>
   <si>
-    <t>CASE_CREATE, PERSON_VIEW, PERSON_EDIT, CASE_VIEW, CONTACT_EDIT, CONTACT_VIEW</t>
+    <t>CASE_CREATE, CASE_VIEW, CONTACT_VIEW, PERSON_EDIT, CONTACT_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Reassign the source case of contacts</t>
@@ -1193,7 +1193,7 @@
     <t>Able to reassign the source case of contacts</t>
   </si>
   <si>
-    <t>PERSON_EDIT, PERSON_VIEW, CASE_VIEW, CONTACT_EDIT, CONTACT_VIEW</t>
+    <t>CONTACT_VIEW, CASE_VIEW, PERSON_EDIT, CONTACT_EDIT, PERSON_VIEW</t>
   </si>
   <si>
     <t>Merge contacts</t>
@@ -1271,7 +1271,7 @@
     <t>Able to assign tasks to users</t>
   </si>
   <si>
-    <t>TASK_VIEW, TASK_EDIT</t>
+    <t>TASK_EDIT, TASK_VIEW</t>
   </si>
   <si>
     <t>Archive tasks</t>
@@ -1295,7 +1295,7 @@
     <t>Able to delete actions from the system</t>
   </si>
   <si>
-    <t>DOCUMENT_VIEW, DOCUMENT_DELETE, EVENT_VIEW</t>
+    <t>DOCUMENT_DELETE, DOCUMENT_VIEW, EVENT_VIEW</t>
   </si>
   <si>
     <t>Edit existing actions</t>
@@ -1334,7 +1334,7 @@
     <t>Able to delete events from the system</t>
   </si>
   <si>
-    <t>TASK_VIEW, ACTION_DELETE, SAMPLE_VIEW, PERSON_VIEW, ADDITIONAL_TEST_DELETE, EVENTPARTICIPANT_DELETE, DOCUMENT_DELETE, EVENT_VIEW, EVENTPARTICIPANT_VIEW, VISIT_DELETE, PATHOGEN_TEST_DELETE, DOCUMENT_VIEW, ADDITIONAL_TEST_VIEW, SAMPLE_DELETE, TASK_DELETE, PERSON_DELETE</t>
+    <t>DOCUMENT_DELETE, EVENTPARTICIPANT_VIEW, ADDITIONAL_TEST_VIEW, DOCUMENT_VIEW, PATHOGEN_TEST_DELETE, TASK_DELETE, EVENT_VIEW, SAMPLE_DELETE, EVENTPARTICIPANT_DELETE, TASK_VIEW, ACTION_DELETE, ADDITIONAL_TEST_DELETE, PERSON_VIEW, SAMPLE_VIEW, VISIT_DELETE, PERSON_DELETE</t>
   </si>
   <si>
     <t>Import events</t>
@@ -1361,7 +1361,7 @@
     <t>Able to view existing event participants</t>
   </si>
   <si>
-    <t>PERSON_VIEW, EVENT_VIEW</t>
+    <t>EVENT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Create new event participants</t>
@@ -1370,7 +1370,7 @@
     <t>Able to create new event participants</t>
   </si>
   <si>
-    <t>PERSON_VIEW, EVENTPARTICIPANT_VIEW, EVENT_VIEW</t>
+    <t>EVENTPARTICIPANT_VIEW, EVENT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing event participants</t>
@@ -1379,7 +1379,7 @@
     <t>Able to edit existing event participants</t>
   </si>
   <si>
-    <t>PERSON_EDIT, PERSON_VIEW, EVENTPARTICIPANT_VIEW, EVENT_VIEW</t>
+    <t>EVENTPARTICIPANT_VIEW, PERSON_EDIT, EVENT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Event participant archive</t>
@@ -1394,7 +1394,7 @@
     <t>Able to delete event participants from the system</t>
   </si>
   <si>
-    <t>SAMPLE_VIEW, VISIT_DELETE, PERSON_VIEW, ADDITIONAL_TEST_DELETE, PATHOGEN_TEST_DELETE, EVENTPARTICIPANT_VIEW, EVENT_VIEW, ADDITIONAL_TEST_VIEW, SAMPLE_DELETE, PERSON_DELETE</t>
+    <t>EVENTPARTICIPANT_VIEW, ADDITIONAL_TEST_VIEW, PATHOGEN_TEST_DELETE, SAMPLE_DELETE, EVENT_VIEW, ADDITIONAL_TEST_DELETE, PERSON_VIEW, SAMPLE_VIEW, VISIT_DELETE, PERSON_DELETE</t>
   </si>
   <si>
     <t>Import event participants</t>
@@ -1409,7 +1409,7 @@
     <t>Able to create new event groups</t>
   </si>
   <si>
-    <t>EVENTGROUP_LINK, EVENT_VIEW, EVENT_EDIT</t>
+    <t>EVENT_VIEW, EVENT_EDIT, EVENTGROUP_LINK</t>
   </si>
   <si>
     <t>Edit existing event groups</t>
@@ -1547,7 +1547,7 @@
     <t>Able to view contact transmission chains on the dashboard</t>
   </si>
   <si>
-    <t>PERSON_VIEW, DASHBOARD_CONTACT_VIEW, CASE_VIEW, CONTACT_VIEW</t>
+    <t>CONTACT_VIEW, CASE_VIEW, DASHBOARD_CONTACT_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Access campaigns dashboard</t>
@@ -1580,7 +1580,7 @@
     <t>Able to create new prescriptions</t>
   </si>
   <si>
-    <t>PERSON_VIEW, THERAPY_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, THERAPY_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Edit existing prescriptions</t>
@@ -1625,7 +1625,7 @@
     <t>Able to edit the clinical course of cases</t>
   </si>
   <si>
-    <t>PERSON_VIEW, THERAPY_VIEW, CASE_VIEW, CLINICAL_COURSE_VIEW</t>
+    <t>CASE_VIEW, THERAPY_VIEW, PERSON_VIEW, CLINICAL_COURSE_VIEW</t>
   </si>
   <si>
     <t>Create new clinical visits</t>
@@ -1661,7 +1661,7 @@
     <t>Able to edit existing port health info</t>
   </si>
   <si>
-    <t>PERSON_VIEW, PORT_HEALTH_INFO_VIEW, CASE_VIEW</t>
+    <t>CASE_VIEW, PORT_HEALTH_INFO_VIEW, PERSON_VIEW</t>
   </si>
   <si>
     <t>Aggregated Reporting</t>
@@ -1751,7 +1751,7 @@
     <t>Able to delete campaigns from the system</t>
   </si>
   <si>
-    <t>CAMPAIGN_FORM_DATA_VIEW, CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_DELETE</t>
+    <t>CAMPAIGN_VIEW, CAMPAIGN_FORM_DATA_DELETE, CAMPAIGN_FORM_DATA_VIEW</t>
   </si>
   <si>
     <t>View existing campaign form data</t>
@@ -1832,7 +1832,7 @@
     <t>Able to delete travel entries from the system</t>
   </si>
   <si>
-    <t>TASK_VIEW, VISIT_DELETE, PERSON_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, DOCUMENT_VIEW, DOCUMENT_DELETE, TRAVEL_ENTRY_VIEW, TASK_DELETE, PERSON_DELETE</t>
+    <t>DOCUMENT_DELETE, DOCUMENT_VIEW, TASK_DELETE, PERSON_VIEW, VISIT_DELETE, PERSON_DELETE, TASK_VIEW, TRAVEL_ENTRY_MANAGEMENT_ACCESS, TRAVEL_ENTRY_VIEW</t>
   </si>
   <si>
     <t>Environments</t>
@@ -1865,7 +1865,7 @@
     <t>Able to delete environments from the system</t>
   </si>
   <si>
-    <t>ENVIRONMENT_SAMPLE_DELETE, ENVIRONMENT_SAMPLE_VIEW, ENVIRONMENT_VIEW, ENVIRONMENT_PATHOGEN_TEST_DELETE</t>
+    <t>ENVIRONMENT_VIEW, ENVIRONMENT_SAMPLE_DELETE, ENVIRONMENT_PATHOGEN_TEST_DELETE, ENVIRONMENT_SAMPLE_VIEW</t>
   </si>
   <si>
     <t>Import environments</t>
@@ -1922,7 +1922,7 @@
     <t>Able to delete environment samples from the system</t>
   </si>
   <si>
-    <t>ENVIRONMENT_SAMPLE_VIEW, ENVIRONMENT_PATHOGEN_TEST_DELETE</t>
+    <t>ENVIRONMENT_PATHOGEN_TEST_DELETE, ENVIRONMENT_SAMPLE_VIEW</t>
   </si>
   <si>
     <t>Import environment samples</t>
@@ -1931,7 +1931,7 @@
     <t>Able to import environment samples</t>
   </si>
   <si>
-    <t>ENVIRONMENT_SAMPLE_VIEW, ENVIRONMENT_SAMPLE_CREATE</t>
+    <t>ENVIRONMENT_SAMPLE_CREATE, ENVIRONMENT_SAMPLE_VIEW</t>
   </si>
   <si>
     <t>Export environment samples</t>
@@ -2120,7 +2120,7 @@
     <t>Able to work with messages</t>
   </si>
   <si>
-    <t>IMMUNIZATION_CREATE, SAMPLE_VIEW, PERSON_VIEW, PERSON_EDIT, EXTERNAL_MESSAGE_VIEW, IMMUNIZATION_VIEW, SAMPLE_CREATE, SAMPLE_EDIT, PATHOGEN_TEST_CREATE, VISIT_DELETE, PATHOGEN_TEST_DELETE, PATHOGEN_TEST_EDIT, IMMUNIZATION_DELETE, IMMUNIZATION_EDIT, PERSON_DELETE</t>
+    <t>IMMUNIZATION_DELETE, PERSON_EDIT, EXTERNAL_MESSAGE_VIEW, PATHOGEN_TEST_CREATE, PATHOGEN_TEST_DELETE, IMMUNIZATION_EDIT, IMMUNIZATION_CREATE, SAMPLE_EDIT, PATHOGEN_TEST_EDIT, IMMUNIZATION_VIEW, SAMPLE_CREATE, SAMPLE_VIEW, PERSON_VIEW, VISIT_DELETE, PERSON_DELETE</t>
   </si>
   <si>
     <t>Push external messages to the system</t>
@@ -2315,7 +2315,7 @@
     <t>SORMAS Version</t>
   </si>
   <si>
-    <t>1.96.0-SNAPSHOT</t>
+    <t>1.97.0-SNAPSHOT</t>
   </si>
 </sst>
 </file>
